--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04329F06-1C69-4ABA-AA98-C52AB858E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9F902-00C5-427E-A3D2-9653B426F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>BABY B</t>
+  </si>
+  <si>
+    <t>MOT000001</t>
+  </si>
+  <si>
+    <t>MOT000002</t>
   </si>
 </sst>
 </file>
@@ -160,10 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -536,7 +543,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +622,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +668,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="3">
+        <v>35848</v>
+      </c>
       <c r="E2">
         <v>123</v>
       </c>
@@ -673,8 +683,8 @@
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2">
-        <v>123</v>
+      <c r="I2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -696,8 +706,8 @@
       <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
-        <v>123</v>
+      <c r="I3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9F902-00C5-427E-A3D2-9653B426F86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D93943-5836-4F3F-AE3F-FE39A63CB495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
     <sheet name="Guardian" sheetId="1" r:id="rId2"/>
     <sheet name="Patient" sheetId="2" r:id="rId3"/>
+    <sheet name="Order" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>First Name</t>
   </si>
@@ -91,9 +92,6 @@
     <t>Bed</t>
   </si>
   <si>
-    <t>BABY BLUE</t>
-  </si>
-  <si>
     <t>TESTING</t>
   </si>
   <si>
@@ -118,10 +116,43 @@
     <t>BABY B</t>
   </si>
   <si>
-    <t>MOT000001</t>
-  </si>
-  <si>
-    <t>MOT000002</t>
+    <t>Patient Identifier</t>
+  </si>
+  <si>
+    <t>Order Base</t>
+  </si>
+  <si>
+    <t>Milk Base / Base Product</t>
+  </si>
+  <si>
+    <t>Feed Volume</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Label Notes</t>
+  </si>
+  <si>
+    <t>PT000001</t>
+  </si>
+  <si>
+    <t>Breastmilk</t>
+  </si>
+  <si>
+    <t>EBM_display_name_short</t>
+  </si>
+  <si>
+    <t>EHM Only Order</t>
+  </si>
+  <si>
+    <t>Use For Testing</t>
+  </si>
+  <si>
+    <t>G123</t>
+  </si>
+  <si>
+    <t>TEST GUARDIAN</t>
   </si>
 </sst>
 </file>
@@ -519,18 +550,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +574,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,11 +616,11 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2">
-        <v>123</v>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -603,10 +634,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +661,10 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,8 +692,11 @@
       <c r="I1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -681,15 +716,18 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>123</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -704,10 +742,70 @@
         <v>200</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
+      <c r="F2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D93943-5836-4F3F-AE3F-FE39A63CB495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD396EC6-C436-4BE0-89A0-272548CFC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>First Name</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>TEST GUARDIAN</t>
+  </si>
+  <si>
+    <t>Barcode</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +667,7 @@
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,8 +698,11 @@
       <c r="J1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -725,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD396EC6-C436-4BE0-89A0-272548CFC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B80EC0-7850-48D8-8F27-647866387800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>First Name</t>
   </si>
@@ -50,15 +50,6 @@
     <t>MRN</t>
   </si>
   <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Cellphone Number</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Middle Name</t>
   </si>
   <si>
@@ -156,6 +147,24 @@
   </si>
   <si>
     <t>Barcode</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>CellphoneNumber</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
   </si>
 </sst>
 </file>
@@ -546,25 +555,25 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -576,54 +585,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -632,15 +641,15 @@
         <v>2222222222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -655,59 +664,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>35848</v>
@@ -722,7 +731,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>123</v>
@@ -731,12 +740,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1234</v>
@@ -748,7 +757,7 @@
         <v>200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>123</v>
@@ -767,51 +776,51 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B80EC0-7850-48D8-8F27-647866387800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7620C-46AD-4FAA-A984-26120E866E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,29 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>MRN</t>
   </si>
   <si>
-    <t>Middle Name</t>
-  </si>
-  <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>MRN Number</t>
-  </si>
-  <si>
     <t>SAMPLE GUARDIAN</t>
   </si>
   <si>
@@ -71,9 +53,6 @@
     <t>sampleguardian@mail.com</t>
   </si>
   <si>
-    <t>Mother Identifier</t>
-  </si>
-  <si>
     <t>BABY A</t>
   </si>
   <si>
@@ -137,9 +116,6 @@
     <t>EHM Only Order</t>
   </si>
   <si>
-    <t>Use For Testing</t>
-  </si>
-  <si>
     <t>G123</t>
   </si>
   <si>
@@ -165,6 +141,21 @@
   </si>
   <si>
     <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>MRNNumber</t>
+  </si>
+  <si>
+    <t>MotherIdentifier</t>
+  </si>
+  <si>
+    <t>UseForTesting</t>
   </si>
 </sst>
 </file>
@@ -562,18 +553,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -600,39 +591,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -641,15 +632,15 @@
         <v>2222222222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -664,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,45 +669,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>35848</v>
@@ -731,7 +722,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>123</v>
@@ -742,10 +733,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1234</v>
@@ -757,7 +748,7 @@
         <v>200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>123</v>
@@ -788,39 +779,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7620C-46AD-4FAA-A984-26120E866E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93091FD-4648-4114-BB0F-5D568CE25768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>MRN</t>
   </si>
@@ -546,12 +546,12 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -574,22 +574,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -611,8 +612,11 @@
       <c r="G1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -634,8 +638,11 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="3">
+        <v>27051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -655,19 +662,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -702,7 +709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -731,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -767,17 +774,17 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93091FD-4648-4114-BB0F-5D568CE25768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D627A81-E7E1-49CB-BB77-E246BD799573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>MRN</t>
   </si>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>35848</v>
+        <v>45344</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -731,8 +731,8 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2">
-        <v>123</v>
+      <c r="I2" t="s">
+        <v>25</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -757,8 +757,8 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3">
-        <v>123</v>
+      <c r="I3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D627A81-E7E1-49CB-BB77-E246BD799573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB65DAA9-0B40-4ACC-BAA9-C0A769BE75C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="22932" yWindow="-1500" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>MRN</t>
   </si>
@@ -663,7 +663,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,8 +731,9 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
+      <c r="I2" t="str">
+        <f>Guardian!C2</f>
+        <v>G123</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -757,8 +758,9 @@
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
+      <c r="I3" t="str">
+        <f>Guardian!C2</f>
+        <v>G123</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Documents\UiPath\TMNP Smoke Testing Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB65DAA9-0B40-4ACC-BAA9-C0A769BE75C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F2793E-9D8F-4294-BCFC-ACF117F66FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-1500" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
     <sheet name="Guardian" sheetId="1" r:id="rId2"/>
     <sheet name="Patient" sheetId="2" r:id="rId3"/>
     <sheet name="Order" sheetId="4" r:id="rId4"/>
+    <sheet name="Order Base" sheetId="5" r:id="rId5"/>
+    <sheet name="OrderAdditives" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="673">
   <si>
     <t>MRN</t>
   </si>
@@ -62,15 +64,9 @@
     <t>Bed</t>
   </si>
   <si>
-    <t>TESTING</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -83,9 +79,6 @@
     <t>timeless</t>
   </si>
   <si>
-    <t>BABY B</t>
-  </si>
-  <si>
     <t>Patient Identifier</t>
   </si>
   <si>
@@ -113,15 +106,9 @@
     <t>EBM_display_name_short</t>
   </si>
   <si>
-    <t>EHM Only Order</t>
-  </si>
-  <si>
     <t>G123</t>
   </si>
   <si>
-    <t>TEST GUARDIAN</t>
-  </si>
-  <si>
     <t>Barcode</t>
   </si>
   <si>
@@ -156,6 +143,1923 @@
   </si>
   <si>
     <t>UseForTesting</t>
+  </si>
+  <si>
+    <t>formtypeName</t>
+  </si>
+  <si>
+    <t>formtypeShortName</t>
+  </si>
+  <si>
+    <t>Enfamil Infant RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Infant</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Infant RTU</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Infant</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro EnfaCare RTU</t>
+  </si>
+  <si>
+    <t>NeuroPro Enfacare</t>
+  </si>
+  <si>
+    <t>Enfamil EnfaCare RTU</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Gentlease RTU</t>
+  </si>
+  <si>
+    <t>Enfamil A.R. RTU</t>
+  </si>
+  <si>
+    <t>Enfamil A.R</t>
+  </si>
+  <si>
+    <t>Nutramigen RTU</t>
+  </si>
+  <si>
+    <t>Pregestimil 24 kcal RTU</t>
+  </si>
+  <si>
+    <t>Pregestimil 20 kcal RTU</t>
+  </si>
+  <si>
+    <t>Enfamil ProSobee RTU</t>
+  </si>
+  <si>
+    <t>Enfagrow NeuroPro Toddler Natural Milk Nutritional Drink</t>
+  </si>
+  <si>
+    <t>Enfagrow NeuroPro Toddler Vanilla Flavor Nutrition Drink</t>
+  </si>
+  <si>
+    <t>Enfamil Water, Oral Use RTU</t>
+  </si>
+  <si>
+    <t>Enfamil 5% Glucose Water RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Enfalyte Oral Electrolyte Solution RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Premature with Iron 20 kcal RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Premature 24 kcal RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Premature 30 kcal RTU</t>
+  </si>
+  <si>
+    <t>Enfamil Premature 24 kcal High Protein RTU</t>
+  </si>
+  <si>
+    <t>Enfamil 24 kcal RTU</t>
+  </si>
+  <si>
+    <t>Enfaport Nursette RTU</t>
+  </si>
+  <si>
+    <t>Similac With Iron 24</t>
+  </si>
+  <si>
+    <t>Sim Iron 24</t>
+  </si>
+  <si>
+    <t>Similac Advance RTF</t>
+  </si>
+  <si>
+    <t>Pure Bliss Organic RTF</t>
+  </si>
+  <si>
+    <t>Pure Bliss Organic</t>
+  </si>
+  <si>
+    <t>Similac 360 Total Care RTF</t>
+  </si>
+  <si>
+    <t>Sim 360 Total</t>
+  </si>
+  <si>
+    <t>Similac 360 Total Care Sensitive RTF</t>
+  </si>
+  <si>
+    <t>Similac Special Care 20 RTU</t>
+  </si>
+  <si>
+    <t>Sim Special Care 20</t>
+  </si>
+  <si>
+    <t>Similac Special Care 24 RTU</t>
+  </si>
+  <si>
+    <t>Sim Special Care 24</t>
+  </si>
+  <si>
+    <t>Similac Special Care 24 High Protein RTU</t>
+  </si>
+  <si>
+    <t>Sim Special Care 24 HP</t>
+  </si>
+  <si>
+    <t>Similac Special Care 30 RTF</t>
+  </si>
+  <si>
+    <t>Sim Special Care 30</t>
+  </si>
+  <si>
+    <t>Similac Neosure RTF</t>
+  </si>
+  <si>
+    <t>Sim Neosure</t>
+  </si>
+  <si>
+    <t>Neocate Splash</t>
+  </si>
+  <si>
+    <t>Similac Alimentum RTF</t>
+  </si>
+  <si>
+    <t>Sim Alimentum</t>
+  </si>
+  <si>
+    <t>Similac Pro-Total Comfort 20 RTF</t>
+  </si>
+  <si>
+    <t>Sim Pro-Total Comfort 20</t>
+  </si>
+  <si>
+    <t>Similac Sensitive for Spit-Up RTF</t>
+  </si>
+  <si>
+    <t>Sim Sensitive Spit Up</t>
+  </si>
+  <si>
+    <t>Similac Sterile Water</t>
+  </si>
+  <si>
+    <t>Sim Sterile Water</t>
+  </si>
+  <si>
+    <t>Similac 10% Glucose Water RTF</t>
+  </si>
+  <si>
+    <t>Sim 10% Glucose Water</t>
+  </si>
+  <si>
+    <t>Similac 5% Glucose Water RTF</t>
+  </si>
+  <si>
+    <t>Sim 5% Glucose Water</t>
+  </si>
+  <si>
+    <t>Nepro with Carbsteady</t>
+  </si>
+  <si>
+    <t>Nepro Carbsteady</t>
+  </si>
+  <si>
+    <t>Pedialyte Classic</t>
+  </si>
+  <si>
+    <t>Glucerna 1.5 Cal</t>
+  </si>
+  <si>
+    <t>Glucerna</t>
+  </si>
+  <si>
+    <t>Pediasure Grow &amp; Gain</t>
+  </si>
+  <si>
+    <t>Pediasure 1.5</t>
+  </si>
+  <si>
+    <t>Pediasure Grow &amp; Gain with Fiber</t>
+  </si>
+  <si>
+    <t>Pediasure 1.5 Cal with Fiber</t>
+  </si>
+  <si>
+    <t>Pediasure Reduced Calorie</t>
+  </si>
+  <si>
+    <t>Jevity 1.0 Cal with Fiber</t>
+  </si>
+  <si>
+    <t>Jevity 1.2 Cal with Fiber</t>
+  </si>
+  <si>
+    <t>Jevity 1.5 Cal with Fiber</t>
+  </si>
+  <si>
+    <t>Osmolite 1.0 Cal</t>
+  </si>
+  <si>
+    <t>Osmolite 1.5 Cal</t>
+  </si>
+  <si>
+    <t>Suplena with Carbsteady</t>
+  </si>
+  <si>
+    <t>TwoCal HN</t>
+  </si>
+  <si>
+    <t>Compleat Original</t>
+  </si>
+  <si>
+    <t>Compleat</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Compleat Peds Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Original RTU</t>
+  </si>
+  <si>
+    <t>Compleat Peds</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Reduced Calorie 0.6</t>
+  </si>
+  <si>
+    <t>Compleat Peds Reduced Cal</t>
+  </si>
+  <si>
+    <t>Ensure Original Shake</t>
+  </si>
+  <si>
+    <t>Ensure Original</t>
+  </si>
+  <si>
+    <t>Nutren 1.0 Fiber RTU</t>
+  </si>
+  <si>
+    <t>Nutren 1.0 Fiber</t>
+  </si>
+  <si>
+    <t>Nutren 1.0 RTU</t>
+  </si>
+  <si>
+    <t>Nutren 1.0</t>
+  </si>
+  <si>
+    <t>Nutren 1.5 RTU</t>
+  </si>
+  <si>
+    <t>Nutren 1.5</t>
+  </si>
+  <si>
+    <t>Nutren Junior</t>
+  </si>
+  <si>
+    <t>Nutren Jr.</t>
+  </si>
+  <si>
+    <t>Nutren Junior Fiber RTU</t>
+  </si>
+  <si>
+    <t>Nutren Jr. Fiber</t>
+  </si>
+  <si>
+    <t>Nutren 2.0 RTU</t>
+  </si>
+  <si>
+    <t>Nutren Pulmonary RTU</t>
+  </si>
+  <si>
+    <t>Nutren Pulmonary</t>
+  </si>
+  <si>
+    <t>Vivonex RTF</t>
+  </si>
+  <si>
+    <t>Vivonex</t>
+  </si>
+  <si>
+    <t>Bright Beginnings Soy Vanilla</t>
+  </si>
+  <si>
+    <t>Bright Beginnings Soy</t>
+  </si>
+  <si>
+    <t>Boost Kid Essentials 1.0 RTU</t>
+  </si>
+  <si>
+    <t>Boost Kid 1.0</t>
+  </si>
+  <si>
+    <t>Boost Kid Essentials 1.5 RTU</t>
+  </si>
+  <si>
+    <t>Boost Kid Essentials 1.5 With Fiber RTU</t>
+  </si>
+  <si>
+    <t>Boost Breeze RTU</t>
+  </si>
+  <si>
+    <t>Boose Breeze</t>
+  </si>
+  <si>
+    <t>Boost Original RTU</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Boost Glucose Control RTU</t>
+  </si>
+  <si>
+    <t>Boost BG Control</t>
+  </si>
+  <si>
+    <t>Boost Plus RTU</t>
+  </si>
+  <si>
+    <t>Boost Plus</t>
+  </si>
+  <si>
+    <t>Boost Nutritional Pudding RTU</t>
+  </si>
+  <si>
+    <t>Boost Pudding</t>
+  </si>
+  <si>
+    <t>Boost Very High Calorie RTU</t>
+  </si>
+  <si>
+    <t>Boost VHC</t>
+  </si>
+  <si>
+    <t>Benecalorie Concentrate</t>
+  </si>
+  <si>
+    <t>Benecalorie</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials RTF Flavored Nutritional Drink RTU</t>
+  </si>
+  <si>
+    <t>Carnation Essentials Flavor</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle RTF</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soy RTF</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soy</t>
+  </si>
+  <si>
+    <t>Isosource 1.5 Cal RTU</t>
+  </si>
+  <si>
+    <t>Isosource 1.5</t>
+  </si>
+  <si>
+    <t>Isosource HN RTU</t>
+  </si>
+  <si>
+    <t>Isosource HN</t>
+  </si>
+  <si>
+    <t>Pediasure 1.5 Calorie Vanilla</t>
+  </si>
+  <si>
+    <t>Peptamen 1.5 RTU</t>
+  </si>
+  <si>
+    <t>Peptamen 1.5</t>
+  </si>
+  <si>
+    <t>Peptamen AF RTU</t>
+  </si>
+  <si>
+    <t>Peptamen AF</t>
+  </si>
+  <si>
+    <t>Peptamen Intense Very High Protein (VHP) RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Intense VHP</t>
+  </si>
+  <si>
+    <t>Peptamen Junior RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Junior</t>
+  </si>
+  <si>
+    <t>Peptamen Junior 1.5 RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Jr 1.5</t>
+  </si>
+  <si>
+    <t>Peptamen Junior Fiber RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Junior Fiber</t>
+  </si>
+  <si>
+    <t>Peptamen With Prebio RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Prebio</t>
+  </si>
+  <si>
+    <t>Periflex LQ</t>
+  </si>
+  <si>
+    <t>Replete RTU</t>
+  </si>
+  <si>
+    <t>Replete</t>
+  </si>
+  <si>
+    <t>Replete Fiber RTU</t>
+  </si>
+  <si>
+    <t>Replete Fiber</t>
+  </si>
+  <si>
+    <t>Impact Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Diabetisource AC RTU</t>
+  </si>
+  <si>
+    <t>Diabetisource AC</t>
+  </si>
+  <si>
+    <t>KetoVie 4:1 Peptide</t>
+  </si>
+  <si>
+    <t>KetoVie 3:1</t>
+  </si>
+  <si>
+    <t>KetoVie 4:1 Vanilla</t>
+  </si>
+  <si>
+    <t>KetoVie 4:1 Chocolate</t>
+  </si>
+  <si>
+    <t>Prolact HM</t>
+  </si>
+  <si>
+    <t>Prolacta Human Donor Milk</t>
+  </si>
+  <si>
+    <t>PremieLact</t>
+  </si>
+  <si>
+    <t>Prolact RTF 24</t>
+  </si>
+  <si>
+    <t>Prolact RTF 26</t>
+  </si>
+  <si>
+    <t>Prolact RTF 28</t>
+  </si>
+  <si>
+    <t>Prolacta RTF 28</t>
+  </si>
+  <si>
+    <t>Ni-Q HDM Plus</t>
+  </si>
+  <si>
+    <t>Ni-Q HDM</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Beef Potatoes &amp; Spinach)</t>
+  </si>
+  <si>
+    <t>Real Foods Beef</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Quinoa Kale &amp; Hemp)</t>
+  </si>
+  <si>
+    <t>Real Foods Quinoa</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Turkey Sweet Potatoes &amp; Peaches)</t>
+  </si>
+  <si>
+    <t>Real Foods Turkey</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Salmon Oats &amp; Squash)</t>
+  </si>
+  <si>
+    <t>Real Foods Salmon</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Chicken, Carrots and Brown Rice)</t>
+  </si>
+  <si>
+    <t>Real Foods Chicken</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Eggs Apples &amp; Oats)</t>
+  </si>
+  <si>
+    <t>Real Foods Eggs</t>
+  </si>
+  <si>
+    <t>Kate Farms Pediatric Standard 1.2</t>
+  </si>
+  <si>
+    <t>Kate Farms Ped Standard 1.2</t>
+  </si>
+  <si>
+    <t>Kate Farms Pediatric Peptide 1.5 Vanilla</t>
+  </si>
+  <si>
+    <t>Kate Farms Ped Pep 1.5</t>
+  </si>
+  <si>
+    <t>Kate Farms Pediatric Peptide 1.5 (Plain)</t>
+  </si>
+  <si>
+    <t>Kate Farms Ped Pep 1.5 Plain</t>
+  </si>
+  <si>
+    <t>Kate Farms Standard 1.0</t>
+  </si>
+  <si>
+    <t>Kate Farms Standard 1.0 Vanila</t>
+  </si>
+  <si>
+    <t>Kate Farms Standard 1.0 Van</t>
+  </si>
+  <si>
+    <t>ProSource Gelatein</t>
+  </si>
+  <si>
+    <t>Baxter Sterile Water</t>
+  </si>
+  <si>
+    <t>Kate Farms Pediatric Peptide 1.0</t>
+  </si>
+  <si>
+    <t>Other (See Notes)</t>
+  </si>
+  <si>
+    <t>Ketocal 4:1 LQ</t>
+  </si>
+  <si>
+    <t>Ketocal 4:1</t>
+  </si>
+  <si>
+    <t>Osmolite 1.2</t>
+  </si>
+  <si>
+    <t>Glucerna 1.2 Cal</t>
+  </si>
+  <si>
+    <t>Glucerna 1.2</t>
+  </si>
+  <si>
+    <t>Ensure Plus Nutrition Shake</t>
+  </si>
+  <si>
+    <t>Ensure Plus</t>
+  </si>
+  <si>
+    <t>Ensure Clear Therapeutic Nutrition</t>
+  </si>
+  <si>
+    <t>Ensure Clear</t>
+  </si>
+  <si>
+    <t>Promote</t>
+  </si>
+  <si>
+    <t>Promote With Fiber</t>
+  </si>
+  <si>
+    <t>Ensure Enlive Advanced Therapeutic Nutrition Shake</t>
+  </si>
+  <si>
+    <t>Ensure Enlive</t>
+  </si>
+  <si>
+    <t>Ensure Compact Therapeutic Nutrition Shake</t>
+  </si>
+  <si>
+    <t>Ensure Compact</t>
+  </si>
+  <si>
+    <t>Ensure Harvest</t>
+  </si>
+  <si>
+    <t>Pediasure Peptide 1.0</t>
+  </si>
+  <si>
+    <t>Pediasure Peptide</t>
+  </si>
+  <si>
+    <t>Pediasure Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Pediasure Harvest</t>
+  </si>
+  <si>
+    <t>Pivot 1.5</t>
+  </si>
+  <si>
+    <t>Vital 1.0 Cal</t>
+  </si>
+  <si>
+    <t>Vital 1.0 HP</t>
+  </si>
+  <si>
+    <t>Vital HP</t>
+  </si>
+  <si>
+    <t>Vital AF 1.2 Cal</t>
+  </si>
+  <si>
+    <t>Vital 1.5</t>
+  </si>
+  <si>
+    <t>Resource 2.0 RTU</t>
+  </si>
+  <si>
+    <t>Resource 2.0</t>
+  </si>
+  <si>
+    <t>Nourish</t>
+  </si>
+  <si>
+    <t>Nourish Peptide</t>
+  </si>
+  <si>
+    <t>Liquid Hope</t>
+  </si>
+  <si>
+    <t>Liquid Hope Peptide</t>
+  </si>
+  <si>
+    <t>Pediasure Enteral 1.0</t>
+  </si>
+  <si>
+    <t>Pediasure Vanilla</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Pro</t>
+  </si>
+  <si>
+    <t>Peptamen 1.0 RTU</t>
+  </si>
+  <si>
+    <t>Peptamen 1.0</t>
+  </si>
+  <si>
+    <t>Fibersource HN RTU</t>
+  </si>
+  <si>
+    <t>Fibersource HN</t>
+  </si>
+  <si>
+    <t>Certo Premium Liquid Fruit Pectin</t>
+  </si>
+  <si>
+    <t>Certo Pectin</t>
+  </si>
+  <si>
+    <t>Novasource Renal RTU</t>
+  </si>
+  <si>
+    <t>Novasource Renal</t>
+  </si>
+  <si>
+    <t>Renastep</t>
+  </si>
+  <si>
+    <t>KetoVie Plant based protein</t>
+  </si>
+  <si>
+    <t>KetoVie Plant based</t>
+  </si>
+  <si>
+    <t>Pediasure with Fiber 1.5</t>
+  </si>
+  <si>
+    <t>Keto Peptide</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Green Bean</t>
+  </si>
+  <si>
+    <t>Baby Food Green Beans</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Carrot</t>
+  </si>
+  <si>
+    <t>Baby Food Carrots</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Peas</t>
+  </si>
+  <si>
+    <t>Baby Food Peas</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Butternut Squash</t>
+  </si>
+  <si>
+    <t>Baby Food Butternut Squash</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Prune</t>
+  </si>
+  <si>
+    <t>Baby Food Prunes</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Pear</t>
+  </si>
+  <si>
+    <t>Baby Food Pears</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Apple</t>
+  </si>
+  <si>
+    <t>Baby Food Apples</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Banana</t>
+  </si>
+  <si>
+    <t>Baby Food Bananas</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Sweet Potato</t>
+  </si>
+  <si>
+    <t>Baby Food Sweet Potatoes</t>
+  </si>
+  <si>
+    <t>Gerber Mealtime for Baby Chicken and Gravy</t>
+  </si>
+  <si>
+    <t>Baby food chicken</t>
+  </si>
+  <si>
+    <t>Gerber Mealtime for Baby Turkey and Gravy</t>
+  </si>
+  <si>
+    <t>Baby food turkey</t>
+  </si>
+  <si>
+    <t>Gerber Mealtime for Baby Beef</t>
+  </si>
+  <si>
+    <t>Baby food beef</t>
+  </si>
+  <si>
+    <t>Fortini Infant</t>
+  </si>
+  <si>
+    <t>Fortini</t>
+  </si>
+  <si>
+    <t>Corn Oil</t>
+  </si>
+  <si>
+    <t>Premier Protein</t>
+  </si>
+  <si>
+    <t>Ketocal 2.5:1 Vanilla</t>
+  </si>
+  <si>
+    <t>Functional Formularies Keto Plant Based</t>
+  </si>
+  <si>
+    <t>FF Keto Plant Based</t>
+  </si>
+  <si>
+    <t>Kate Farms Standard 1.4</t>
+  </si>
+  <si>
+    <t>Compleat Standard Plant Based</t>
+  </si>
+  <si>
+    <t>Peptamen Jr. HP</t>
+  </si>
+  <si>
+    <t>Peptamen 1.5 w/Prebio RTU</t>
+  </si>
+  <si>
+    <t>Peptamen 1.5 Prebio</t>
+  </si>
+  <si>
+    <t>Impact Advanced Recovery RTU</t>
+  </si>
+  <si>
+    <t>Impact Adv Recovery</t>
+  </si>
+  <si>
+    <t>Ensure Pre-Surgery</t>
+  </si>
+  <si>
+    <t>Ensure Pre-Surg</t>
+  </si>
+  <si>
+    <t>Prosource TF</t>
+  </si>
+  <si>
+    <t>Prosource Nocarb</t>
+  </si>
+  <si>
+    <t>Vital Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Peptamen Junior PHGG RTU</t>
+  </si>
+  <si>
+    <t>Peptamen Jr PHGG</t>
+  </si>
+  <si>
+    <t>Glytrol RTU</t>
+  </si>
+  <si>
+    <t>Glytrol</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Corn</t>
+  </si>
+  <si>
+    <t>Baby Food Corn</t>
+  </si>
+  <si>
+    <t>Gerber Natural for Baby Mango</t>
+  </si>
+  <si>
+    <t>Baby Food Mango</t>
+  </si>
+  <si>
+    <t>Compleat Peptide 1.5 RTU</t>
+  </si>
+  <si>
+    <t>Compleat Peptide 1.5</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Standard 1.0 RTU</t>
+  </si>
+  <si>
+    <t>Compleat Peds 1.0</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Standard 1.4 RTU</t>
+  </si>
+  <si>
+    <t>Compleat Ped 1.4</t>
+  </si>
+  <si>
+    <t>Compleat Pediatric Peptide 1.0 RTU</t>
+  </si>
+  <si>
+    <t>Compleat Ped Peptide 1.0</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials High Protein RTU</t>
+  </si>
+  <si>
+    <t>Carnation Essentials HP</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials Light Start RTU</t>
+  </si>
+  <si>
+    <t>Carnation Light Start</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials RTF Nutritional Drink RTU</t>
+  </si>
+  <si>
+    <t>Carnation Essentials</t>
+  </si>
+  <si>
+    <t>Boost High Protein RTU</t>
+  </si>
+  <si>
+    <t>Boost HP</t>
+  </si>
+  <si>
+    <t>Boost Women RTU</t>
+  </si>
+  <si>
+    <t>Boost Women</t>
+  </si>
+  <si>
+    <t>Boost Glucose Control MAX RTU</t>
+  </si>
+  <si>
+    <t>Boost BG Control MAX</t>
+  </si>
+  <si>
+    <t>Pediasure Enteral Formula 1.0 Cal with Fiber</t>
+  </si>
+  <si>
+    <t>Pediasure 1.0 with Fiber</t>
+  </si>
+  <si>
+    <t>Pedialyte Zero Sugar Water</t>
+  </si>
+  <si>
+    <t>Pedialyte Fast Hydration</t>
+  </si>
+  <si>
+    <t>Pedialyte Freezer Pops</t>
+  </si>
+  <si>
+    <t>Pedialyte Half Liter</t>
+  </si>
+  <si>
+    <t>Pedialyte Organic</t>
+  </si>
+  <si>
+    <t>Pedialyte Sport</t>
+  </si>
+  <si>
+    <t>Pedialyte Immune Support</t>
+  </si>
+  <si>
+    <t>Pedialyte Advanced Care</t>
+  </si>
+  <si>
+    <t>Pedialyte Advance</t>
+  </si>
+  <si>
+    <t>Pedialyte Advanced Care Plus</t>
+  </si>
+  <si>
+    <t>Pedialyte Adv Plus</t>
+  </si>
+  <si>
+    <t>Similac Sensitive RTF</t>
+  </si>
+  <si>
+    <t>Sim Sensitive RTF</t>
+  </si>
+  <si>
+    <t>Similac Advance Kosher Cholov Yisroel RTU</t>
+  </si>
+  <si>
+    <t>Sim Adv Kosher RTF</t>
+  </si>
+  <si>
+    <t>Real Food Blends (Prunes, Pears &amp; Pumpkin)</t>
+  </si>
+  <si>
+    <t>Real Foods Prunes</t>
+  </si>
+  <si>
+    <t>Pro-Stat</t>
+  </si>
+  <si>
+    <t>Pro-Stat AWC (Advanced Wound Care)</t>
+  </si>
+  <si>
+    <t>Pro-Stat MAX</t>
+  </si>
+  <si>
+    <t>KetoCal 4:1 LQ Chocolate</t>
+  </si>
+  <si>
+    <t>HCU Lophlex LQ</t>
+  </si>
+  <si>
+    <t>MSUD Lophlex LQ</t>
+  </si>
+  <si>
+    <t>PKU Lophlex LQ</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP Ready</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP RTU</t>
+  </si>
+  <si>
+    <t>Order Name</t>
+  </si>
+  <si>
+    <t>EHM Only</t>
+  </si>
+  <si>
+    <t>EHM + Human Milk Fortifier</t>
+  </si>
+  <si>
+    <t>Is Modular</t>
+  </si>
+  <si>
+    <t>Mix To Cal or Modular Value</t>
+  </si>
+  <si>
+    <t>Additive Name</t>
+  </si>
+  <si>
+    <t>Enfamil Infant Concentrate</t>
+  </si>
+  <si>
+    <t>Enfamil Infant PWD</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Infant PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Enspire Optimum PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Enspire</t>
+  </si>
+  <si>
+    <t>Enfamil Enspire Gentlease PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Enspire Gentlease</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro EnfaCare PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Gentlease PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Gentlease</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Gentlease PWD</t>
+  </si>
+  <si>
+    <t>Enfamil A.R. PWD</t>
+  </si>
+  <si>
+    <t>Enfamil NeuroPro Sensitive PWD</t>
+  </si>
+  <si>
+    <t>Nutramigen Concentrate Liquid</t>
+  </si>
+  <si>
+    <t>Nutramigen with Enflora LGG PWD Can</t>
+  </si>
+  <si>
+    <t>Pregestimil PWD</t>
+  </si>
+  <si>
+    <t>Enfamil ProSobee Concentrate Liquid</t>
+  </si>
+  <si>
+    <t>Enfamil ProSobee PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Reguline PWD</t>
+  </si>
+  <si>
+    <t>Enfagrow PREMIUM Toddler Transitions PWD</t>
+  </si>
+  <si>
+    <t>Enfagrow Gentlease Toddler Transitions PWD</t>
+  </si>
+  <si>
+    <t>Enfagrow PREMIUM Toddler Nutritional Drink Natural Milk PWD</t>
+  </si>
+  <si>
+    <t>Enfagrow PREMIUM Toddler Nutritional Drink Vanilla PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Human Milk Fortifier PWD</t>
+  </si>
+  <si>
+    <t>Enfamil Human Milk Fortifier Acidified</t>
+  </si>
+  <si>
+    <t>Enfamil Liquid Human Milk Fortifier High Protein</t>
+  </si>
+  <si>
+    <t>Enfamil Liquid Human Milk Fortifier Standard Protein</t>
+  </si>
+  <si>
+    <t>Phenyl-Free 1</t>
+  </si>
+  <si>
+    <t>BCAD 1</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HCY 1</t>
+  </si>
+  <si>
+    <t>LMD</t>
+  </si>
+  <si>
+    <t>PFD Toddler</t>
+  </si>
+  <si>
+    <t>TYROS 1</t>
+  </si>
+  <si>
+    <t>OA 1</t>
+  </si>
+  <si>
+    <t>WND 1</t>
+  </si>
+  <si>
+    <t>Phenyl-Free 2</t>
+  </si>
+  <si>
+    <t>Phenyl-Free 2HP</t>
+  </si>
+  <si>
+    <t>BCAD 2</t>
+  </si>
+  <si>
+    <t>HCY 2</t>
+  </si>
+  <si>
+    <t>PFD 2</t>
+  </si>
+  <si>
+    <t>TYROS 2</t>
+  </si>
+  <si>
+    <t>OA 2</t>
+  </si>
+  <si>
+    <t>WND 2</t>
+  </si>
+  <si>
+    <t>Product 3232A Powder</t>
+  </si>
+  <si>
+    <t>Portagen Powder</t>
+  </si>
+  <si>
+    <t>PurAmino Infant</t>
+  </si>
+  <si>
+    <t>PurAmino Jr PWD</t>
+  </si>
+  <si>
+    <t>Similac Advance PWD</t>
+  </si>
+  <si>
+    <t>Sim Advance</t>
+  </si>
+  <si>
+    <t>Similac Advance Concentrate</t>
+  </si>
+  <si>
+    <t>Pure Bliss Organic PWD</t>
+  </si>
+  <si>
+    <t>Pure Bliss Similac Organic with A2 Milk, PWD</t>
+  </si>
+  <si>
+    <t>Pure Bliss Organic w/A2 Milk</t>
+  </si>
+  <si>
+    <t>Similac Organic Toddler with A2 Milk, PWD</t>
+  </si>
+  <si>
+    <t>Sim Organic Toddler w/A2 Milk</t>
+  </si>
+  <si>
+    <t>Similac Sensitive Concentrate</t>
+  </si>
+  <si>
+    <t>Similac 360 Total Care PWD</t>
+  </si>
+  <si>
+    <t>Similac 360 Total Care Sensitive PWD</t>
+  </si>
+  <si>
+    <t>Pure Bliss by Similac Toddler Drink</t>
+  </si>
+  <si>
+    <t>Similac Soy Isomil RTF</t>
+  </si>
+  <si>
+    <t>Sim Soy Iso</t>
+  </si>
+  <si>
+    <t>Similac Soy Isomil Concentrate</t>
+  </si>
+  <si>
+    <t>Similac Neosure PWD</t>
+  </si>
+  <si>
+    <t>Neocate Infant DHA / ARA</t>
+  </si>
+  <si>
+    <t>Neocate Infant</t>
+  </si>
+  <si>
+    <t>Neocate Junior With Prebiotics</t>
+  </si>
+  <si>
+    <t>Neocate Jr.</t>
+  </si>
+  <si>
+    <t>Neocate Junior Vanilla</t>
+  </si>
+  <si>
+    <t>Neocate Jr. Vanilla</t>
+  </si>
+  <si>
+    <t>Neocate Junior Unflavored without prebiotics</t>
+  </si>
+  <si>
+    <t>Neocate Junior</t>
+  </si>
+  <si>
+    <t>Neocate Junior Chocolate</t>
+  </si>
+  <si>
+    <t>Neocate Jr. Chocolate</t>
+  </si>
+  <si>
+    <t>Neocate Junior Tropical</t>
+  </si>
+  <si>
+    <t>Neocate Jr. Tropical</t>
+  </si>
+  <si>
+    <t>Similac Alimentum PWD</t>
+  </si>
+  <si>
+    <t>Similac Pro-Total Comfort 20 PWD</t>
+  </si>
+  <si>
+    <t>Similac Human Milk Fortifier Concentrated Liquid</t>
+  </si>
+  <si>
+    <t>Similac Human Milk Fortifier Hydrolyzed Protein Liquid Pack</t>
+  </si>
+  <si>
+    <t>Liquid Protein Fortifier</t>
+  </si>
+  <si>
+    <t>Similac PM 60/40 PWD</t>
+  </si>
+  <si>
+    <t>Similac PM 60/40</t>
+  </si>
+  <si>
+    <t>EleCare (for infants)</t>
+  </si>
+  <si>
+    <t>EleCare Jr</t>
+  </si>
+  <si>
+    <t>Calcilo XD PWD</t>
+  </si>
+  <si>
+    <t>Calcilo XD</t>
+  </si>
+  <si>
+    <t>Cyclinex-1 PWD</t>
+  </si>
+  <si>
+    <t>Cyclinex-1</t>
+  </si>
+  <si>
+    <t>Cyclinex-2 PWD</t>
+  </si>
+  <si>
+    <t>Cyclinex-2</t>
+  </si>
+  <si>
+    <t>Glutarex-1 PWD</t>
+  </si>
+  <si>
+    <t>Glutarex-1</t>
+  </si>
+  <si>
+    <t>Glutarex-2 PWD</t>
+  </si>
+  <si>
+    <t>Glutarex-2</t>
+  </si>
+  <si>
+    <t>Hominex-1 PWD</t>
+  </si>
+  <si>
+    <t>Hominex-1</t>
+  </si>
+  <si>
+    <t>Hominex-2 PWD</t>
+  </si>
+  <si>
+    <t>Hominex-2</t>
+  </si>
+  <si>
+    <t>I-Valex-1 PWD</t>
+  </si>
+  <si>
+    <t>I-Valex-1</t>
+  </si>
+  <si>
+    <t>I-Valex-2 PWD</t>
+  </si>
+  <si>
+    <t>I-Valex-2</t>
+  </si>
+  <si>
+    <t>Ketonex-1 PWD</t>
+  </si>
+  <si>
+    <t>Ketonex-1</t>
+  </si>
+  <si>
+    <t>Ketonex-2 PWD</t>
+  </si>
+  <si>
+    <t>Ketonex-2</t>
+  </si>
+  <si>
+    <t>Phenex-1 PWD</t>
+  </si>
+  <si>
+    <t>Phenex-1</t>
+  </si>
+  <si>
+    <t>Phenex-2 PWD</t>
+  </si>
+  <si>
+    <t>Phenex-2</t>
+  </si>
+  <si>
+    <t>Pro-Phree PWD</t>
+  </si>
+  <si>
+    <t>Pro-Phree</t>
+  </si>
+  <si>
+    <t>Propimex-1 PWD</t>
+  </si>
+  <si>
+    <t>Propimex-1</t>
+  </si>
+  <si>
+    <t>Propimex-2 PWD</t>
+  </si>
+  <si>
+    <t>Propimex-2</t>
+  </si>
+  <si>
+    <t>ProViMin PWD</t>
+  </si>
+  <si>
+    <t>ProViMin</t>
+  </si>
+  <si>
+    <t>RCF Concentrated Liquid</t>
+  </si>
+  <si>
+    <t>Tyrex-1 PWD</t>
+  </si>
+  <si>
+    <t>Tyrex-1</t>
+  </si>
+  <si>
+    <t>Tyrex-2 PWD</t>
+  </si>
+  <si>
+    <t>Tyrex-2</t>
+  </si>
+  <si>
+    <t>Alfamino Junior PWD</t>
+  </si>
+  <si>
+    <t>Alfamino Jr.</t>
+  </si>
+  <si>
+    <t>Alfamino Infant PWD</t>
+  </si>
+  <si>
+    <t>Alfamino</t>
+  </si>
+  <si>
+    <t>RenaStart</t>
+  </si>
+  <si>
+    <t>Vivonex Pediatric PWD</t>
+  </si>
+  <si>
+    <t>Vivonex Peds</t>
+  </si>
+  <si>
+    <t>Beneprotein PWD</t>
+  </si>
+  <si>
+    <t>Beneprotein</t>
+  </si>
+  <si>
+    <t>Mct Oil Concentrate</t>
+  </si>
+  <si>
+    <t>MCT Oil</t>
+  </si>
+  <si>
+    <t>Microlipid Concentrate</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials Powder</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle Concentrate</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle Powder</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soy Formula Concentrate</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soy Powder</t>
+  </si>
+  <si>
+    <t>Gerber Rice Cereal</t>
+  </si>
+  <si>
+    <t>Pediasmart Soy Vanilla powder</t>
+  </si>
+  <si>
+    <t>Pediasmart Soy</t>
+  </si>
+  <si>
+    <t>Pediasmart Vanilla powder</t>
+  </si>
+  <si>
+    <t>Pediasmart</t>
+  </si>
+  <si>
+    <t>PKU Periflex Early Years Powder</t>
+  </si>
+  <si>
+    <t>PKU Periflex Early Years</t>
+  </si>
+  <si>
+    <t>Duocal</t>
+  </si>
+  <si>
+    <t>Complete Amino Acid Mix</t>
+  </si>
+  <si>
+    <t>Tolerex PWD</t>
+  </si>
+  <si>
+    <t>Tolerex</t>
+  </si>
+  <si>
+    <t>Polycal</t>
+  </si>
+  <si>
+    <t>Monogen</t>
+  </si>
+  <si>
+    <t>Phlexy-Vits</t>
+  </si>
+  <si>
+    <t>Resource Thickenup PWD</t>
+  </si>
+  <si>
+    <t>Resource Thickenup</t>
+  </si>
+  <si>
+    <t>Simply Thick Honey</t>
+  </si>
+  <si>
+    <t>Simply Thick Nectar</t>
+  </si>
+  <si>
+    <t>SOD Anamix Early Years Powder</t>
+  </si>
+  <si>
+    <t>SOD Anamix Early Years</t>
+  </si>
+  <si>
+    <t>SolCarb</t>
+  </si>
+  <si>
+    <t>Periflex Advance</t>
+  </si>
+  <si>
+    <t>Prolact+4 HMF</t>
+  </si>
+  <si>
+    <t>Prolact+6 HMF</t>
+  </si>
+  <si>
+    <t>Prolact+8 HMF</t>
+  </si>
+  <si>
+    <t>Prolact+10 HMF</t>
+  </si>
+  <si>
+    <t>Prolact CR</t>
+  </si>
+  <si>
+    <t>Liquigen</t>
+  </si>
+  <si>
+    <t>Liquigen MCT</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soothe with Probiotics</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Soothe</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle Probiotic</t>
+  </si>
+  <si>
+    <t>Gerber Good Start Gentle Pro</t>
+  </si>
+  <si>
+    <t>Ketocal 4:1 Powder</t>
+  </si>
+  <si>
+    <t>Ketocal 3:1 Powder</t>
+  </si>
+  <si>
+    <t>Ketocal 3:1</t>
+  </si>
+  <si>
+    <t>Nutrisource Fiber PWD</t>
+  </si>
+  <si>
+    <t>Nutrisource Fiber</t>
+  </si>
+  <si>
+    <t>Gerber Extensive HA</t>
+  </si>
+  <si>
+    <t>Gelmix</t>
+  </si>
+  <si>
+    <t>Juven</t>
+  </si>
+  <si>
+    <t>Neocate Syneo Infant</t>
+  </si>
+  <si>
+    <t>Ceralyte 90</t>
+  </si>
+  <si>
+    <t>Ceralyte 50</t>
+  </si>
+  <si>
+    <t>Thick &amp; Easy Honey</t>
+  </si>
+  <si>
+    <t>Thick &amp; Easy Nectar</t>
+  </si>
+  <si>
+    <t>Vivonex T.E.N. PWD</t>
+  </si>
+  <si>
+    <t>Vivonex TEN PWD</t>
+  </si>
+  <si>
+    <t>Citrulline 1000</t>
+  </si>
+  <si>
+    <t>Essential Amino Acid Mix</t>
+  </si>
+  <si>
+    <t>Glutarade Essential</t>
+  </si>
+  <si>
+    <t>IVA Anamix Early Years</t>
+  </si>
+  <si>
+    <t>MMA/PA Anamix Early Years</t>
+  </si>
+  <si>
+    <t>UCD Anamix Junior</t>
+  </si>
+  <si>
+    <t>Cornstarch</t>
+  </si>
+  <si>
+    <t>L-isoleucine</t>
+  </si>
+  <si>
+    <t>Evivo with MCT</t>
+  </si>
+  <si>
+    <t>UCD Trio</t>
+  </si>
+  <si>
+    <t>UCD Anamix Infant</t>
+  </si>
+  <si>
+    <t>Happy Baby Organic</t>
+  </si>
+  <si>
+    <t>Unjury</t>
+  </si>
+  <si>
+    <t>Unjury Pwd</t>
+  </si>
+  <si>
+    <t>Banatrol Plus</t>
+  </si>
+  <si>
+    <t>Cholextra t/f</t>
+  </si>
+  <si>
+    <t>Cholextra</t>
+  </si>
+  <si>
+    <t>Methionine 100</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>Nutramigen with Enflora LGG Toddler Pwd Can</t>
+  </si>
+  <si>
+    <t>ThickenUp Clear PWD</t>
+  </si>
+  <si>
+    <t>Thickenup Clear</t>
+  </si>
+  <si>
+    <t>Vivonex Plus PWD</t>
+  </si>
+  <si>
+    <t>Vivonex Plus</t>
+  </si>
+  <si>
+    <t>SMA Nutrition Althera</t>
+  </si>
+  <si>
+    <t>Carnation Breakfast Essentials High Protein PWD</t>
+  </si>
+  <si>
+    <t>Boost Original Balanced Nutritional PWD</t>
+  </si>
+  <si>
+    <t>Boost Original PWD</t>
+  </si>
+  <si>
+    <t>Arginaid Arginine PWD</t>
+  </si>
+  <si>
+    <t>Arginaid</t>
+  </si>
+  <si>
+    <t>Arginaid Extra RTU</t>
+  </si>
+  <si>
+    <t>Arginaid Extra</t>
+  </si>
+  <si>
+    <t>Pure Bliss Irish Farms PWD</t>
+  </si>
+  <si>
+    <t>Pure Bliss Irish Farms</t>
+  </si>
+  <si>
+    <t>Pedialyte Classic Powder Packs</t>
+  </si>
+  <si>
+    <t>Pedialyte Zero Sugar Powder Packs</t>
+  </si>
+  <si>
+    <t>Pedialyte Fast Hydration Powder Packs</t>
+  </si>
+  <si>
+    <t>Pedialyte Sport Powder Packs</t>
+  </si>
+  <si>
+    <t>Pedialyte Immune Support Powder Packs</t>
+  </si>
+  <si>
+    <t>Similac Sensitive Powder</t>
+  </si>
+  <si>
+    <t>Sim Sensitive PWD</t>
+  </si>
+  <si>
+    <t>Similac Advance Lamehadrin</t>
+  </si>
+  <si>
+    <t>Similac Soy Isomil PWD</t>
+  </si>
+  <si>
+    <t>TYR Lophlex GMP Mix In</t>
+  </si>
+  <si>
+    <t>TYR Anamix Early Years</t>
+  </si>
+  <si>
+    <t>MMA/PA Maxamum</t>
+  </si>
+  <si>
+    <t>MMA/PA Anamix Next</t>
+  </si>
+  <si>
+    <t>HCU Maxamum</t>
+  </si>
+  <si>
+    <t>HCU Anamix Next</t>
+  </si>
+  <si>
+    <t>HCU Anamix Early Years</t>
+  </si>
+  <si>
+    <t>Glutarade Amino Acid Blend</t>
+  </si>
+  <si>
+    <t>GA-1 Anamix Early Years</t>
+  </si>
+  <si>
+    <t>IVA Maxamum</t>
+  </si>
+  <si>
+    <t>IVA Anamix Next</t>
+  </si>
+  <si>
+    <t>MSUD Maxamum</t>
+  </si>
+  <si>
+    <t>Complex MSD Amino Acid Blend</t>
+  </si>
+  <si>
+    <t>MSD AA Blend</t>
+  </si>
+  <si>
+    <t>Complex MSD Essential</t>
+  </si>
+  <si>
+    <t>MSD Essential</t>
+  </si>
+  <si>
+    <t>MSUD Anamix Early Years</t>
+  </si>
+  <si>
+    <t>MSUD Anamix</t>
+  </si>
+  <si>
+    <t>Phlexy-10 Drink Mix</t>
+  </si>
+  <si>
+    <t>Phlexy-10 Drink</t>
+  </si>
+  <si>
+    <t>PKU Lophlex Powder</t>
+  </si>
+  <si>
+    <t>PKU Maxamum</t>
+  </si>
+  <si>
+    <t>PhenylAde Amino Acid Blends</t>
+  </si>
+  <si>
+    <t>PhenylAde AA Blend</t>
+  </si>
+  <si>
+    <t>PhenylAde 60 Drink Mix</t>
+  </si>
+  <si>
+    <t>PhenylAde 60</t>
+  </si>
+  <si>
+    <t>PhenylAde Essential Drink Mix</t>
+  </si>
+  <si>
+    <t>PhenylAde Essential</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP Mix In</t>
+  </si>
+  <si>
+    <t>PhenylAde Mix</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP Ultra</t>
+  </si>
+  <si>
+    <t>PhenylAde Ultra</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP Drink Mix</t>
+  </si>
+  <si>
+    <t>PhenylAde GMP</t>
+  </si>
+  <si>
+    <t>PKU Periflex Junior Plus</t>
+  </si>
+  <si>
+    <t>Periflex Jr Plus</t>
+  </si>
+  <si>
+    <t>Neocate Junior Strawberry</t>
+  </si>
+  <si>
+    <t>Neocate Nutra</t>
+  </si>
+  <si>
+    <t>Pepticate Infant Formula</t>
+  </si>
+  <si>
+    <t>Pepticate Infant</t>
+  </si>
+  <si>
+    <t>TYR Anamix Next</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>EHM + Fortifiers</t>
+  </si>
+  <si>
+    <t>EHM + Fortifiers Label Note</t>
+  </si>
+  <si>
+    <t>EHM +Fortifier + Modular</t>
+  </si>
+  <si>
+    <t>EHM + Fortifier + Modular Label Note</t>
+  </si>
+  <si>
+    <t>Product without Fortifier</t>
+  </si>
+  <si>
+    <t>Base Product ShortName</t>
+  </si>
+  <si>
+    <t>Product without Fortifier Label Note</t>
+  </si>
+  <si>
+    <t>Product +  Fortifiers</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Product + Fortifier Label Note</t>
+  </si>
+  <si>
+    <t>formtypeCalPerOz</t>
+  </si>
+  <si>
+    <t>Base Product Cal</t>
+  </si>
+  <si>
+    <t>Product +  Fortifier + Modular</t>
+  </si>
+  <si>
+    <t>Product + Fortifier + Modular Label Note</t>
+  </si>
+  <si>
+    <t>EHM + HMF Label Note</t>
+  </si>
+  <si>
+    <t>EHM Only Label Note</t>
+  </si>
+  <si>
+    <t>Sterile Water + Fortifiers</t>
+  </si>
+  <si>
+    <t>Sterile Water + Fortifier + Modular</t>
+  </si>
+  <si>
+    <t>Sterile Water</t>
+  </si>
+  <si>
+    <t>Sterile Water + Fortifier Label Note</t>
+  </si>
+  <si>
+    <t>Sterile Water + Fortifier + Modular Label Note</t>
   </si>
 </sst>
 </file>
@@ -200,17 +2104,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="6"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,6 +2158,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,25 +2500,25 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -574,49 +2528,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -624,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -640,14 +2594,6 @@
       </c>
       <c r="H2" s="3">
         <v>27051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -660,38 +2606,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -700,16 +2646,16 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -729,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="str">
         <f>Guardian!C2</f>
@@ -737,30 +2683,6 @@
       </c>
       <c r="J2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1234</v>
-      </c>
-      <c r="F3">
-        <v>1234</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="str">
-        <f>Guardian!C2</f>
-        <v>G123</v>
       </c>
     </row>
   </sheetData>
@@ -770,57 +2692,5554 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" t="s">
+        <v>651</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="M1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f>IF(VLOOKUP(J4, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J4, OrderAdditives!A:B, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="L4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f>IF(VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>IF(VLOOKUP(J7, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J7, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f>IF(VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f>IF(VLOOKUP(J10, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J10, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>660</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(VLOOKUP(D11, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D11, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(D11, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(VLOOKUP(D12, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D12, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(D12, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J13" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f>IF(VLOOKUP(J13, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J13, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>F11+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f>IF(VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>F12+4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>660</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(VLOOKUP(D15, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D15, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(D15, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f>IF(VLOOKUP(J16, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J16, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>F15+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f>IF(VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>670</v>
+      </c>
+      <c r="E18" t="e">
+        <f>IF(VLOOKUP(D18, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D18, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <f>VLOOKUP(D18, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>671</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J19" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f>IF(VLOOKUP(J19, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J19, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f>IF(VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>669</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>670</v>
+      </c>
+      <c r="E21" t="e">
+        <f>IF(VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <f>VLOOKUP(D21, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J22" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f>IF(VLOOKUP(J22, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J22, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J23" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f>IF(VLOOKUP(J23, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J23, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1 L6:L7 L9:L10 L13:L14 L16:L17 L19:L20 L22:L23">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78BA0783-1AE4-4F97-B8F1-9CF9A9FBA8A5}">
+          <x14:formula1>
+            <xm:f>OrderAdditives!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>J4 J6:J7 J9:J10 J13:J14 J16:J20 J22:J23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B08B8B12-B941-428A-9E58-B98C2DCC018E}">
+          <x14:formula1>
+            <xm:f>'Order Base'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D12 D15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BE6D1-F857-4088-B5D9-C214F61BEB91}">
+  <dimension ref="A1:C216"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>32.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>53.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79">
+        <v>221.81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>218</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>219</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>222</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" t="s">
+        <v>229</v>
+      </c>
+      <c r="C125">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>234</v>
+      </c>
+      <c r="B128" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B129" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>237</v>
+      </c>
+      <c r="C130">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>238</v>
+      </c>
+      <c r="B131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>248</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="C140">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>251</v>
+      </c>
+      <c r="B141" t="s">
+        <v>252</v>
+      </c>
+      <c r="C141">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
+        <v>254</v>
+      </c>
+      <c r="C143">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" t="s">
+        <v>255</v>
+      </c>
+      <c r="C144">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>256</v>
+      </c>
+      <c r="C145">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" t="s">
+        <v>259</v>
+      </c>
+      <c r="C147">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" t="s">
+        <v>261</v>
+      </c>
+      <c r="C148">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
+        <v>263</v>
+      </c>
+      <c r="C149">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>264</v>
+      </c>
+      <c r="B150" t="s">
+        <v>265</v>
+      </c>
+      <c r="C150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>266</v>
+      </c>
+      <c r="B151" t="s">
+        <v>267</v>
+      </c>
+      <c r="C151">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152">
+        <v>59.15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155">
+        <v>73.94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" t="s">
+        <v>274</v>
+      </c>
+      <c r="C156">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
+        <v>278</v>
+      </c>
+      <c r="C158">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>279</v>
+      </c>
+      <c r="B159" t="s">
+        <v>280</v>
+      </c>
+      <c r="C159">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" t="s">
+        <v>282</v>
+      </c>
+      <c r="C160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>283</v>
+      </c>
+      <c r="B161" t="s">
+        <v>284</v>
+      </c>
+      <c r="C161">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162" t="s">
+        <v>286</v>
+      </c>
+      <c r="C162">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>287</v>
+      </c>
+      <c r="B163" t="s">
+        <v>288</v>
+      </c>
+      <c r="C163">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" t="s">
+        <v>290</v>
+      </c>
+      <c r="C164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>291</v>
+      </c>
+      <c r="B165" t="s">
+        <v>292</v>
+      </c>
+      <c r="C165">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>293</v>
+      </c>
+      <c r="B166" t="s">
+        <v>294</v>
+      </c>
+      <c r="C166">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" t="s">
+        <v>298</v>
+      </c>
+      <c r="C168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169">
+        <v>256.41000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>300</v>
+      </c>
+      <c r="B170" t="s">
+        <v>300</v>
+      </c>
+      <c r="C170">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" t="s">
+        <v>305</v>
+      </c>
+      <c r="C174">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>306</v>
+      </c>
+      <c r="C175">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>307</v>
+      </c>
+      <c r="B176" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177">
+        <v>32.53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>311</v>
+      </c>
+      <c r="B178" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>318</v>
+      </c>
+      <c r="B183" t="s">
+        <v>319</v>
+      </c>
+      <c r="C183">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>320</v>
+      </c>
+      <c r="B184" t="s">
+        <v>321</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>322</v>
+      </c>
+      <c r="B185" t="s">
+        <v>323</v>
+      </c>
+      <c r="C185">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>324</v>
+      </c>
+      <c r="B186" t="s">
+        <v>325</v>
+      </c>
+      <c r="C186">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>326</v>
+      </c>
+      <c r="B187" t="s">
+        <v>327</v>
+      </c>
+      <c r="C187">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>328</v>
+      </c>
+      <c r="B188" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>330</v>
+      </c>
+      <c r="B189" t="s">
+        <v>331</v>
+      </c>
+      <c r="C189">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>332</v>
+      </c>
+      <c r="B190" t="s">
+        <v>333</v>
+      </c>
+      <c r="C190">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>334</v>
+      </c>
+      <c r="B191" t="s">
+        <v>335</v>
+      </c>
+      <c r="C191">
+        <v>17.739999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>336</v>
+      </c>
+      <c r="B192" t="s">
+        <v>337</v>
+      </c>
+      <c r="C192">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>338</v>
+      </c>
+      <c r="B193" t="s">
+        <v>339</v>
+      </c>
+      <c r="C193">
+        <v>31.05</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>340</v>
+      </c>
+      <c r="B194" t="s">
+        <v>341</v>
+      </c>
+      <c r="C194">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>342</v>
+      </c>
+      <c r="B195" t="s">
+        <v>343</v>
+      </c>
+      <c r="C195">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B196" t="s">
+        <v>345</v>
+      </c>
+      <c r="C196">
+        <v>29.57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>346</v>
+      </c>
+      <c r="C197">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>347</v>
+      </c>
+      <c r="C198">
+        <v>62.11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>349</v>
+      </c>
+      <c r="C200">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>350</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>351</v>
+      </c>
+      <c r="C202">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>352</v>
+      </c>
+      <c r="C203">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>353</v>
+      </c>
+      <c r="B204" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>355</v>
+      </c>
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>357</v>
+      </c>
+      <c r="B206" t="s">
+        <v>358</v>
+      </c>
+      <c r="C206">
+        <v>39.92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>359</v>
+      </c>
+      <c r="B207" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>361</v>
+      </c>
+      <c r="B208" t="s">
+        <v>362</v>
+      </c>
+      <c r="C208">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>363</v>
+      </c>
+      <c r="C209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>364</v>
+      </c>
+      <c r="C210">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>365</v>
+      </c>
+      <c r="C211">
+        <v>79.849999999999994</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>366</v>
+      </c>
+      <c r="B212" t="s">
+        <v>226</v>
+      </c>
+      <c r="C212">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>367</v>
+      </c>
+      <c r="B213" t="s">
+        <v>367</v>
+      </c>
+      <c r="C213">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>368</v>
+      </c>
+      <c r="C214">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>369</v>
+      </c>
+      <c r="C215">
+        <v>28.39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>370</v>
+      </c>
+      <c r="B216" t="s">
+        <v>371</v>
+      </c>
+      <c r="C216">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659C7AE-5E1C-4E03-9838-FEEADA35BD3B}">
+  <dimension ref="A1:B398"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>406</v>
+      </c>
+      <c r="B47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>410</v>
+      </c>
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>418</v>
+      </c>
+      <c r="B59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>420</v>
+      </c>
+      <c r="B61" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>421</v>
+      </c>
+      <c r="B62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>432</v>
+      </c>
+      <c r="B75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>435</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>436</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>438</v>
+      </c>
+      <c r="B82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>441</v>
+      </c>
+      <c r="B88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>442</v>
+      </c>
+      <c r="B90" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>444</v>
+      </c>
+      <c r="B91" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>446</v>
+      </c>
+      <c r="B92" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>448</v>
+      </c>
+      <c r="B93" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>454</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>455</v>
+      </c>
+      <c r="B99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>459</v>
+      </c>
+      <c r="B105" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>463</v>
+      </c>
+      <c r="B111" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B112" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>469</v>
+      </c>
+      <c r="B114" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>471</v>
+      </c>
+      <c r="B115" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>473</v>
+      </c>
+      <c r="B116" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>475</v>
+      </c>
+      <c r="B117" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>481</v>
+      </c>
+      <c r="B120" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>483</v>
+      </c>
+      <c r="B121" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>485</v>
+      </c>
+      <c r="B122" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B123" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>489</v>
+      </c>
+      <c r="B124" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>491</v>
+      </c>
+      <c r="B125" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>493</v>
+      </c>
+      <c r="B126" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>495</v>
+      </c>
+      <c r="B127" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>498</v>
+      </c>
+      <c r="B129" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>500</v>
+      </c>
+      <c r="B130" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>502</v>
+      </c>
+      <c r="B147" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>504</v>
+      </c>
+      <c r="B148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>113</v>
+      </c>
+      <c r="B151" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>119</v>
+      </c>
+      <c r="B154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>121</v>
+      </c>
+      <c r="B155" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>130</v>
+      </c>
+      <c r="B160" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>507</v>
+      </c>
+      <c r="B162" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>134</v>
+      </c>
+      <c r="B164" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>142</v>
+      </c>
+      <c r="B169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>144</v>
+      </c>
+      <c r="B170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>509</v>
+      </c>
+      <c r="B175" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>511</v>
+      </c>
+      <c r="B176" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>514</v>
+      </c>
+      <c r="B178" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>515</v>
+      </c>
+      <c r="B179" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>517</v>
+      </c>
+      <c r="B182" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>158</v>
+      </c>
+      <c r="B183" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>518</v>
+      </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>520</v>
+      </c>
+      <c r="B188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>522</v>
+      </c>
+      <c r="B189" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>171</v>
+      </c>
+      <c r="B194" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>175</v>
+      </c>
+      <c r="B196" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>177</v>
+      </c>
+      <c r="B197" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>524</v>
+      </c>
+      <c r="B198" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>528</v>
+      </c>
+      <c r="B201" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>531</v>
+      </c>
+      <c r="B203" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>179</v>
+      </c>
+      <c r="B204" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>532</v>
+      </c>
+      <c r="B205" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>180</v>
+      </c>
+      <c r="B206" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>182</v>
+      </c>
+      <c r="B207" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>533</v>
+      </c>
+      <c r="B208" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>535</v>
+      </c>
+      <c r="B209" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>536</v>
+      </c>
+      <c r="B210" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>184</v>
+      </c>
+      <c r="B211" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>537</v>
+      </c>
+      <c r="B213" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>539</v>
+      </c>
+      <c r="B214" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>540</v>
+      </c>
+      <c r="B215" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>541</v>
+      </c>
+      <c r="B220" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>542</v>
+      </c>
+      <c r="B221" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>543</v>
+      </c>
+      <c r="B222" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>544</v>
+      </c>
+      <c r="B223" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>545</v>
+      </c>
+      <c r="B224" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>202</v>
+      </c>
+      <c r="B226" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>204</v>
+      </c>
+      <c r="B227" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>206</v>
+      </c>
+      <c r="B228" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>208</v>
+      </c>
+      <c r="B229" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>210</v>
+      </c>
+      <c r="B230" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>212</v>
+      </c>
+      <c r="B231" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>214</v>
+      </c>
+      <c r="B232" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>216</v>
+      </c>
+      <c r="B233" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>218</v>
+      </c>
+      <c r="B234" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>219</v>
+      </c>
+      <c r="B235" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>546</v>
+      </c>
+      <c r="B238" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>548</v>
+      </c>
+      <c r="B241" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>550</v>
+      </c>
+      <c r="B242" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>552</v>
+      </c>
+      <c r="B244" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>553</v>
+      </c>
+      <c r="B245" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>555</v>
+      </c>
+      <c r="B247" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>228</v>
+      </c>
+      <c r="B249" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>558</v>
+      </c>
+      <c r="B250" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>230</v>
+      </c>
+      <c r="B251" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>234</v>
+      </c>
+      <c r="B252" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>235</v>
+      </c>
+      <c r="B253" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>236</v>
+      </c>
+      <c r="B254" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>238</v>
+      </c>
+      <c r="B255" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>241</v>
+      </c>
+      <c r="B256" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>247</v>
+      </c>
+      <c r="B259" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>251</v>
+      </c>
+      <c r="B264" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>561</v>
+      </c>
+      <c r="B265" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>562</v>
+      </c>
+      <c r="B266" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>563</v>
+      </c>
+      <c r="B267" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>564</v>
+      </c>
+      <c r="B268" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>253</v>
+      </c>
+      <c r="B269" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>254</v>
+      </c>
+      <c r="B270" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>255</v>
+      </c>
+      <c r="B271" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>257</v>
+      </c>
+      <c r="B273" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>565</v>
+      </c>
+      <c r="B274" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>567</v>
+      </c>
+      <c r="B275" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>259</v>
+      </c>
+      <c r="B276" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>568</v>
+      </c>
+      <c r="B277" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>260</v>
+      </c>
+      <c r="B278" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>262</v>
+      </c>
+      <c r="B279" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>264</v>
+      </c>
+      <c r="B280" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>266</v>
+      </c>
+      <c r="B281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>268</v>
+      </c>
+      <c r="B286" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>269</v>
+      </c>
+      <c r="B287" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>271</v>
+      </c>
+      <c r="B288" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>272</v>
+      </c>
+      <c r="B289" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>273</v>
+      </c>
+      <c r="B290" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>275</v>
+      </c>
+      <c r="B291" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>277</v>
+      </c>
+      <c r="B292" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>279</v>
+      </c>
+      <c r="B293" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>281</v>
+      </c>
+      <c r="B294" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>283</v>
+      </c>
+      <c r="B295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>285</v>
+      </c>
+      <c r="B296" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>287</v>
+      </c>
+      <c r="B297" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>289</v>
+      </c>
+      <c r="B298" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>291</v>
+      </c>
+      <c r="B299" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>293</v>
+      </c>
+      <c r="B300" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>295</v>
+      </c>
+      <c r="B301" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>573</v>
+      </c>
+      <c r="B302" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>574</v>
+      </c>
+      <c r="B303" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>575</v>
+      </c>
+      <c r="B304" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>297</v>
+      </c>
+      <c r="B305" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>299</v>
+      </c>
+      <c r="B306" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>300</v>
+      </c>
+      <c r="B307" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>576</v>
+      </c>
+      <c r="B308" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>302</v>
+      </c>
+      <c r="B310" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>578</v>
+      </c>
+      <c r="B312" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>304</v>
+      </c>
+      <c r="B313" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>305</v>
+      </c>
+      <c r="B314" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>579</v>
+      </c>
+      <c r="B315" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>581</v>
+      </c>
+      <c r="B317" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>582</v>
+      </c>
+      <c r="B318" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>584</v>
+      </c>
+      <c r="B319" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>307</v>
+      </c>
+      <c r="B320" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>309</v>
+      </c>
+      <c r="B321" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>311</v>
+      </c>
+      <c r="B322" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>313</v>
+      </c>
+      <c r="B323" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>314</v>
+      </c>
+      <c r="B324" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>315</v>
+      </c>
+      <c r="B325" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>316</v>
+      </c>
+      <c r="B327" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>587</v>
+      </c>
+      <c r="B328" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>318</v>
+      </c>
+      <c r="B329" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>589</v>
+      </c>
+      <c r="B330" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>591</v>
+      </c>
+      <c r="B331" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>320</v>
+      </c>
+      <c r="B332" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>322</v>
+      </c>
+      <c r="B333" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>324</v>
+      </c>
+      <c r="B334" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>328</v>
+      </c>
+      <c r="B335" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>332</v>
+      </c>
+      <c r="B336" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>334</v>
+      </c>
+      <c r="B337" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>592</v>
+      </c>
+      <c r="B338" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>336</v>
+      </c>
+      <c r="B339" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>593</v>
+      </c>
+      <c r="B340" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>338</v>
+      </c>
+      <c r="B341" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>595</v>
+      </c>
+      <c r="B343" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>597</v>
+      </c>
+      <c r="B344" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>599</v>
+      </c>
+      <c r="B346" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>601</v>
+      </c>
+      <c r="B347" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>606</v>
+      </c>
+      <c r="B357" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>609</v>
+      </c>
+      <c r="B360" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>611</v>
+      </c>
+      <c r="B367" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>612</v>
+      </c>
+      <c r="B368" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>613</v>
+      </c>
+      <c r="B369" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>367</v>
+      </c>
+      <c r="B370" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>614</v>
+      </c>
+      <c r="B371" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>622</v>
+      </c>
+      <c r="B380" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>624</v>
+      </c>
+      <c r="B381" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>626</v>
+      </c>
+      <c r="B382" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>628</v>
+      </c>
+      <c r="B383" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>632</v>
+      </c>
+      <c r="B387" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>634</v>
+      </c>
+      <c r="B388" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>636</v>
+      </c>
+      <c r="B389" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>638</v>
+      </c>
+      <c r="B390" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>640</v>
+      </c>
+      <c r="B391" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>370</v>
+      </c>
+      <c r="B392" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>642</v>
+      </c>
+      <c r="B393" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>644</v>
+      </c>
+      <c r="B394" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>648</v>
+      </c>
+      <c r="B397" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>650</v>
+      </c>
+      <c r="B398" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Documents\UiPath\TMNP Smoke Testing Automation\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F2793E-9D8F-4294-BCFC-ACF117F66FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E038D23-DE4B-4F7C-9707-B00A6AA3BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="673">
   <si>
     <t>MRN</t>
   </si>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3130,13 +3130,16 @@
       <c r="C21" t="s">
         <v>670</v>
       </c>
-      <c r="E21" t="e">
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="str">
         <f>IF(VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" t="e">
+        <v>Sim Sterile Water</v>
+      </c>
+      <c r="F21">
         <f>VLOOKUP(D21, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
         <v>10</v>
@@ -3207,7 +3210,7 @@
           <x14:formula1>
             <xm:f>'Order Base'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:D12 D15</xm:sqref>
+          <xm:sqref>D11:D12 D15 D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E038D23-DE4B-4F7C-9707-B00A6AA3BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA338A-9E44-44BA-8D2B-965D7CFD16DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="674">
   <si>
     <t>MRN</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Breastmilk</t>
   </si>
   <si>
-    <t>EBM_display_name_short</t>
-  </si>
-  <si>
     <t>G123</t>
   </si>
   <si>
@@ -1162,9 +1159,6 @@
     <t>Order Name</t>
   </si>
   <si>
-    <t>EHM Only</t>
-  </si>
-  <si>
     <t>EHM + Human Milk Fortifier</t>
   </si>
   <si>
@@ -2044,9 +2038,6 @@
     <t>EHM + HMF Label Note</t>
   </si>
   <si>
-    <t>EHM Only Label Note</t>
-  </si>
-  <si>
     <t>Sterile Water + Fortifiers</t>
   </si>
   <si>
@@ -2060,6 +2051,18 @@
   </si>
   <si>
     <t>Sterile Water + Fortifier + Modular Label Note</t>
+  </si>
+  <si>
+    <t>DHM + Fortifiers</t>
+  </si>
+  <si>
+    <t>DHM +Fortifier + Modular</t>
+  </si>
+  <si>
+    <t>EHM or DHM + Fortifiers</t>
+  </si>
+  <si>
+    <t>EHM or DHM + Fortifier + Modular</t>
   </si>
 </sst>
 </file>
@@ -2546,28 +2549,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2578,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -2622,22 +2625,22 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2646,13 +2649,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2692,17 +2695,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -2716,7 +2719,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -2728,10 +2731,10 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
@@ -2743,21 +2746,21 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -2765,353 +2768,295 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f>IF(VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="L3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>IF(VLOOKUP(J4, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J4, OrderAdditives!A:B, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="L4" s="5" t="b">
+      <c r="I4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f>IF(VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>652</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>653</v>
-      </c>
-    </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G6" s="4"/>
       <c r="J6" s="4" t="s">
-        <v>379</v>
+        <v>509</v>
       </c>
       <c r="K6" s="4" t="str">
         <f>IF(VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
+        <v>MCT Oil</v>
       </c>
       <c r="L6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f>IF(VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J7" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>IF(VLOOKUP(J7, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J7, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>654</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9" s="4" t="s">
-        <v>379</v>
+        <v>509</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>IF(VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>670</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>IF(VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE))</f>
         <v>Enfamil Infant</v>
       </c>
-      <c r="L9" s="5" t="b">
+      <c r="L11" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J10" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>IF(VLOOKUP(J10, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J10, OrderAdditives!A:B, 2, FALSE))</f>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J12" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f>IF(VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE))</f>
         <v>MCT Oil</v>
       </c>
-      <c r="L10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>656</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="L12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>660</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="str">
-        <f>IF(VLOOKUP(D11, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D11, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F11">
-        <f>VLOOKUP(D11, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="4">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>660</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="str">
-        <f>IF(VLOOKUP(D12, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D12, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F12">
-        <f>VLOOKUP(D12, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G12" s="4">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J13" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>IF(VLOOKUP(J13, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J13, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>F11+2</f>
-        <v>22</v>
+      <c r="I13" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14" s="4" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="K14" s="4" t="str">
         <f>IF(VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
+        <v>Enfamil Infant</v>
       </c>
       <c r="L14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M14">
-        <f>F12+4</f>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>664</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="J15" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>IF(VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>672</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
-        <v>660</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="str">
-        <f>IF(VLOOKUP(D15, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D15, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F15">
-        <f>VLOOKUP(D15, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4">
         <v>10</v>
       </c>
-      <c r="I15" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J16" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>IF(VLOOKUP(J16, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J16, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>F15+2</f>
-        <v>22</v>
+      <c r="I16" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="K17" s="4" t="str">
         <f>IF(VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J18" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f>IF(VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE))</f>
         <v>MCT Oil</v>
       </c>
-      <c r="L17" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>668</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="L18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>673</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>670</v>
-      </c>
-      <c r="E18" t="e">
-        <f>IF(VLOOKUP(D18, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D18, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="e">
-        <f>VLOOKUP(D18, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
-        <v>671</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J19" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f>IF(VLOOKUP(J19, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J19, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>20</v>
+      <c r="I19" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="K20" s="4" t="str">
         <f>IF(VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
+        <v>Enfamil Infant</v>
       </c>
       <c r="L20" s="5" t="b">
         <v>0</v>
@@ -3121,65 +3066,287 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J21" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f>IF(VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>658</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(D22, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>657</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>658</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(D23, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J24" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f>IF(VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>F22+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J25" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f>IF(VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>F23+4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>662</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(D26, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f>IF(VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>F26+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J28" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f>IF(VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L28" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>665</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>667</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Sim Sterile Water</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(D29, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>668</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J30" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f>IF(VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L30" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J31" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f>IF(VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="L31" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>666</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>667</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Sim Sterile Water</v>
+      </c>
+      <c r="F32">
+        <f>VLOOKUP(D32, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
         <v>669</v>
       </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>670</v>
-      </c>
-      <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="str">
-        <f>IF(VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D21, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Sim Sterile Water</v>
-      </c>
-      <c r="F21">
-        <f>VLOOKUP(D21, 'Order Base'!A:C, 3, FALSE)</f>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J33" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f>IF(VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="L33" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J22" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="K22" s="4" t="str">
-        <f>IF(VLOOKUP(J22, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J22, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L22" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="M33">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J23" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="K23" s="4" t="str">
-        <f>IF(VLOOKUP(J23, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J23, OrderAdditives!A:B, 2, FALSE))</f>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J34" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="K34" s="4" t="str">
+        <f>IF(VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE))</f>
         <v>MCT Oil</v>
       </c>
-      <c r="L23" s="5" t="b">
+      <c r="L34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="M23">
+      <c r="M34">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1 L6:L7 L9:L10 L13:L14 L16:L17 L19:L20 L22:L23">
+  <conditionalFormatting sqref="L1 L5:L6 L8:L9 L11:L12 L14:L15 L17:L18 L20:L21 L24:L25 L27:L28 L30:L31 L33:L34">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -3187,7 +3354,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
+  <conditionalFormatting sqref="L3">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -3204,13 +3371,13 @@
           <x14:formula1>
             <xm:f>OrderAdditives!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>J4 J6:J7 J9:J10 J13:J14 J16:J20 J22:J23</xm:sqref>
+          <xm:sqref>J3 J5:J6 J33:J34 J24:J25 J27:J31 J8:J9 J11:J12 J14:J15 J17:J18 J20:J21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B08B8B12-B941-428A-9E58-B98C2DCC018E}">
           <x14:formula1>
             <xm:f>'Order Base'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:D12 D15 D21</xm:sqref>
+          <xm:sqref>D22:D23 D26 D32 D29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3235,21 +3402,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
       <c r="C1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -3257,10 +3424,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3268,10 +3435,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -3279,7 +3446,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -3287,7 +3454,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3295,10 +3462,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3306,7 +3473,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -3314,7 +3481,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3322,7 +3489,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3330,7 +3497,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3338,7 +3505,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -3346,7 +3513,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3354,7 +3521,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3362,7 +3529,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>5.91</v>
@@ -3370,7 +3537,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>3.7</v>
@@ -3378,7 +3545,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3386,7 +3553,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -3394,7 +3561,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -3402,7 +3569,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -3410,7 +3577,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>24</v>
@@ -3418,7 +3585,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -3426,10 +3593,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -3437,7 +3604,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -3445,10 +3612,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -3456,10 +3623,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -3467,10 +3634,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -3478,10 +3645,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3489,10 +3656,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -3500,10 +3667,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -3511,10 +3678,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>76</v>
       </c>
       <c r="C31">
         <v>32.53</v>
@@ -3522,10 +3689,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -3533,10 +3700,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -3544,10 +3711,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -3555,10 +3722,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
         <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -3566,10 +3733,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -3577,10 +3744,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
         <v>86</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3588,10 +3755,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
         <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
       </c>
       <c r="C38">
         <v>11.83</v>
@@ -3599,10 +3766,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
       </c>
       <c r="C39">
         <v>5.91</v>
@@ -3610,10 +3777,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
         <v>92</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
       </c>
       <c r="C40">
         <v>53</v>
@@ -3621,7 +3788,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3629,7 +3796,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>44</v>
@@ -3637,7 +3804,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -3645,7 +3812,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -3653,7 +3820,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -3661,7 +3828,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -3669,7 +3836,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>44.36</v>
@@ -3677,7 +3844,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3685,7 +3852,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -3693,7 +3860,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -3701,7 +3868,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>44.36</v>
@@ -3709,7 +3876,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -3717,7 +3884,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>44.36</v>
@@ -3725,7 +3892,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>53.23</v>
@@ -3733,7 +3900,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>59.15</v>
@@ -3741,10 +3908,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
       </c>
       <c r="C56">
         <v>31.35</v>
@@ -3752,10 +3919,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
       </c>
       <c r="C57">
         <v>44.36</v>
@@ -3763,10 +3930,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
       <c r="C58">
         <v>29.57</v>
@@ -3774,10 +3941,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59">
         <v>17.739999999999998</v>
@@ -3785,10 +3952,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
       <c r="C60">
         <v>27.5</v>
@@ -3796,10 +3963,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61">
         <v>29.57</v>
@@ -3807,10 +3974,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62">
         <v>29.57</v>
@@ -3818,10 +3985,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63">
         <v>44.36</v>
@@ -3829,10 +3996,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
       <c r="C64">
         <v>29.57</v>
@@ -3840,10 +4007,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
       <c r="C65">
         <v>29.57</v>
@@ -3851,7 +4018,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66">
         <v>59.15</v>
@@ -3859,10 +4026,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
         <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
       </c>
       <c r="C67">
         <v>44.36</v>
@@ -3870,10 +4037,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
         <v>132</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
       </c>
       <c r="C68">
         <v>29.57</v>
@@ -3881,10 +4048,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>135</v>
       </c>
       <c r="C69">
         <v>30</v>
@@ -3892,10 +4059,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
         <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>137</v>
       </c>
       <c r="C70">
         <v>29.93</v>
@@ -3903,7 +4070,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71">
         <v>44.36</v>
@@ -3911,7 +4078,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72">
         <v>44.36</v>
@@ -3919,10 +4086,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
         <v>140</v>
-      </c>
-      <c r="B73" t="s">
-        <v>141</v>
       </c>
       <c r="C73">
         <v>31.05</v>
@@ -3930,10 +4097,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
         <v>142</v>
-      </c>
-      <c r="B74" t="s">
-        <v>143</v>
       </c>
       <c r="C74">
         <v>29.57</v>
@@ -3941,10 +4108,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
         <v>144</v>
-      </c>
-      <c r="B75" t="s">
-        <v>145</v>
       </c>
       <c r="C75">
         <v>23.66</v>
@@ -3952,10 +4119,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
         <v>146</v>
-      </c>
-      <c r="B76" t="s">
-        <v>147</v>
       </c>
       <c r="C76">
         <v>44.36</v>
@@ -3963,10 +4130,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
         <v>148</v>
-      </c>
-      <c r="B77" t="s">
-        <v>149</v>
       </c>
       <c r="C77">
         <v>47.32</v>
@@ -3974,10 +4141,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
         <v>150</v>
-      </c>
-      <c r="B78" t="s">
-        <v>151</v>
       </c>
       <c r="C78">
         <v>66.25</v>
@@ -3985,10 +4152,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
         <v>152</v>
-      </c>
-      <c r="B79" t="s">
-        <v>153</v>
       </c>
       <c r="C79">
         <v>221.81</v>
@@ -3996,10 +4163,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
         <v>154</v>
-      </c>
-      <c r="B80" t="s">
-        <v>155</v>
       </c>
       <c r="C80">
         <v>29.87</v>
@@ -4007,10 +4174,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
         <v>156</v>
-      </c>
-      <c r="B81" t="s">
-        <v>157</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -4018,10 +4185,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
         <v>158</v>
-      </c>
-      <c r="B82" t="s">
-        <v>159</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -4029,10 +4196,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
         <v>160</v>
-      </c>
-      <c r="B83" t="s">
-        <v>161</v>
       </c>
       <c r="C83">
         <v>44.36</v>
@@ -4040,10 +4207,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
         <v>162</v>
-      </c>
-      <c r="B84" t="s">
-        <v>163</v>
       </c>
       <c r="C84">
         <v>35.49</v>
@@ -4051,10 +4218,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85">
         <v>44.36</v>
@@ -4062,10 +4229,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
         <v>165</v>
-      </c>
-      <c r="B86" t="s">
-        <v>166</v>
       </c>
       <c r="C86">
         <v>44.36</v>
@@ -4073,10 +4240,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
         <v>167</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
       </c>
       <c r="C87">
         <v>35.49</v>
@@ -4084,10 +4251,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
         <v>169</v>
-      </c>
-      <c r="B88" t="s">
-        <v>170</v>
       </c>
       <c r="C88">
         <v>29.57</v>
@@ -4095,10 +4262,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
         <v>171</v>
-      </c>
-      <c r="B89" t="s">
-        <v>172</v>
       </c>
       <c r="C89">
         <v>29.57</v>
@@ -4106,10 +4273,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
         <v>173</v>
-      </c>
-      <c r="B90" t="s">
-        <v>174</v>
       </c>
       <c r="C90">
         <v>44.36</v>
@@ -4117,10 +4284,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
         <v>175</v>
-      </c>
-      <c r="B91" t="s">
-        <v>176</v>
       </c>
       <c r="C91">
         <v>29.57</v>
@@ -4128,10 +4295,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
         <v>177</v>
-      </c>
-      <c r="B92" t="s">
-        <v>178</v>
       </c>
       <c r="C92">
         <v>29.57</v>
@@ -4139,10 +4306,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -4150,10 +4317,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" t="s">
         <v>180</v>
-      </c>
-      <c r="B94" t="s">
-        <v>181</v>
       </c>
       <c r="C94">
         <v>29.57</v>
@@ -4161,10 +4328,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
         <v>182</v>
-      </c>
-      <c r="B95" t="s">
-        <v>183</v>
       </c>
       <c r="C95">
         <v>29.57</v>
@@ -4172,10 +4339,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96">
         <v>44.36</v>
@@ -4183,10 +4350,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
         <v>185</v>
-      </c>
-      <c r="B97" t="s">
-        <v>186</v>
       </c>
       <c r="C97">
         <v>35.49</v>
@@ -4194,7 +4361,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98">
         <v>45</v>
@@ -4202,7 +4369,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C99">
         <v>30</v>
@@ -4210,7 +4377,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C100">
         <v>45</v>
@@ -4218,7 +4385,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C101">
         <v>45</v>
@@ -4226,10 +4393,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" t="s">
         <v>191</v>
-      </c>
-      <c r="B102" t="s">
-        <v>192</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -4237,10 +4404,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C103">
         <v>20</v>
@@ -4248,10 +4415,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C104">
         <v>24</v>
@@ -4259,10 +4426,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -4270,10 +4437,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" t="s">
         <v>196</v>
-      </c>
-      <c r="B106" t="s">
-        <v>197</v>
       </c>
       <c r="C106">
         <v>28</v>
@@ -4281,10 +4448,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" t="s">
         <v>198</v>
-      </c>
-      <c r="B107" t="s">
-        <v>199</v>
       </c>
       <c r="C107">
         <v>20</v>
@@ -4292,10 +4459,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" t="s">
         <v>200</v>
-      </c>
-      <c r="B108" t="s">
-        <v>201</v>
       </c>
       <c r="C108">
         <v>35</v>
@@ -4303,10 +4470,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
         <v>202</v>
-      </c>
-      <c r="B109" t="s">
-        <v>203</v>
       </c>
       <c r="C109">
         <v>36</v>
@@ -4314,10 +4481,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" t="s">
         <v>204</v>
-      </c>
-      <c r="B110" t="s">
-        <v>205</v>
       </c>
       <c r="C110">
         <v>34</v>
@@ -4325,10 +4492,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" t="s">
         <v>206</v>
-      </c>
-      <c r="B111" t="s">
-        <v>207</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -4336,10 +4503,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
         <v>208</v>
-      </c>
-      <c r="B112" t="s">
-        <v>209</v>
       </c>
       <c r="C112">
         <v>36</v>
@@ -4347,10 +4514,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" t="s">
         <v>210</v>
-      </c>
-      <c r="B113" t="s">
-        <v>211</v>
       </c>
       <c r="C113">
         <v>34</v>
@@ -4358,10 +4525,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>211</v>
+      </c>
+      <c r="B114" t="s">
         <v>212</v>
-      </c>
-      <c r="B114" t="s">
-        <v>213</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -4369,10 +4536,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" t="s">
         <v>214</v>
-      </c>
-      <c r="B115" t="s">
-        <v>215</v>
       </c>
       <c r="C115">
         <v>45</v>
@@ -4380,10 +4547,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" t="s">
         <v>216</v>
-      </c>
-      <c r="B116" t="s">
-        <v>217</v>
       </c>
       <c r="C116">
         <v>45</v>
@@ -4391,10 +4558,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -4402,10 +4569,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" t="s">
         <v>219</v>
-      </c>
-      <c r="B118" t="s">
-        <v>220</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -4413,7 +4580,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C119">
         <v>40</v>
@@ -4421,7 +4588,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4429,7 +4596,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C121">
         <v>30</v>
@@ -4437,7 +4604,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4445,10 +4612,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" t="s">
         <v>225</v>
-      </c>
-      <c r="B123" t="s">
-        <v>226</v>
       </c>
       <c r="C123">
         <v>44.36</v>
@@ -4456,7 +4623,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C124">
         <v>35.49</v>
@@ -4464,10 +4631,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>227</v>
+      </c>
+      <c r="B125" t="s">
         <v>228</v>
-      </c>
-      <c r="B125" t="s">
-        <v>229</v>
       </c>
       <c r="C125">
         <v>35.49</v>
@@ -4475,10 +4642,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>229</v>
+      </c>
+      <c r="B126" t="s">
         <v>230</v>
-      </c>
-      <c r="B126" t="s">
-        <v>231</v>
       </c>
       <c r="C126">
         <v>44.36</v>
@@ -4486,10 +4653,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>231</v>
+      </c>
+      <c r="B127" t="s">
         <v>232</v>
-      </c>
-      <c r="B127" t="s">
-        <v>233</v>
       </c>
       <c r="C127">
         <v>29.87</v>
@@ -4497,10 +4664,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -4508,10 +4675,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C129">
         <v>30</v>
@@ -4519,10 +4686,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>235</v>
+      </c>
+      <c r="B130" t="s">
         <v>236</v>
-      </c>
-      <c r="B130" t="s">
-        <v>237</v>
       </c>
       <c r="C130">
         <v>44.36</v>
@@ -4530,10 +4697,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" t="s">
         <v>238</v>
-      </c>
-      <c r="B131" t="s">
-        <v>239</v>
       </c>
       <c r="C131">
         <v>55</v>
@@ -4541,7 +4708,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C132">
         <v>35.49</v>
@@ -4549,10 +4716,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>240</v>
+      </c>
+      <c r="B133" t="s">
         <v>241</v>
-      </c>
-      <c r="B133" t="s">
-        <v>242</v>
       </c>
       <c r="C133">
         <v>30</v>
@@ -4560,10 +4727,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C134">
         <v>45</v>
@@ -4571,7 +4738,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C135">
         <v>30</v>
@@ -4579,7 +4746,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C136">
         <v>44.36</v>
@@ -4587,7 +4754,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C137">
         <v>30</v>
@@ -4595,10 +4762,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" t="s">
         <v>247</v>
-      </c>
-      <c r="B138" t="s">
-        <v>248</v>
       </c>
       <c r="C138">
         <v>30</v>
@@ -4606,7 +4773,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C139">
         <v>35.49</v>
@@ -4614,7 +4781,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C140">
         <v>44.36</v>
@@ -4622,10 +4789,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
         <v>251</v>
-      </c>
-      <c r="B141" t="s">
-        <v>252</v>
       </c>
       <c r="C141">
         <v>59.15</v>
@@ -4633,10 +4800,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C142">
         <v>33.42</v>
@@ -4644,10 +4811,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C143">
         <v>43.18</v>
@@ -4655,10 +4822,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C144">
         <v>38.450000000000003</v>
@@ -4666,7 +4833,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C145">
         <v>41.7</v>
@@ -4674,10 +4841,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>256</v>
+      </c>
+      <c r="B146" t="s">
         <v>257</v>
-      </c>
-      <c r="B146" t="s">
-        <v>258</v>
       </c>
       <c r="C146">
         <v>30</v>
@@ -4685,10 +4852,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -4696,10 +4863,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" t="s">
         <v>260</v>
-      </c>
-      <c r="B148" t="s">
-        <v>261</v>
       </c>
       <c r="C148">
         <v>29.57</v>
@@ -4707,10 +4874,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149" t="s">
         <v>262</v>
-      </c>
-      <c r="B149" t="s">
-        <v>263</v>
       </c>
       <c r="C149">
         <v>35.49</v>
@@ -4718,10 +4885,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
         <v>264</v>
-      </c>
-      <c r="B150" t="s">
-        <v>265</v>
       </c>
       <c r="C150">
         <v>30</v>
@@ -4729,10 +4896,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
         <v>266</v>
-      </c>
-      <c r="B151" t="s">
-        <v>267</v>
       </c>
       <c r="C151">
         <v>59.15</v>
@@ -4740,10 +4907,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152">
         <v>59.15</v>
@@ -4751,10 +4918,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" t="s">
         <v>269</v>
-      </c>
-      <c r="B153" t="s">
-        <v>270</v>
       </c>
       <c r="C153">
         <v>45</v>
@@ -4762,10 +4929,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C154">
         <v>45</v>
@@ -4773,10 +4940,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C155">
         <v>73.94</v>
@@ -4784,10 +4951,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
         <v>273</v>
-      </c>
-      <c r="B156" t="s">
-        <v>274</v>
       </c>
       <c r="C156">
         <v>12.5</v>
@@ -4795,10 +4962,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>274</v>
+      </c>
+      <c r="B157" t="s">
         <v>275</v>
-      </c>
-      <c r="B157" t="s">
-        <v>276</v>
       </c>
       <c r="C157">
         <v>10</v>
@@ -4806,10 +4973,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>276</v>
+      </c>
+      <c r="B158" t="s">
         <v>277</v>
-      </c>
-      <c r="B158" t="s">
-        <v>278</v>
       </c>
       <c r="C158">
         <v>12.8</v>
@@ -4817,10 +4984,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>278</v>
+      </c>
+      <c r="B159" t="s">
         <v>279</v>
-      </c>
-      <c r="B159" t="s">
-        <v>280</v>
       </c>
       <c r="C159">
         <v>12.7</v>
@@ -4828,10 +4995,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>280</v>
+      </c>
+      <c r="B160" t="s">
         <v>281</v>
-      </c>
-      <c r="B160" t="s">
-        <v>282</v>
       </c>
       <c r="C160">
         <v>30</v>
@@ -4839,10 +5006,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>282</v>
+      </c>
+      <c r="B161" t="s">
         <v>283</v>
-      </c>
-      <c r="B161" t="s">
-        <v>284</v>
       </c>
       <c r="C161">
         <v>20.100000000000001</v>
@@ -4850,10 +5017,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>284</v>
+      </c>
+      <c r="B162" t="s">
         <v>285</v>
-      </c>
-      <c r="B162" t="s">
-        <v>286</v>
       </c>
       <c r="C162">
         <v>17.5</v>
@@ -4861,10 +5028,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>286</v>
+      </c>
+      <c r="B163" t="s">
         <v>287</v>
-      </c>
-      <c r="B163" t="s">
-        <v>288</v>
       </c>
       <c r="C163">
         <v>25</v>
@@ -4872,10 +5039,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" t="s">
         <v>289</v>
-      </c>
-      <c r="B164" t="s">
-        <v>290</v>
       </c>
       <c r="C164">
         <v>20</v>
@@ -4883,10 +5050,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>290</v>
+      </c>
+      <c r="B165" t="s">
         <v>291</v>
-      </c>
-      <c r="B165" t="s">
-        <v>292</v>
       </c>
       <c r="C165">
         <v>36</v>
@@ -4894,10 +5061,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>292</v>
+      </c>
+      <c r="B166" t="s">
         <v>293</v>
-      </c>
-      <c r="B166" t="s">
-        <v>294</v>
       </c>
       <c r="C166">
         <v>32</v>
@@ -4905,10 +5072,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" t="s">
         <v>295</v>
-      </c>
-      <c r="B167" t="s">
-        <v>296</v>
       </c>
       <c r="C167">
         <v>28.3</v>
@@ -4916,10 +5083,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>296</v>
+      </c>
+      <c r="B168" t="s">
         <v>297</v>
-      </c>
-      <c r="B168" t="s">
-        <v>298</v>
       </c>
       <c r="C168">
         <v>30</v>
@@ -4927,10 +5094,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C169">
         <v>256.41000000000003</v>
@@ -4938,10 +5105,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C170">
         <v>14.2</v>
@@ -4949,7 +5116,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C171">
         <v>45.25</v>
@@ -4957,10 +5124,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172" t="s">
         <v>302</v>
-      </c>
-      <c r="B172" t="s">
-        <v>303</v>
       </c>
       <c r="C172">
         <v>79.55</v>
@@ -4968,10 +5135,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C173">
         <v>42</v>
@@ -4979,10 +5146,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C174">
         <v>42</v>
@@ -4990,7 +5157,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C175">
         <v>35.49</v>
@@ -4998,10 +5165,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>306</v>
+      </c>
+      <c r="B176" t="s">
         <v>307</v>
-      </c>
-      <c r="B176" t="s">
-        <v>308</v>
       </c>
       <c r="C176">
         <v>44.36</v>
@@ -5009,10 +5176,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>308</v>
+      </c>
+      <c r="B177" t="s">
         <v>309</v>
-      </c>
-      <c r="B177" t="s">
-        <v>310</v>
       </c>
       <c r="C177">
         <v>32.53</v>
@@ -5020,10 +5187,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" t="s">
         <v>311</v>
-      </c>
-      <c r="B178" t="s">
-        <v>312</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -5031,10 +5198,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C179">
         <v>26.62</v>
@@ -5042,10 +5209,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B180" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C180">
         <v>60</v>
@@ -5053,10 +5220,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B181" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C181">
         <v>44.36</v>
@@ -5064,10 +5231,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>315</v>
+      </c>
+      <c r="B182" t="s">
         <v>316</v>
-      </c>
-      <c r="B182" t="s">
-        <v>317</v>
       </c>
       <c r="C182">
         <v>35.49</v>
@@ -5075,10 +5242,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" t="s">
         <v>318</v>
-      </c>
-      <c r="B183" t="s">
-        <v>319</v>
       </c>
       <c r="C183">
         <v>29.57</v>
@@ -5086,10 +5253,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" t="s">
         <v>320</v>
-      </c>
-      <c r="B184" t="s">
-        <v>321</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -5097,10 +5264,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>321</v>
+      </c>
+      <c r="B185" t="s">
         <v>322</v>
-      </c>
-      <c r="B185" t="s">
-        <v>323</v>
       </c>
       <c r="C185">
         <v>17.5</v>
@@ -5108,10 +5275,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>323</v>
+      </c>
+      <c r="B186" t="s">
         <v>324</v>
-      </c>
-      <c r="B186" t="s">
-        <v>325</v>
       </c>
       <c r="C186">
         <v>44.36</v>
@@ -5119,10 +5286,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>325</v>
+      </c>
+      <c r="B187" t="s">
         <v>326</v>
-      </c>
-      <c r="B187" t="s">
-        <v>327</v>
       </c>
       <c r="C187">
         <v>29.57</v>
@@ -5130,10 +5297,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>327</v>
+      </c>
+      <c r="B188" t="s">
         <v>328</v>
-      </c>
-      <c r="B188" t="s">
-        <v>329</v>
       </c>
       <c r="C188">
         <v>41.4</v>
@@ -5141,10 +5308,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>329</v>
+      </c>
+      <c r="B189" t="s">
         <v>330</v>
-      </c>
-      <c r="B189" t="s">
-        <v>331</v>
       </c>
       <c r="C189">
         <v>29.57</v>
@@ -5152,10 +5319,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>331</v>
+      </c>
+      <c r="B190" t="s">
         <v>332</v>
-      </c>
-      <c r="B190" t="s">
-        <v>333</v>
       </c>
       <c r="C190">
         <v>26.62</v>
@@ -5163,10 +5330,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" t="s">
         <v>334</v>
-      </c>
-      <c r="B191" t="s">
-        <v>335</v>
       </c>
       <c r="C191">
         <v>17.739999999999998</v>
@@ -5174,10 +5341,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>335</v>
+      </c>
+      <c r="B192" t="s">
         <v>336</v>
-      </c>
-      <c r="B192" t="s">
-        <v>337</v>
       </c>
       <c r="C192">
         <v>29.57</v>
@@ -5185,10 +5352,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" t="s">
         <v>338</v>
-      </c>
-      <c r="B193" t="s">
-        <v>339</v>
       </c>
       <c r="C193">
         <v>31.05</v>
@@ -5196,10 +5363,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>339</v>
+      </c>
+      <c r="B194" t="s">
         <v>340</v>
-      </c>
-      <c r="B194" t="s">
-        <v>341</v>
       </c>
       <c r="C194">
         <v>22.48</v>
@@ -5207,10 +5374,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>341</v>
+      </c>
+      <c r="B195" t="s">
         <v>342</v>
-      </c>
-      <c r="B195" t="s">
-        <v>343</v>
       </c>
       <c r="C195">
         <v>14.79</v>
@@ -5218,10 +5385,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>343</v>
+      </c>
+      <c r="B196" t="s">
         <v>344</v>
-      </c>
-      <c r="B196" t="s">
-        <v>345</v>
       </c>
       <c r="C196">
         <v>29.57</v>
@@ -5229,7 +5396,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C197">
         <v>0.3</v>
@@ -5237,7 +5404,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C198">
         <v>62.11</v>
@@ -5245,7 +5412,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C199">
         <v>3.5</v>
@@ -5253,7 +5420,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C200">
         <v>1.77</v>
@@ -5261,7 +5428,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -5269,7 +5436,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C202">
         <v>23.66</v>
@@ -5277,7 +5444,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C203">
         <v>2.66</v>
@@ -5285,10 +5452,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>352</v>
+      </c>
+      <c r="B204" t="s">
         <v>353</v>
-      </c>
-      <c r="B204" t="s">
-        <v>354</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -5296,10 +5463,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>354</v>
+      </c>
+      <c r="B205" t="s">
         <v>355</v>
-      </c>
-      <c r="B205" t="s">
-        <v>356</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -5307,10 +5474,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>356</v>
+      </c>
+      <c r="B206" t="s">
         <v>357</v>
-      </c>
-      <c r="B206" t="s">
-        <v>358</v>
       </c>
       <c r="C206">
         <v>39.92</v>
@@ -5318,10 +5485,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>358</v>
+      </c>
+      <c r="B207" t="s">
         <v>359</v>
-      </c>
-      <c r="B207" t="s">
-        <v>360</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -5329,10 +5496,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>360</v>
+      </c>
+      <c r="B208" t="s">
         <v>361</v>
-      </c>
-      <c r="B208" t="s">
-        <v>362</v>
       </c>
       <c r="C208">
         <v>25</v>
@@ -5340,7 +5507,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C209">
         <v>100</v>
@@ -5348,7 +5515,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C210">
         <v>100</v>
@@ -5356,7 +5523,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C211">
         <v>79.849999999999994</v>
@@ -5364,10 +5531,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C212">
         <v>45.25</v>
@@ -5375,10 +5542,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C213">
         <v>28.1</v>
@@ -5386,7 +5553,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C214">
         <v>28.1</v>
@@ -5394,7 +5561,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C215">
         <v>28.39</v>
@@ -5402,10 +5569,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>369</v>
+      </c>
+      <c r="B216" t="s">
         <v>370</v>
-      </c>
-      <c r="B216" t="s">
-        <v>371</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -5432,2817 +5599,2817 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
         <v>61</v>
-      </c>
-      <c r="B68" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
         <v>64</v>
-      </c>
-      <c r="B73" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B75" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
         <v>66</v>
-      </c>
-      <c r="B77" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" t="s">
         <v>69</v>
-      </c>
-      <c r="B84" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" t="s">
         <v>73</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
         <v>75</v>
-      </c>
-      <c r="B87" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
         <v>77</v>
-      </c>
-      <c r="B89" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B90" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B92" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B93" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B94" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" t="s">
         <v>80</v>
-      </c>
-      <c r="B98" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100" t="s">
         <v>82</v>
-      </c>
-      <c r="B100" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>83</v>
+      </c>
+      <c r="B104" t="s">
         <v>84</v>
-      </c>
-      <c r="B104" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B105" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
         <v>86</v>
-      </c>
-      <c r="B108" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" t="s">
         <v>88</v>
-      </c>
-      <c r="B109" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" t="s">
         <v>90</v>
-      </c>
-      <c r="B110" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B111" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B112" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B113" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B114" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B115" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B116" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B117" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B118" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B119" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B120" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B121" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B122" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B123" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B124" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B125" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B126" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B127" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B129" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B130" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
         <v>92</v>
-      </c>
-      <c r="B131" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B147" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B148" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>108</v>
+      </c>
+      <c r="B149" t="s">
         <v>109</v>
-      </c>
-      <c r="B149" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" t="s">
         <v>111</v>
-      </c>
-      <c r="B150" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>112</v>
+      </c>
+      <c r="B151" t="s">
         <v>113</v>
-      </c>
-      <c r="B151" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" t="s">
         <v>115</v>
-      </c>
-      <c r="B152" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153" t="s">
         <v>117</v>
-      </c>
-      <c r="B153" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B154" t="s">
         <v>119</v>
-      </c>
-      <c r="B154" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" t="s">
         <v>121</v>
-      </c>
-      <c r="B155" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>122</v>
+      </c>
+      <c r="B156" t="s">
         <v>123</v>
-      </c>
-      <c r="B156" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" t="s">
         <v>125</v>
-      </c>
-      <c r="B157" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" t="s">
         <v>127</v>
-      </c>
-      <c r="B158" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>129</v>
+      </c>
+      <c r="B160" t="s">
         <v>130</v>
-      </c>
-      <c r="B160" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B162" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" t="s">
         <v>132</v>
-      </c>
-      <c r="B163" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
         <v>134</v>
-      </c>
-      <c r="B164" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" t="s">
         <v>136</v>
-      </c>
-      <c r="B165" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>139</v>
+      </c>
+      <c r="B168" t="s">
         <v>140</v>
-      </c>
-      <c r="B168" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" t="s">
         <v>142</v>
-      </c>
-      <c r="B169" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>143</v>
+      </c>
+      <c r="B170" t="s">
         <v>144</v>
-      </c>
-      <c r="B170" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>145</v>
+      </c>
+      <c r="B171" t="s">
         <v>146</v>
-      </c>
-      <c r="B171" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>147</v>
+      </c>
+      <c r="B172" t="s">
         <v>148</v>
-      </c>
-      <c r="B172" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" t="s">
         <v>150</v>
-      </c>
-      <c r="B173" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>151</v>
+      </c>
+      <c r="B174" t="s">
         <v>152</v>
-      </c>
-      <c r="B174" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B175" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B176" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B178" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B179" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B180" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" t="s">
         <v>156</v>
-      </c>
-      <c r="B181" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B182" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>157</v>
+      </c>
+      <c r="B183" t="s">
         <v>158</v>
-      </c>
-      <c r="B183" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B184" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>159</v>
+      </c>
+      <c r="B186" t="s">
         <v>160</v>
-      </c>
-      <c r="B186" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187" t="s">
         <v>162</v>
-      </c>
-      <c r="B187" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B188" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B189" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B190" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>164</v>
+      </c>
+      <c r="B191" t="s">
         <v>165</v>
-      </c>
-      <c r="B191" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" t="s">
         <v>167</v>
-      </c>
-      <c r="B192" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" t="s">
         <v>169</v>
-      </c>
-      <c r="B193" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" t="s">
         <v>171</v>
-      </c>
-      <c r="B194" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>172</v>
+      </c>
+      <c r="B195" t="s">
         <v>173</v>
-      </c>
-      <c r="B195" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196" t="s">
         <v>175</v>
-      </c>
-      <c r="B196" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>176</v>
+      </c>
+      <c r="B197" t="s">
         <v>177</v>
-      </c>
-      <c r="B197" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B198" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B201" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B203" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B205" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>179</v>
+      </c>
+      <c r="B206" t="s">
         <v>180</v>
-      </c>
-      <c r="B206" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>181</v>
+      </c>
+      <c r="B207" t="s">
         <v>182</v>
-      </c>
-      <c r="B207" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B208" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B209" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B210" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212" t="s">
         <v>185</v>
-      </c>
-      <c r="B212" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B213" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B214" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B215" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B220" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B221" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B222" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B223" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B224" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>199</v>
+      </c>
+      <c r="B225" t="s">
         <v>200</v>
-      </c>
-      <c r="B225" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>201</v>
+      </c>
+      <c r="B226" t="s">
         <v>202</v>
-      </c>
-      <c r="B226" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>203</v>
+      </c>
+      <c r="B227" t="s">
         <v>204</v>
-      </c>
-      <c r="B227" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>205</v>
+      </c>
+      <c r="B228" t="s">
         <v>206</v>
-      </c>
-      <c r="B228" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>207</v>
+      </c>
+      <c r="B229" t="s">
         <v>208</v>
-      </c>
-      <c r="B229" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" t="s">
         <v>210</v>
-      </c>
-      <c r="B230" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>211</v>
+      </c>
+      <c r="B231" t="s">
         <v>212</v>
-      </c>
-      <c r="B231" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>213</v>
+      </c>
+      <c r="B232" t="s">
         <v>214</v>
-      </c>
-      <c r="B232" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>215</v>
+      </c>
+      <c r="B233" t="s">
         <v>216</v>
-      </c>
-      <c r="B233" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B234" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>218</v>
+      </c>
+      <c r="B235" t="s">
         <v>219</v>
-      </c>
-      <c r="B235" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B238" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B241" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B242" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>224</v>
+      </c>
+      <c r="B243" t="s">
         <v>225</v>
-      </c>
-      <c r="B243" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B244" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B245" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B247" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>227</v>
+      </c>
+      <c r="B249" t="s">
         <v>228</v>
-      </c>
-      <c r="B249" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B250" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>229</v>
+      </c>
+      <c r="B251" t="s">
         <v>230</v>
-      </c>
-      <c r="B251" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B252" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B253" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>235</v>
+      </c>
+      <c r="B254" t="s">
         <v>236</v>
-      </c>
-      <c r="B254" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>237</v>
+      </c>
+      <c r="B255" t="s">
         <v>238</v>
-      </c>
-      <c r="B255" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>240</v>
+      </c>
+      <c r="B256" t="s">
         <v>241</v>
-      </c>
-      <c r="B256" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>246</v>
+      </c>
+      <c r="B259" t="s">
         <v>247</v>
-      </c>
-      <c r="B259" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>250</v>
+      </c>
+      <c r="B264" t="s">
         <v>251</v>
-      </c>
-      <c r="B264" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B265" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B266" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B267" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B268" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
+        <v>256</v>
+      </c>
+      <c r="B273" t="s">
         <v>257</v>
-      </c>
-      <c r="B273" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B274" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B275" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B276" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B277" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>259</v>
+      </c>
+      <c r="B278" t="s">
         <v>260</v>
-      </c>
-      <c r="B278" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
+        <v>261</v>
+      </c>
+      <c r="B279" t="s">
         <v>262</v>
-      </c>
-      <c r="B279" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>263</v>
+      </c>
+      <c r="B280" t="s">
         <v>264</v>
-      </c>
-      <c r="B280" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
+        <v>265</v>
+      </c>
+      <c r="B281" t="s">
         <v>266</v>
-      </c>
-      <c r="B281" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B286" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
+        <v>268</v>
+      </c>
+      <c r="B287" t="s">
         <v>269</v>
-      </c>
-      <c r="B287" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B288" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B289" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
+        <v>272</v>
+      </c>
+      <c r="B290" t="s">
         <v>273</v>
-      </c>
-      <c r="B290" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
+        <v>274</v>
+      </c>
+      <c r="B291" t="s">
         <v>275</v>
-      </c>
-      <c r="B291" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>276</v>
+      </c>
+      <c r="B292" t="s">
         <v>277</v>
-      </c>
-      <c r="B292" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
+        <v>278</v>
+      </c>
+      <c r="B293" t="s">
         <v>279</v>
-      </c>
-      <c r="B293" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
+        <v>280</v>
+      </c>
+      <c r="B294" t="s">
         <v>281</v>
-      </c>
-      <c r="B294" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>282</v>
+      </c>
+      <c r="B295" t="s">
         <v>283</v>
-      </c>
-      <c r="B295" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
+        <v>286</v>
+      </c>
+      <c r="B297" t="s">
         <v>287</v>
-      </c>
-      <c r="B297" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
+        <v>288</v>
+      </c>
+      <c r="B298" t="s">
         <v>289</v>
-      </c>
-      <c r="B298" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>290</v>
+      </c>
+      <c r="B299" t="s">
         <v>291</v>
-      </c>
-      <c r="B299" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>292</v>
+      </c>
+      <c r="B300" t="s">
         <v>293</v>
-      </c>
-      <c r="B300" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>294</v>
+      </c>
+      <c r="B301" t="s">
         <v>295</v>
-      </c>
-      <c r="B301" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B302" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B303" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B304" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>296</v>
+      </c>
+      <c r="B305" t="s">
         <v>297</v>
-      </c>
-      <c r="B305" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B307" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B308" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
+        <v>301</v>
+      </c>
+      <c r="B310" t="s">
         <v>302</v>
-      </c>
-      <c r="B310" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B312" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B315" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B317" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B318" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B319" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>306</v>
+      </c>
+      <c r="B320" t="s">
         <v>307</v>
-      </c>
-      <c r="B320" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
+        <v>308</v>
+      </c>
+      <c r="B321" t="s">
         <v>309</v>
-      </c>
-      <c r="B321" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
+        <v>310</v>
+      </c>
+      <c r="B322" t="s">
         <v>311</v>
-      </c>
-      <c r="B322" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B323" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B324" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B325" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
+        <v>315</v>
+      </c>
+      <c r="B327" t="s">
         <v>316</v>
-      </c>
-      <c r="B327" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B328" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>317</v>
+      </c>
+      <c r="B329" t="s">
         <v>318</v>
-      </c>
-      <c r="B329" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B330" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B331" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
+        <v>319</v>
+      </c>
+      <c r="B332" t="s">
         <v>320</v>
-      </c>
-      <c r="B332" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
+        <v>321</v>
+      </c>
+      <c r="B333" t="s">
         <v>322</v>
-      </c>
-      <c r="B333" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>323</v>
+      </c>
+      <c r="B334" t="s">
         <v>324</v>
-      </c>
-      <c r="B334" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
+        <v>327</v>
+      </c>
+      <c r="B335" t="s">
         <v>328</v>
-      </c>
-      <c r="B335" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
+        <v>331</v>
+      </c>
+      <c r="B336" t="s">
         <v>332</v>
-      </c>
-      <c r="B336" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
+        <v>333</v>
+      </c>
+      <c r="B337" t="s">
         <v>334</v>
-      </c>
-      <c r="B337" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B338" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
+        <v>335</v>
+      </c>
+      <c r="B339" t="s">
         <v>336</v>
-      </c>
-      <c r="B339" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B340" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
+        <v>337</v>
+      </c>
+      <c r="B341" t="s">
         <v>338</v>
-      </c>
-      <c r="B341" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
+        <v>339</v>
+      </c>
+      <c r="B342" t="s">
         <v>340</v>
-      </c>
-      <c r="B342" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B343" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B344" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
         <v>344</v>
-      </c>
-      <c r="B345" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B346" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B347" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
         <v>353</v>
-      </c>
-      <c r="B354" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
         <v>355</v>
-      </c>
-      <c r="B355" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
         <v>357</v>
-      </c>
-      <c r="B356" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B357" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
         <v>359</v>
-      </c>
-      <c r="B359" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B360" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
         <v>361</v>
-      </c>
-      <c r="B361" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B367" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B368" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B369" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B370" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B371" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B380" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B381" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B382" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B383" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B387" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B388" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B389" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B390" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B391" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
+        <v>369</v>
+      </c>
+      <c r="B392" t="s">
         <v>370</v>
-      </c>
-      <c r="B392" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B393" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B394" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B397" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B398" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA338A-9E44-44BA-8D2B-965D7CFD16DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F042F-3D51-47AE-8738-25645CCE59C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Credential" sheetId="3" r:id="rId1"/>
@@ -41,23 +41,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="679">
   <si>
     <t>MRN</t>
   </si>
   <si>
-    <t>SAMPLE GUARDIAN</t>
-  </si>
-  <si>
     <t>TIMELESS</t>
   </si>
   <si>
     <t>sampleguardian@mail.com</t>
   </si>
   <si>
-    <t>BABY A</t>
-  </si>
-  <si>
     <t>Room</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>G123</t>
   </si>
   <si>
-    <t>Barcode</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -2063,6 +2054,30 @@
   </si>
   <si>
     <t>EHM or DHM + Fortifier + Modular</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>GUARDIAN FOR TWIN</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>GUARDIAN FOR ONE PATIENT</t>
+  </si>
+  <si>
+    <t>TWIN BABY A</t>
+  </si>
+  <si>
+    <t>TWIN BABY B</t>
+  </si>
+  <si>
+    <t>NO SIBLING</t>
+  </si>
+  <si>
+    <t>G231</t>
   </si>
 </sst>
 </file>
@@ -2510,18 +2525,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2531,15 +2546,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -2549,42 +2564,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1111111111</v>
@@ -2593,10 +2608,24 @@
         <v>2222222222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
         <v>27051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D3" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -2609,10 +2638,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2623,47 +2652,44 @@
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>45344</v>
@@ -2678,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" t="str">
         <f>Guardian!C2</f>
@@ -2686,6 +2712,47 @@
       </c>
       <c r="J2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3">
+        <v>1234</v>
+      </c>
+      <c r="F3">
+        <v>1234</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4">
+        <v>12345</v>
+      </c>
+      <c r="F4">
+        <v>12345</v>
+      </c>
+      <c r="I4" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2719,61 +2786,61 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" t="s">
+        <v>646</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" t="s">
         <v>371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>375</v>
-      </c>
-      <c r="K1" t="s">
-        <v>649</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4">
         <v>10</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2781,7 +2848,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K3" s="4" t="str">
         <f>IF(VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2796,25 +2863,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K5" s="4" t="str">
         <f>IF(VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2829,7 +2896,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J6" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K6" s="4" t="str">
         <f>IF(VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2844,24 +2911,24 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J8" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K8" s="4" t="str">
         <f>IF(VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2876,7 +2943,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>IF(VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2891,25 +2958,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K11" s="4" t="str">
         <f>IF(VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2924,7 +2991,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J12" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K12" s="4" t="str">
         <f>IF(VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2939,24 +3006,24 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J14" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K14" s="4" t="str">
         <f>IF(VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2971,7 +3038,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J15" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K15" s="4" t="str">
         <f>IF(VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE))</f>
@@ -2986,25 +3053,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="4">
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K17" s="4" t="str">
         <f>IF(VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3019,7 +3086,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J18" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K18" s="4" t="str">
         <f>IF(VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3034,25 +3101,25 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="4">
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K20" s="4" t="str">
         <f>IF(VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3067,7 +3134,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K21" s="4" t="str">
         <f>IF(VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3082,16 +3149,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" t="str">
         <f>IF(VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE))</f>
@@ -3105,21 +3172,21 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" t="str">
         <f>IF(VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE))</f>
@@ -3133,12 +3200,12 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J24" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K24" s="4" t="str">
         <f>IF(VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3154,7 +3221,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K25" s="4" t="str">
         <f>IF(VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3170,16 +3237,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" t="str">
         <f>IF(VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE))</f>
@@ -3193,12 +3260,12 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J27" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K27" s="4" t="str">
         <f>IF(VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3214,7 +3281,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J28" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K28" s="4" t="str">
         <f>IF(VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3229,16 +3296,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" t="str">
         <f>IF(VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE))</f>
@@ -3252,14 +3319,14 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K30" s="4" t="str">
         <f>IF(VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3274,7 +3341,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J31" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K31" s="4" t="str">
         <f>IF(VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3289,16 +3356,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E32" t="str">
         <f>IF(VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE))</f>
@@ -3312,12 +3379,12 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J33" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K33" s="4" t="str">
         <f>IF(VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3332,7 +3399,7 @@
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J34" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K34" s="4" t="str">
         <f>IF(VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE))</f>
@@ -3402,21 +3469,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -3424,10 +3491,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3435,10 +3502,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -3446,7 +3513,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -3454,7 +3521,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3462,10 +3529,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3473,7 +3540,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -3481,7 +3548,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3489,7 +3556,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3497,7 +3564,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3505,7 +3572,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -3513,7 +3580,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3521,7 +3588,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3529,7 +3596,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>5.91</v>
@@ -3537,7 +3604,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>3.7</v>
@@ -3545,7 +3612,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3553,7 +3620,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -3561,7 +3628,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -3569,7 +3636,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -3577,7 +3644,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>24</v>
@@ -3585,7 +3652,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -3593,10 +3660,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -3604,7 +3671,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -3612,10 +3679,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -3623,10 +3690,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -3634,10 +3701,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -3645,10 +3712,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3656,10 +3723,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -3667,10 +3734,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -3678,10 +3745,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>32.53</v>
@@ -3689,10 +3756,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -3700,10 +3767,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -3711,10 +3778,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -3722,10 +3789,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -3733,10 +3800,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -3744,10 +3811,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3755,10 +3822,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>11.83</v>
@@ -3766,10 +3833,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <v>5.91</v>
@@ -3777,10 +3844,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>53</v>
@@ -3788,7 +3855,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3796,7 +3863,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>44</v>
@@ -3804,7 +3871,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -3812,7 +3879,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -3820,7 +3887,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -3828,7 +3895,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -3836,7 +3903,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>44.36</v>
@@ -3844,7 +3911,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3852,7 +3919,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -3860,7 +3927,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -3868,7 +3935,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>44.36</v>
@@ -3876,7 +3943,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -3884,7 +3951,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>44.36</v>
@@ -3892,7 +3959,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>53.23</v>
@@ -3900,7 +3967,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55">
         <v>59.15</v>
@@ -3908,10 +3975,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C56">
         <v>31.35</v>
@@ -3919,10 +3986,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57">
         <v>44.36</v>
@@ -3930,10 +3997,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C58">
         <v>29.57</v>
@@ -3941,10 +4008,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59">
         <v>17.739999999999998</v>
@@ -3952,10 +4019,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>27.5</v>
@@ -3963,10 +4030,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C61">
         <v>29.57</v>
@@ -3974,10 +4041,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C62">
         <v>29.57</v>
@@ -3985,10 +4052,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C63">
         <v>44.36</v>
@@ -3996,10 +4063,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C64">
         <v>29.57</v>
@@ -4007,10 +4074,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>29.57</v>
@@ -4018,7 +4085,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C66">
         <v>59.15</v>
@@ -4026,10 +4093,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C67">
         <v>44.36</v>
@@ -4037,10 +4104,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C68">
         <v>29.57</v>
@@ -4048,10 +4115,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C69">
         <v>30</v>
@@ -4059,10 +4126,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70">
         <v>29.93</v>
@@ -4070,7 +4137,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C71">
         <v>44.36</v>
@@ -4078,7 +4145,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C72">
         <v>44.36</v>
@@ -4086,10 +4153,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C73">
         <v>31.05</v>
@@ -4097,10 +4164,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74">
         <v>29.57</v>
@@ -4108,10 +4175,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C75">
         <v>23.66</v>
@@ -4119,10 +4186,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C76">
         <v>44.36</v>
@@ -4130,10 +4197,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C77">
         <v>47.32</v>
@@ -4141,10 +4208,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C78">
         <v>66.25</v>
@@ -4152,10 +4219,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C79">
         <v>221.81</v>
@@ -4163,10 +4230,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C80">
         <v>29.87</v>
@@ -4174,10 +4241,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -4185,10 +4252,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -4196,10 +4263,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C83">
         <v>44.36</v>
@@ -4207,10 +4274,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84">
         <v>35.49</v>
@@ -4218,10 +4285,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C85">
         <v>44.36</v>
@@ -4229,10 +4296,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>44.36</v>
@@ -4240,10 +4307,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C87">
         <v>35.49</v>
@@ -4251,10 +4318,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C88">
         <v>29.57</v>
@@ -4262,10 +4329,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C89">
         <v>29.57</v>
@@ -4273,10 +4340,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C90">
         <v>44.36</v>
@@ -4284,10 +4351,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C91">
         <v>29.57</v>
@@ -4295,10 +4362,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C92">
         <v>29.57</v>
@@ -4306,10 +4373,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -4317,10 +4384,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C94">
         <v>29.57</v>
@@ -4328,10 +4395,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C95">
         <v>29.57</v>
@@ -4339,10 +4406,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C96">
         <v>44.36</v>
@@ -4350,10 +4417,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C97">
         <v>35.49</v>
@@ -4361,7 +4428,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C98">
         <v>45</v>
@@ -4369,7 +4436,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C99">
         <v>30</v>
@@ -4377,7 +4444,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C100">
         <v>45</v>
@@ -4385,7 +4452,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C101">
         <v>45</v>
@@ -4393,10 +4460,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -4404,10 +4471,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C103">
         <v>20</v>
@@ -4415,10 +4482,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C104">
         <v>24</v>
@@ -4426,10 +4493,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -4437,10 +4504,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C106">
         <v>28</v>
@@ -4448,10 +4515,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C107">
         <v>20</v>
@@ -4459,10 +4526,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C108">
         <v>35</v>
@@ -4470,10 +4537,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C109">
         <v>36</v>
@@ -4481,10 +4548,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C110">
         <v>34</v>
@@ -4492,10 +4559,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -4503,10 +4570,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C112">
         <v>36</v>
@@ -4514,10 +4581,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C113">
         <v>34</v>
@@ -4525,10 +4592,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -4536,10 +4603,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C115">
         <v>45</v>
@@ -4547,10 +4614,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C116">
         <v>45</v>
@@ -4558,10 +4625,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -4569,10 +4636,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -4580,7 +4647,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C119">
         <v>40</v>
@@ -4588,7 +4655,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4596,7 +4663,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C121">
         <v>30</v>
@@ -4604,7 +4671,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4612,10 +4679,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C123">
         <v>44.36</v>
@@ -4623,7 +4690,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C124">
         <v>35.49</v>
@@ -4631,10 +4698,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C125">
         <v>35.49</v>
@@ -4642,10 +4709,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C126">
         <v>44.36</v>
@@ -4653,10 +4720,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C127">
         <v>29.87</v>
@@ -4664,10 +4731,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -4675,10 +4742,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C129">
         <v>30</v>
@@ -4686,10 +4753,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C130">
         <v>44.36</v>
@@ -4697,10 +4764,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C131">
         <v>55</v>
@@ -4708,7 +4775,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C132">
         <v>35.49</v>
@@ -4716,10 +4783,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C133">
         <v>30</v>
@@ -4727,10 +4794,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C134">
         <v>45</v>
@@ -4738,7 +4805,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C135">
         <v>30</v>
@@ -4746,7 +4813,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C136">
         <v>44.36</v>
@@ -4754,7 +4821,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C137">
         <v>30</v>
@@ -4762,10 +4829,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C138">
         <v>30</v>
@@ -4773,7 +4840,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C139">
         <v>35.49</v>
@@ -4781,7 +4848,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C140">
         <v>44.36</v>
@@ -4789,10 +4856,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C141">
         <v>59.15</v>
@@ -4800,10 +4867,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C142">
         <v>33.42</v>
@@ -4811,10 +4878,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C143">
         <v>43.18</v>
@@ -4822,10 +4889,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C144">
         <v>38.450000000000003</v>
@@ -4833,7 +4900,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C145">
         <v>41.7</v>
@@ -4841,10 +4908,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C146">
         <v>30</v>
@@ -4852,10 +4919,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -4863,10 +4930,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C148">
         <v>29.57</v>
@@ -4874,10 +4941,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C149">
         <v>35.49</v>
@@ -4885,10 +4952,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C150">
         <v>30</v>
@@ -4896,10 +4963,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C151">
         <v>59.15</v>
@@ -4907,10 +4974,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C152">
         <v>59.15</v>
@@ -4918,10 +4985,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C153">
         <v>45</v>
@@ -4929,10 +4996,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C154">
         <v>45</v>
@@ -4940,10 +5007,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C155">
         <v>73.94</v>
@@ -4951,10 +5018,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C156">
         <v>12.5</v>
@@ -4962,10 +5029,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157">
         <v>10</v>
@@ -4973,10 +5040,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C158">
         <v>12.8</v>
@@ -4984,10 +5051,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C159">
         <v>12.7</v>
@@ -4995,10 +5062,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C160">
         <v>30</v>
@@ -5006,10 +5073,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C161">
         <v>20.100000000000001</v>
@@ -5017,10 +5084,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C162">
         <v>17.5</v>
@@ -5028,10 +5095,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B163" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C163">
         <v>25</v>
@@ -5039,10 +5106,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C164">
         <v>20</v>
@@ -5050,10 +5117,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B165" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C165">
         <v>36</v>
@@ -5061,10 +5128,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C166">
         <v>32</v>
@@ -5072,10 +5139,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C167">
         <v>28.3</v>
@@ -5083,10 +5150,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C168">
         <v>30</v>
@@ -5094,10 +5161,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C169">
         <v>256.41000000000003</v>
@@ -5105,10 +5172,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C170">
         <v>14.2</v>
@@ -5116,7 +5183,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C171">
         <v>45.25</v>
@@ -5124,10 +5191,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C172">
         <v>79.55</v>
@@ -5135,10 +5202,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C173">
         <v>42</v>
@@ -5146,10 +5213,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B174" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C174">
         <v>42</v>
@@ -5157,7 +5224,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C175">
         <v>35.49</v>
@@ -5165,10 +5232,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C176">
         <v>44.36</v>
@@ -5176,10 +5243,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B177" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C177">
         <v>32.53</v>
@@ -5187,10 +5254,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -5198,10 +5265,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C179">
         <v>26.62</v>
@@ -5209,10 +5276,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B180" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C180">
         <v>60</v>
@@ -5220,10 +5287,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C181">
         <v>44.36</v>
@@ -5231,10 +5298,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B182" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C182">
         <v>35.49</v>
@@ -5242,10 +5309,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C183">
         <v>29.57</v>
@@ -5253,10 +5320,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -5264,10 +5331,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C185">
         <v>17.5</v>
@@ -5275,10 +5342,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C186">
         <v>44.36</v>
@@ -5286,10 +5353,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B187" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C187">
         <v>29.57</v>
@@ -5297,10 +5364,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B188" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C188">
         <v>41.4</v>
@@ -5308,10 +5375,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B189" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C189">
         <v>29.57</v>
@@ -5319,10 +5386,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C190">
         <v>26.62</v>
@@ -5330,10 +5397,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B191" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C191">
         <v>17.739999999999998</v>
@@ -5341,10 +5408,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C192">
         <v>29.57</v>
@@ -5352,10 +5419,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B193" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C193">
         <v>31.05</v>
@@ -5363,10 +5430,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B194" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C194">
         <v>22.48</v>
@@ -5374,10 +5441,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B195" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C195">
         <v>14.79</v>
@@ -5385,10 +5452,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B196" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C196">
         <v>29.57</v>
@@ -5396,7 +5463,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C197">
         <v>0.3</v>
@@ -5404,7 +5471,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C198">
         <v>62.11</v>
@@ -5412,7 +5479,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C199">
         <v>3.5</v>
@@ -5420,7 +5487,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C200">
         <v>1.77</v>
@@ -5428,7 +5495,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -5436,7 +5503,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C202">
         <v>23.66</v>
@@ -5444,7 +5511,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C203">
         <v>2.66</v>
@@ -5452,10 +5519,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B204" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -5463,10 +5530,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B205" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -5474,10 +5541,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C206">
         <v>39.92</v>
@@ -5485,10 +5552,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -5496,10 +5563,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C208">
         <v>25</v>
@@ -5507,7 +5574,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C209">
         <v>100</v>
@@ -5515,7 +5582,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C210">
         <v>100</v>
@@ -5523,7 +5590,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C211">
         <v>79.849999999999994</v>
@@ -5531,10 +5598,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B212" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C212">
         <v>45.25</v>
@@ -5542,10 +5609,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C213">
         <v>28.1</v>
@@ -5553,7 +5620,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C214">
         <v>28.1</v>
@@ -5561,7 +5628,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C215">
         <v>28.39</v>
@@ -5569,10 +5636,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B216" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -5599,2817 +5666,2817 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B90" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B92" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B94" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B95" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B105" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B111" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B112" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B113" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B114" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B115" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B116" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B117" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B118" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B119" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B120" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B121" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B122" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B123" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B124" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B125" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B126" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B129" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B130" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B131" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B147" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B148" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B150" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B151" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B153" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B156" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B158" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B162" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B163" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B164" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B169" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B170" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B171" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B172" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B174" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B175" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B176" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B178" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B179" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B180" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B182" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B184" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B187" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B188" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B189" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B191" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B192" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B193" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B194" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B195" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B196" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B197" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B198" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B201" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B203" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B204" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B205" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B206" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B207" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B208" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B209" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B210" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B211" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B212" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B213" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B214" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B215" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B220" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B221" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B222" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B223" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B224" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B225" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B226" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B227" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B228" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B229" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B230" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B231" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B233" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B234" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B238" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B241" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B242" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B243" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B244" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B245" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B247" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B249" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B250" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B251" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B252" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B253" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B255" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B256" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B259" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B265" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B266" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B267" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B268" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B269" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B270" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B271" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B273" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B274" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B275" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B276" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B277" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B278" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B279" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B281" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B287" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B288" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B289" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B290" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B291" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B292" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B293" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B294" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B295" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B296" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B297" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B298" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B300" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B301" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B302" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B303" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B304" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B305" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B306" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B307" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B308" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B310" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B312" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B313" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B314" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B315" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B317" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B318" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B319" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B320" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B321" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B322" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B323" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B324" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B325" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B327" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B328" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B329" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B330" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B331" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B333" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B334" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B335" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B337" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B338" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B339" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B340" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B341" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B343" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B344" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B346" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B347" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B355" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B356" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B357" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B359" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B360" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B361" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B367" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B368" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B369" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B370" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B371" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B380" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B381" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B382" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B383" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B387" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B388" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B389" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B390" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B391" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B392" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B393" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B394" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B397" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B398" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46F042F-3D51-47AE-8738-25645CCE59C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD9BA-5C9C-4EF6-B6EE-20CFE657B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="680">
   <si>
     <t>MRN</t>
   </si>
@@ -2065,9 +2065,6 @@
     <t>TESTING</t>
   </si>
   <si>
-    <t>GUARDIAN FOR ONE PATIENT</t>
-  </si>
-  <si>
     <t>TWIN BABY A</t>
   </si>
   <si>
@@ -2078,6 +2075,12 @@
   </si>
   <si>
     <t>G231</t>
+  </si>
+  <si>
+    <t>NO SIBLING GUARDIAN</t>
+  </si>
+  <si>
+    <t>003</t>
   </si>
 </sst>
 </file>
@@ -2549,7 +2552,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2590,25 +2593,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>673</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>677</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>1111111111</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2222222222</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
+        <v>677</v>
       </c>
       <c r="H2" s="3">
         <v>27051</v>
@@ -2616,21 +2610,33 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>678</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>678</v>
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1111111111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2222222222</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>27051</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{7446A7C7-206B-4FE5-9202-6CC7E182923B}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{7446A7C7-206B-4FE5-9202-6CC7E182923B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2641,7 +2647,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,29 +2692,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>673</v>
       </c>
       <c r="D2" s="3">
         <v>45344</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>12345</v>
       </c>
       <c r="F2">
-        <v>123</v>
+        <v>12345</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="str">
-        <f>Guardian!C2</f>
-        <v>G123</v>
+        <v>679</v>
+      </c>
+      <c r="I2" t="s">
+        <v>677</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2716,43 +2721,49 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
       <c r="E3">
-        <v>1234</v>
+        <v>123</v>
       </c>
       <c r="F3">
-        <v>1234</v>
+        <v>123</v>
       </c>
       <c r="G3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <f>Guardian!C3</f>
+        <v>G123</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>12345</v>
+        <v>1234</v>
       </c>
       <c r="F4">
-        <v>12345</v>
+        <v>1234</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="I4" t="s">
-        <v>678</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442DD9BA-5C9C-4EF6-B6EE-20CFE657B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43771729-75BC-44AB-B45F-72A609513A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Credential" sheetId="3" r:id="rId1"/>
-    <sheet name="Guardian" sheetId="1" r:id="rId2"/>
-    <sheet name="Patient" sheetId="2" r:id="rId3"/>
-    <sheet name="Order" sheetId="4" r:id="rId4"/>
-    <sheet name="Order Base" sheetId="5" r:id="rId5"/>
-    <sheet name="OrderAdditives" sheetId="6" r:id="rId6"/>
+    <sheet name="Guardian" sheetId="1" r:id="rId1"/>
+    <sheet name="Patient" sheetId="2" r:id="rId2"/>
+    <sheet name="Order" sheetId="4" r:id="rId3"/>
+    <sheet name="Order Base" sheetId="5" r:id="rId4"/>
+    <sheet name="OrderAdditives" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="672">
   <si>
     <t>MRN</t>
   </si>
@@ -61,21 +60,6 @@
     <t>001</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>usr000001</t>
-  </si>
-  <si>
-    <t>timeless</t>
-  </si>
-  <si>
-    <t>Patient Identifier</t>
-  </si>
-  <si>
     <t>Order Base</t>
   </si>
   <si>
@@ -91,9 +75,6 @@
     <t>Label Notes</t>
   </si>
   <si>
-    <t>PT000001</t>
-  </si>
-  <si>
     <t>Breastmilk</t>
   </si>
   <si>
@@ -1150,9 +1131,6 @@
     <t>Order Name</t>
   </si>
   <si>
-    <t>EHM + Human Milk Fortifier</t>
-  </si>
-  <si>
     <t>Is Modular</t>
   </si>
   <si>
@@ -2024,9 +2002,6 @@
   </si>
   <si>
     <t>Product + Fortifier + Modular Label Note</t>
-  </si>
-  <si>
-    <t>EHM + HMF Label Note</t>
   </si>
   <si>
     <t>Sterile Water + Fortifiers</t>
@@ -2087,7 +2062,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2103,13 +2078,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2125,7 +2114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2133,7 +2122,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
@@ -2514,45 +2513,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F325330F-AA39-47F1-A431-8F7617E20639}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,42 +2532,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="H2" s="3">
         <v>27051</v>
@@ -2610,16 +2575,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1111111111</v>
@@ -2635,6 +2600,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ieny9sQJdopOVv/BJobzqukHbbXqtCUEYpPRG3TzhwYym91nM/7S1K5TSMttxsBSZbeTMryA5CmhdKjQ6xyEDA==" saltValue="SXJKSiOGdpq/zPR/cYkIbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{7446A7C7-206B-4FE5-9202-6CC7E182923B}"/>
   </hyperlinks>
@@ -2642,12 +2608,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,22 +2626,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2684,18 +2650,18 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D2" s="3">
         <v>45344</v>
@@ -2710,10 +2676,10 @@
         <v>300</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="I2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2721,7 +2687,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2745,7 +2711,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -2760,683 +2726,685 @@
         <v>200</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="PkRKIMEnzRx6ODVZOAIY73hVaNKMKeGulaijSVAUV5YMHPMGkHmmhANH7pNASPn5gj01tixSBXescAPtNMcm3g==" saltValue="nOTaBpnpzNcY4/2qpXDYCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.44140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>IF(VLOOKUP(I3, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I3, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>IF(VLOOKUP(I4, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I4, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f>IF(VLOOKUP(I6, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I6, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f>IF(VLOOKUP(I7, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I7, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>IF(VLOOKUP(I9, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I9, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K9" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>IF(VLOOKUP(I10, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I10, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K10" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>IF(VLOOKUP(I12, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I12, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>IF(VLOOKUP(I13, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I13, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>IF(VLOOKUP(I15, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I15, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>IF(VLOOKUP(I16, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I16, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="F18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f>IF(VLOOKUP(I18, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I18, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K18" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f>IF(VLOOKUP(I19, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I19, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(VLOOKUP(C20, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(C20, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(C20, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(VLOOKUP(C21, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(C21, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(C21, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f>IF(VLOOKUP(I22, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I22, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K22" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f>E20+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f>IF(VLOOKUP(I23, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I23, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K23" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f>E21+4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(VLOOKUP(C24, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(C24, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="E24">
+        <f>VLOOKUP(C24, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f>IF(VLOOKUP(I25, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I25, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K25" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f>E24+2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f>IF(VLOOKUP(I26, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I26, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(VLOOKUP(C27, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(C27, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Sim Sterile Water</v>
+      </c>
+      <c r="E27">
+        <f>VLOOKUP(C27, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f>IF(VLOOKUP(I28, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I28, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f>IF(VLOOKUP(I29, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I29, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>MCT Oil</v>
+      </c>
+      <c r="K29" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(VLOOKUP(C30, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(C30, 'Order Base'!A:B, 2, FALSE))</f>
+        <v>Sim Sterile Water</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(C30, 'Order Base'!A:C, 3, FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>10</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" t="s">
-        <v>646</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>IF(VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J3, OrderAdditives!A:B, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="b">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f>IF(VLOOKUP(I31, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I31, OrderAdditives!A:B, 2, FALSE))</f>
+        <v>Enfamil Infant</v>
+      </c>
+      <c r="K31" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G5" s="4"/>
-      <c r="J5" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>IF(VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J5, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J6" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>IF(VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J6, OrderAdditives!A:B, 2, FALSE))</f>
+      <c r="L31" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f>IF(VLOOKUP(I32, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(I32, OrderAdditives!A:B, 2, FALSE))</f>
         <v>MCT Oil</v>
       </c>
-      <c r="L6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>649</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J8" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>IF(VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J8, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J9" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>IF(VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J9, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L9" s="5" t="b">
+      <c r="K32" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="M9">
+      <c r="L32" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>667</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="4"/>
-      <c r="J11" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f>IF(VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J11, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J12" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>IF(VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J12, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>668</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J14" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>IF(VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J14, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J15" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>IF(VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J15, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L15" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>669</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="4">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>IF(VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J17, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J18" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f>IF(VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J18, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>670</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f>IF(VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J20, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J21" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f>IF(VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J21, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L21" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>651</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>655</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="str">
-        <f>IF(VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D22, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F22">
-        <f>VLOOKUP(D22, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G22" s="4">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>654</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>655</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" t="str">
-        <f>IF(VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D23, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F23">
-        <f>VLOOKUP(D23, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G23" s="4">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J24" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f>IF(VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J24, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>F22+2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J25" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f>IF(VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J25, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L25" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>F23+4</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>659</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>655</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="str">
-        <f>IF(VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D26, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="F26">
-        <f>VLOOKUP(D26, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G26" s="4">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J27" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <f>IF(VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J27, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>F26+2</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J28" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K28" s="4" t="str">
-        <f>IF(VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J28, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>662</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>664</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" t="str">
-        <f>IF(VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D29, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Sim Sterile Water</v>
-      </c>
-      <c r="F29">
-        <f>VLOOKUP(D29, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>665</v>
-      </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J30" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K30" s="4" t="str">
-        <f>IF(VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J30, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L30" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J31" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K31" s="4" t="str">
-        <f>IF(VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J31, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L31" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>663</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>664</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="str">
-        <f>IF(VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE)=0, "", VLOOKUP(D32, 'Order Base'!A:B, 2, FALSE))</f>
-        <v>Sim Sterile Water</v>
-      </c>
-      <c r="F32">
-        <f>VLOOKUP(D32, 'Order Base'!A:C, 3, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>10</v>
-      </c>
-      <c r="I32" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J33" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <f>IF(VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J33, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>Enfamil Infant</v>
-      </c>
-      <c r="L33" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="K34" s="4" t="str">
-        <f>IF(VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE)=0, "", VLOOKUP(J34, OrderAdditives!A:B, 2, FALSE))</f>
-        <v>MCT Oil</v>
-      </c>
-      <c r="L34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1 L5:L6 L8:L9 L11:L12 L14:L15 L17:L18 L20:L21 L24:L25 L27:L28 L30:L31 L33:L34">
+  <conditionalFormatting sqref="K1 K3:K4 K6:K7 K9:K10 K12:K13 K15:K16 K18:K19 K22:K23 K25:K26 K28:K29 K31:K32">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3449,13 +3417,13 @@
           <x14:formula1>
             <xm:f>OrderAdditives!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>J3 J5:J6 J33:J34 J24:J25 J27:J31 J8:J9 J11:J12 J14:J15 J17:J18 J20:J21</xm:sqref>
+          <xm:sqref>I3:I4 I31:I32 I22:I23 I25:I29 I6:I7 I9:I10 I12:I13 I15:I16 I18:I19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B08B8B12-B941-428A-9E58-B98C2DCC018E}">
           <x14:formula1>
             <xm:f>'Order Base'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D22:D23 D26 D32 D29</xm:sqref>
+          <xm:sqref>C20:C21 C24 C30 C27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3463,12 +3431,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89BE6D1-F857-4088-B5D9-C214F61BEB91}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,22 +3447,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>657</v>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -3502,10 +3470,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3513,10 +3481,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -3524,7 +3492,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -3532,7 +3500,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -3540,10 +3508,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -3551,7 +3519,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -3559,7 +3527,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3567,7 +3535,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3575,7 +3543,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3583,7 +3551,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -3591,7 +3559,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -3599,7 +3567,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3607,7 +3575,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>5.91</v>
@@ -3615,7 +3583,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>3.7</v>
@@ -3623,7 +3591,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -3631,7 +3599,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -3639,7 +3607,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -3647,7 +3615,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -3655,7 +3623,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>24</v>
@@ -3663,7 +3631,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -3671,10 +3639,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -3682,7 +3650,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -3690,10 +3658,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -3701,10 +3669,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -3712,10 +3680,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -3723,10 +3691,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3734,10 +3702,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -3745,10 +3713,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -3756,10 +3724,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>32.53</v>
@@ -3767,10 +3735,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -3778,10 +3746,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -3789,10 +3757,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -3800,10 +3768,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -3811,10 +3779,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -3822,10 +3790,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3833,10 +3801,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>11.83</v>
@@ -3844,10 +3812,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>5.91</v>
@@ -3855,10 +3823,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>53</v>
@@ -3866,7 +3834,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -3874,7 +3842,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C42">
         <v>44</v>
@@ -3882,7 +3850,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>28</v>
@@ -3890,7 +3858,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -3898,7 +3866,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -3906,7 +3874,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -3914,7 +3882,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>44.36</v>
@@ -3922,7 +3890,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>18</v>
@@ -3930,7 +3898,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -3938,7 +3906,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>36</v>
@@ -3946,7 +3914,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>44.36</v>
@@ -3954,7 +3922,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -3962,7 +3930,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>44.36</v>
@@ -3970,7 +3938,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C54">
         <v>53.23</v>
@@ -3978,7 +3946,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>59.15</v>
@@ -3986,10 +3954,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C56">
         <v>31.35</v>
@@ -3997,10 +3965,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C57">
         <v>44.36</v>
@@ -4008,10 +3976,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>29.57</v>
@@ -4019,10 +3987,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C59">
         <v>17.739999999999998</v>
@@ -4030,10 +3998,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C60">
         <v>27.5</v>
@@ -4041,10 +4009,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C61">
         <v>29.57</v>
@@ -4052,10 +4020,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C62">
         <v>29.57</v>
@@ -4063,10 +4031,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C63">
         <v>44.36</v>
@@ -4074,10 +4042,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C64">
         <v>29.57</v>
@@ -4085,10 +4053,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C65">
         <v>29.57</v>
@@ -4096,7 +4064,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>59.15</v>
@@ -4104,10 +4072,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>44.36</v>
@@ -4115,10 +4083,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>29.57</v>
@@ -4126,10 +4094,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>30</v>
@@ -4137,10 +4105,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>29.93</v>
@@ -4148,7 +4116,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C71">
         <v>44.36</v>
@@ -4156,7 +4124,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C72">
         <v>44.36</v>
@@ -4164,10 +4132,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C73">
         <v>31.05</v>
@@ -4175,10 +4143,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C74">
         <v>29.57</v>
@@ -4186,10 +4154,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C75">
         <v>23.66</v>
@@ -4197,10 +4165,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C76">
         <v>44.36</v>
@@ -4208,10 +4176,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C77">
         <v>47.32</v>
@@ -4219,10 +4187,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C78">
         <v>66.25</v>
@@ -4230,10 +4198,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C79">
         <v>221.81</v>
@@ -4241,10 +4209,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C80">
         <v>29.87</v>
@@ -4252,10 +4220,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -4263,10 +4231,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -4274,10 +4242,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C83">
         <v>44.36</v>
@@ -4285,10 +4253,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C84">
         <v>35.49</v>
@@ -4296,10 +4264,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>44.36</v>
@@ -4307,10 +4275,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C86">
         <v>44.36</v>
@@ -4318,10 +4286,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C87">
         <v>35.49</v>
@@ -4329,10 +4297,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C88">
         <v>29.57</v>
@@ -4340,10 +4308,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C89">
         <v>29.57</v>
@@ -4351,10 +4319,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C90">
         <v>44.36</v>
@@ -4362,10 +4330,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C91">
         <v>29.57</v>
@@ -4373,10 +4341,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C92">
         <v>29.57</v>
@@ -4384,10 +4352,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -4395,10 +4363,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C94">
         <v>29.57</v>
@@ -4406,10 +4374,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C95">
         <v>29.57</v>
@@ -4417,10 +4385,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C96">
         <v>44.36</v>
@@ -4428,10 +4396,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C97">
         <v>35.49</v>
@@ -4439,7 +4407,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C98">
         <v>45</v>
@@ -4447,7 +4415,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C99">
         <v>30</v>
@@ -4455,7 +4423,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C100">
         <v>45</v>
@@ -4463,7 +4431,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C101">
         <v>45</v>
@@ -4471,10 +4439,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -4482,10 +4450,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C103">
         <v>20</v>
@@ -4493,10 +4461,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C104">
         <v>24</v>
@@ -4504,10 +4472,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C105">
         <v>26</v>
@@ -4515,10 +4483,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C106">
         <v>28</v>
@@ -4526,10 +4494,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C107">
         <v>20</v>
@@ -4537,10 +4505,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C108">
         <v>35</v>
@@ -4548,10 +4516,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C109">
         <v>36</v>
@@ -4559,10 +4527,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C110">
         <v>34</v>
@@ -4570,10 +4538,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C111">
         <v>35</v>
@@ -4581,10 +4549,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C112">
         <v>36</v>
@@ -4592,10 +4560,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C113">
         <v>34</v>
@@ -4603,10 +4571,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C114">
         <v>36</v>
@@ -4614,10 +4582,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C115">
         <v>45</v>
@@ -4625,10 +4593,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C116">
         <v>45</v>
@@ -4636,10 +4604,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C117">
         <v>30</v>
@@ -4647,10 +4615,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C118">
         <v>30</v>
@@ -4658,7 +4626,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C119">
         <v>40</v>
@@ -4666,7 +4634,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4674,7 +4642,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C121">
         <v>30</v>
@@ -4682,7 +4650,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -4690,10 +4658,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C123">
         <v>44.36</v>
@@ -4701,7 +4669,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C124">
         <v>35.49</v>
@@ -4709,10 +4677,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C125">
         <v>35.49</v>
@@ -4720,10 +4688,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C126">
         <v>44.36</v>
@@ -4731,10 +4699,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C127">
         <v>29.87</v>
@@ -4742,10 +4710,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C128">
         <v>30</v>
@@ -4753,10 +4721,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C129">
         <v>30</v>
@@ -4764,10 +4732,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C130">
         <v>44.36</v>
@@ -4775,10 +4743,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C131">
         <v>55</v>
@@ -4786,7 +4754,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C132">
         <v>35.49</v>
@@ -4794,10 +4762,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C133">
         <v>30</v>
@@ -4805,10 +4773,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C134">
         <v>45</v>
@@ -4816,7 +4784,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C135">
         <v>30</v>
@@ -4824,7 +4792,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C136">
         <v>44.36</v>
@@ -4832,7 +4800,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C137">
         <v>30</v>
@@ -4840,10 +4808,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C138">
         <v>30</v>
@@ -4851,7 +4819,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C139">
         <v>35.49</v>
@@ -4859,7 +4827,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C140">
         <v>44.36</v>
@@ -4867,10 +4835,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C141">
         <v>59.15</v>
@@ -4878,10 +4846,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C142">
         <v>33.42</v>
@@ -4889,10 +4857,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C143">
         <v>43.18</v>
@@ -4900,10 +4868,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B144" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C144">
         <v>38.450000000000003</v>
@@ -4911,7 +4879,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C145">
         <v>41.7</v>
@@ -4919,10 +4887,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C146">
         <v>30</v>
@@ -4930,10 +4898,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C147">
         <v>20</v>
@@ -4941,10 +4909,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B148" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C148">
         <v>29.57</v>
@@ -4952,10 +4920,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C149">
         <v>35.49</v>
@@ -4963,10 +4931,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C150">
         <v>30</v>
@@ -4974,10 +4942,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C151">
         <v>59.15</v>
@@ -4985,10 +4953,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B152" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C152">
         <v>59.15</v>
@@ -4996,10 +4964,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C153">
         <v>45</v>
@@ -5007,10 +4975,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C154">
         <v>45</v>
@@ -5018,10 +4986,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C155">
         <v>73.94</v>
@@ -5029,10 +4997,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B156" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C156">
         <v>12.5</v>
@@ -5040,10 +5008,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C157">
         <v>10</v>
@@ -5051,10 +5019,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C158">
         <v>12.8</v>
@@ -5062,10 +5030,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C159">
         <v>12.7</v>
@@ -5073,10 +5041,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C160">
         <v>30</v>
@@ -5084,10 +5052,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B161" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C161">
         <v>20.100000000000001</v>
@@ -5095,10 +5063,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B162" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C162">
         <v>17.5</v>
@@ -5106,10 +5074,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C163">
         <v>25</v>
@@ -5117,10 +5085,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C164">
         <v>20</v>
@@ -5128,10 +5096,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B165" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C165">
         <v>36</v>
@@ -5139,10 +5107,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C166">
         <v>32</v>
@@ -5150,10 +5118,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B167" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C167">
         <v>28.3</v>
@@ -5161,10 +5129,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B168" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C168">
         <v>30</v>
@@ -5172,10 +5140,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B169" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C169">
         <v>256.41000000000003</v>
@@ -5183,10 +5151,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C170">
         <v>14.2</v>
@@ -5194,7 +5162,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C171">
         <v>45.25</v>
@@ -5202,10 +5170,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C172">
         <v>79.55</v>
@@ -5213,10 +5181,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B173" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C173">
         <v>42</v>
@@ -5224,10 +5192,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C174">
         <v>42</v>
@@ -5235,7 +5203,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C175">
         <v>35.49</v>
@@ -5243,10 +5211,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B176" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C176">
         <v>44.36</v>
@@ -5254,10 +5222,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C177">
         <v>32.53</v>
@@ -5265,10 +5233,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B178" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C178">
         <v>20</v>
@@ -5276,10 +5244,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C179">
         <v>26.62</v>
@@ -5287,10 +5255,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C180">
         <v>60</v>
@@ -5298,10 +5266,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C181">
         <v>44.36</v>
@@ -5309,10 +5277,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B182" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C182">
         <v>35.49</v>
@@ -5320,10 +5288,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B183" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C183">
         <v>29.57</v>
@@ -5331,10 +5299,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B184" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C184">
         <v>15</v>
@@ -5342,10 +5310,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B185" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C185">
         <v>17.5</v>
@@ -5353,10 +5321,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B186" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C186">
         <v>44.36</v>
@@ -5364,10 +5332,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B187" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C187">
         <v>29.57</v>
@@ -5375,10 +5343,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B188" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C188">
         <v>41.4</v>
@@ -5386,10 +5354,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C189">
         <v>29.57</v>
@@ -5397,10 +5365,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C190">
         <v>26.62</v>
@@ -5408,10 +5376,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C191">
         <v>17.739999999999998</v>
@@ -5419,10 +5387,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B192" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C192">
         <v>29.57</v>
@@ -5430,10 +5398,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C193">
         <v>31.05</v>
@@ -5441,10 +5409,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B194" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C194">
         <v>22.48</v>
@@ -5452,10 +5420,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C195">
         <v>14.79</v>
@@ -5463,10 +5431,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C196">
         <v>29.57</v>
@@ -5474,7 +5442,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C197">
         <v>0.3</v>
@@ -5482,7 +5450,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C198">
         <v>62.11</v>
@@ -5490,7 +5458,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C199">
         <v>3.5</v>
@@ -5498,7 +5466,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C200">
         <v>1.77</v>
@@ -5506,7 +5474,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C201">
         <v>3</v>
@@ -5514,7 +5482,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C202">
         <v>23.66</v>
@@ -5522,7 +5490,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C203">
         <v>2.66</v>
@@ -5530,10 +5498,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B204" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C204">
         <v>3</v>
@@ -5541,10 +5509,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C205">
         <v>3</v>
@@ -5552,10 +5520,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B206" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C206">
         <v>39.92</v>
@@ -5563,10 +5531,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B207" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -5574,10 +5542,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C208">
         <v>25</v>
@@ -5585,7 +5553,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C209">
         <v>100</v>
@@ -5593,7 +5561,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C210">
         <v>100</v>
@@ -5601,7 +5569,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C211">
         <v>79.849999999999994</v>
@@ -5609,10 +5577,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C212">
         <v>45.25</v>
@@ -5620,10 +5588,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B213" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C213">
         <v>28.1</v>
@@ -5631,7 +5599,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C214">
         <v>28.1</v>
@@ -5639,7 +5607,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C215">
         <v>28.39</v>
@@ -5647,10 +5615,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C216">
         <v>13</v>
@@ -5661,12 +5629,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1659C7AE-5E1C-4E03-9838-FEEADA35BD3B}">
   <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5676,2818 +5644,2818 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B74" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B75" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B82" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B90" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B91" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B94" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B95" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B105" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B111" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B112" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B114" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B115" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B116" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B117" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B118" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B119" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B121" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B122" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B123" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B124" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B125" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B126" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B127" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B129" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B130" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B147" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B148" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B149" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B152" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B153" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B154" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B155" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B156" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B157" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B158" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B160" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B162" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B165" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B170" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B173" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B174" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B175" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B176" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B178" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B179" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B181" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B186" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B188" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B189" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B190" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B191" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B192" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B196" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B197" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B198" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B201" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B203" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B205" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B206" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B207" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B208" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B209" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B210" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B211" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B212" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B213" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B214" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B215" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B220" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B221" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B222" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B223" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B224" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B225" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B226" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B227" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B228" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B229" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B230" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B231" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B232" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B233" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B234" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B235" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B238" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B241" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B242" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B243" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B244" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B245" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B247" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B249" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B250" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B251" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B252" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B253" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B254" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B255" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B256" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B259" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B265" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B266" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B267" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B268" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B269" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B271" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B273" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B274" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B275" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B276" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B277" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B278" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B279" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B280" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B281" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B286" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B287" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B288" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B289" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B290" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B291" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B292" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B293" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B294" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B295" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B296" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B298" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B299" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B300" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B301" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B302" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B303" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B304" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B305" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B306" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B307" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B308" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B310" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B312" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B313" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B314" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B315" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B317" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B318" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B319" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B320" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B321" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B322" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B323" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B324" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B325" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B327" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B328" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B329" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B330" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B331" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B332" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B333" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B334" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B335" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B336" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B337" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B338" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B339" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B340" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B341" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B342" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B343" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B344" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B345" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B346" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B347" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B354" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B355" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B357" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B359" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B360" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B361" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B365" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B367" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B368" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B369" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B370" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B371" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B380" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B381" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B382" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B383" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B387" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B388" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B389" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B390" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B391" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B392" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B393" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B394" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B397" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B398" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43771729-75BC-44AB-B45F-72A609513A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A8987B-8914-4343-B313-4A66DD68DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -2144,18 +2144,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2516,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2742,7 +2731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -3401,10 +3390,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1 K3:K4 K6:K7 K9:K10 K12:K13 K15:K16 K18:K19 K22:K23 K25:K26 K28:K29 K31:K32">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation for peer review\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A8987B-8914-4343-B313-4A66DD68DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F65E97-27A7-452A-9B42-24DE6097C680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31380DA0-60E8-49BA-9807-75EAC6F400B7}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="7">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation for peer review\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A8987B-8914-4343-B313-4A66DD68DC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98AC64F-781B-4049-8508-E3A9918FAF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="674">
   <si>
     <t>MRN</t>
   </si>
@@ -2056,6 +2056,12 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>VisitNumber</t>
+  </si>
+  <si>
+    <t>MPID</t>
   </si>
 </sst>
 </file>
@@ -2505,21 +2511,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>670</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>27051</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -2599,21 +2605,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2633,19 +2639,25 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>668</v>
       </c>
@@ -2662,19 +2674,25 @@
         <v>12345</v>
       </c>
       <c r="G2">
+        <v>12345</v>
+      </c>
+      <c r="H2">
+        <v>12345</v>
+      </c>
+      <c r="I2">
         <v>300</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>669</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>666</v>
       </c>
@@ -2688,17 +2706,23 @@
         <v>123</v>
       </c>
       <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <f>Guardian!C3</f>
         <v>G123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>667</v>
       </c>
@@ -2712,17 +2736,22 @@
         <v>1234</v>
       </c>
       <c r="G4">
+        <v>1234</v>
+      </c>
+      <c r="H4">
+        <v>1234</v>
+      </c>
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PkRKIMEnzRx6ODVZOAIY73hVaNKMKeGulaijSVAUV5YMHPMGkHmmhANH7pNASPn5gj01tixSBXescAPtNMcm3g==" saltValue="nOTaBpnpzNcY4/2qpXDYCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2735,22 +2764,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>362</v>
       </c>
@@ -2788,7 +2817,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>640</v>
       </c>
@@ -2804,7 +2833,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="F3" s="4"/>
@@ -2823,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="H4" s="7"/>
@@ -2841,7 +2870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>642</v>
       </c>
@@ -2857,7 +2886,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="H6" s="7"/>
@@ -2875,7 +2904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="H7" s="7"/>
@@ -2893,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>659</v>
       </c>
@@ -2909,7 +2938,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="F9" s="4"/>
@@ -2928,7 +2957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="H10" s="7"/>
@@ -2946,7 +2975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>660</v>
       </c>
@@ -2962,7 +2991,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="H12" s="7"/>
@@ -2980,7 +3009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="H13" s="7"/>
@@ -2998,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>661</v>
       </c>
@@ -3014,7 +3043,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="F15" s="4"/>
@@ -3033,7 +3062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="H16" s="7"/>
@@ -3051,7 +3080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>662</v>
       </c>
@@ -3067,7 +3096,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="F18" s="4"/>
@@ -3086,7 +3115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="H19" s="7"/>
@@ -3104,7 +3133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>644</v>
       </c>
@@ -3131,7 +3160,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>647</v>
       </c>
@@ -3158,7 +3187,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="H22" s="7"/>
@@ -3177,7 +3206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="H23" s="7"/>
@@ -3196,7 +3225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>652</v>
       </c>
@@ -3223,7 +3252,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="H25" s="7"/>
@@ -3242,7 +3271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="H26" s="7"/>
@@ -3260,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>654</v>
       </c>
@@ -3289,7 +3318,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="H28" s="7"/>
@@ -3307,7 +3336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="H29" s="7"/>
@@ -3325,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>655</v>
       </c>
@@ -3352,7 +3381,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="H31" s="7"/>
@@ -3370,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="H32" s="7"/>
@@ -3428,14 +3457,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3475,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3468,7 +3497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3495,7 +3524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3506,7 +3535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3514,7 +3543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3522,7 +3551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3530,7 +3559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3546,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3562,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3570,7 +3599,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3578,7 +3607,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3594,7 +3623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3602,7 +3631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3618,7 +3647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3626,7 +3655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3637,7 +3666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3645,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3667,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3689,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +3729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3711,7 +3740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3751,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3744,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3755,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +3795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3777,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3788,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3799,7 +3828,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3810,7 +3839,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3821,7 +3850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3829,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3837,7 +3866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3845,7 +3874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3853,7 +3882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3861,7 +3890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3869,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3877,7 +3906,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3885,7 +3914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3893,7 +3922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3901,7 +3930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3909,7 +3938,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3917,7 +3946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -3925,7 +3954,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3933,7 +3962,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3941,7 +3970,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3952,7 +3981,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3963,7 +3992,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -3985,7 +4014,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -3996,7 +4025,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4007,7 +4036,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4018,7 +4047,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -4029,7 +4058,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -4040,7 +4069,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -4051,7 +4080,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4059,7 +4088,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4070,7 +4099,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -4081,7 +4110,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -4092,7 +4121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4103,7 +4132,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -4111,7 +4140,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -4119,7 +4148,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4130,7 +4159,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -4141,7 +4170,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -4152,7 +4181,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -4163,7 +4192,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -4174,7 +4203,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -4185,7 +4214,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -4196,7 +4225,7 @@
         <v>221.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -4207,7 +4236,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -4218,7 +4247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -4229,7 +4258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -4240,7 +4269,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -4251,7 +4280,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -4262,7 +4291,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -4273,7 +4302,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -4284,7 +4313,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -4295,7 +4324,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -4306,7 +4335,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -4317,7 +4346,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -4328,7 +4357,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -4339,7 +4368,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -4350,7 +4379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -4361,7 +4390,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -4383,7 +4412,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -4394,7 +4423,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -4410,7 +4439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -4418,7 +4447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4426,7 +4455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -4437,7 +4466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -4448,7 +4477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -4459,7 +4488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -4470,7 +4499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -4481,7 +4510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -4492,7 +4521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -4503,7 +4532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4514,7 +4543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4525,7 +4554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -4547,7 +4576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -4558,7 +4587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -4569,7 +4598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -4580,7 +4609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -4591,7 +4620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -4602,7 +4631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -4613,7 +4642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -4621,7 +4650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>212</v>
       </c>
@@ -4629,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>213</v>
       </c>
@@ -4637,7 +4666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -4645,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -4656,7 +4685,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -4664,7 +4693,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -4675,7 +4704,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4686,7 +4715,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -4697,7 +4726,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -4708,7 +4737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -4719,7 +4748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -4730,7 +4759,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -4741,7 +4770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>230</v>
       </c>
@@ -4749,7 +4778,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -4760,7 +4789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>233</v>
       </c>
@@ -4771,7 +4800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>234</v>
       </c>
@@ -4779,7 +4808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>235</v>
       </c>
@@ -4787,7 +4816,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -4795,7 +4824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -4806,7 +4835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -4814,7 +4843,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>240</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -4833,7 +4862,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -4844,7 +4873,7 @@
         <v>33.42</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -4855,7 +4884,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -4866,7 +4895,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>246</v>
       </c>
@@ -4874,7 +4903,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -4885,7 +4914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>249</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -4907,7 +4936,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -4918,7 +4947,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -4929,7 +4958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -4940,7 +4969,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -4951,7 +4980,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>259</v>
       </c>
@@ -4962,7 +4991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>261</v>
       </c>
@@ -4973,7 +5002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>73.94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>263</v>
       </c>
@@ -4995,7 +5024,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>265</v>
       </c>
@@ -5006,7 +5035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -5017,7 +5046,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5057,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -5039,7 +5068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -5050,7 +5079,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>275</v>
       </c>
@@ -5061,7 +5090,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>277</v>
       </c>
@@ -5072,7 +5101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>279</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>281</v>
       </c>
@@ -5094,7 +5123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -5105,7 +5134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>285</v>
       </c>
@@ -5116,7 +5145,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>287</v>
       </c>
@@ -5127,7 +5156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>289</v>
       </c>
@@ -5138,7 +5167,7 @@
         <v>256.41000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -5149,7 +5178,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -5157,7 +5186,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>292</v>
       </c>
@@ -5168,7 +5197,7 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -5179,7 +5208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -5190,7 +5219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>299</v>
       </c>
@@ -5220,7 +5249,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>301</v>
       </c>
@@ -5231,7 +5260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -5242,7 +5271,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>304</v>
       </c>
@@ -5253,7 +5282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>305</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>306</v>
       </c>
@@ -5275,7 +5304,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>308</v>
       </c>
@@ -5286,7 +5315,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>310</v>
       </c>
@@ -5297,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>312</v>
       </c>
@@ -5308,7 +5337,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>314</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -5330,7 +5359,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -5341,7 +5370,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>320</v>
       </c>
@@ -5352,7 +5381,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>322</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -5374,7 +5403,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>326</v>
       </c>
@@ -5385,7 +5414,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>328</v>
       </c>
@@ -5396,7 +5425,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>330</v>
       </c>
@@ -5407,7 +5436,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>332</v>
       </c>
@@ -5418,7 +5447,7 @@
         <v>14.79</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -5429,7 +5458,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>336</v>
       </c>
@@ -5437,7 +5466,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>337</v>
       </c>
@@ -5445,7 +5474,7 @@
         <v>62.11</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>338</v>
       </c>
@@ -5453,7 +5482,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>339</v>
       </c>
@@ -5461,7 +5490,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>340</v>
       </c>
@@ -5469,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>341</v>
       </c>
@@ -5477,7 +5506,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>342</v>
       </c>
@@ -5485,7 +5514,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>343</v>
       </c>
@@ -5496,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>345</v>
       </c>
@@ -5507,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>347</v>
       </c>
@@ -5518,7 +5547,7 @@
         <v>39.92</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>349</v>
       </c>
@@ -5529,7 +5558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>351</v>
       </c>
@@ -5540,7 +5569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>353</v>
       </c>
@@ -5548,7 +5577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>354</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>355</v>
       </c>
@@ -5564,7 +5593,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>356</v>
       </c>
@@ -5575,7 +5604,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5586,7 +5615,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>358</v>
       </c>
@@ -5594,7 +5623,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>359</v>
       </c>
@@ -5602,7 +5631,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>360</v>
       </c>
@@ -5626,13 +5655,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5648,7 +5677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>366</v>
       </c>
@@ -5656,7 +5685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>367</v>
       </c>
@@ -5664,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5672,7 +5701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -5680,7 +5709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>369</v>
       </c>
@@ -5688,7 +5717,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -5696,7 +5725,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5704,17 +5733,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>374</v>
       </c>
@@ -5722,17 +5751,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5740,157 +5769,157 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>393</v>
       </c>
@@ -5898,7 +5927,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -5906,7 +5935,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>395</v>
       </c>
@@ -5914,7 +5943,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -5922,7 +5951,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>397</v>
       </c>
@@ -5930,7 +5959,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -5938,7 +5967,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>399</v>
       </c>
@@ -5946,7 +5975,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -5954,7 +5983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>401</v>
       </c>
@@ -5962,7 +5991,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -5970,7 +5999,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>403</v>
       </c>
@@ -5978,7 +6007,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>404</v>
       </c>
@@ -5986,7 +6015,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>405</v>
       </c>
@@ -5994,7 +6023,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>406</v>
       </c>
@@ -6002,7 +6031,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>407</v>
       </c>
@@ -6010,7 +6039,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>408</v>
       </c>
@@ -6018,7 +6047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -6026,32 +6055,32 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -6059,7 +6088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>414</v>
       </c>
@@ -6067,17 +6096,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>417</v>
       </c>
@@ -6085,7 +6114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -6093,7 +6122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>418</v>
       </c>
@@ -6101,7 +6130,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>420</v>
       </c>
@@ -6109,12 +6138,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -6122,7 +6151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -6130,7 +6159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -6138,7 +6167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>424</v>
       </c>
@@ -6146,12 +6175,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>426</v>
       </c>
@@ -6159,12 +6188,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -6172,7 +6201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -6180,7 +6209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -6188,7 +6217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>65</v>
       </c>
@@ -6196,7 +6225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>429</v>
       </c>
@@ -6204,7 +6233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>67</v>
       </c>
@@ -6212,7 +6241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>430</v>
       </c>
@@ -6220,7 +6249,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>432</v>
       </c>
@@ -6228,7 +6257,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>434</v>
       </c>
@@ -6236,7 +6265,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>436</v>
       </c>
@@ -6244,7 +6273,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>438</v>
       </c>
@@ -6252,7 +6281,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>440</v>
       </c>
@@ -6260,7 +6289,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -6268,7 +6297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>442</v>
       </c>
@@ -6276,7 +6305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>443</v>
       </c>
@@ -6292,7 +6321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -6300,22 +6329,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -6323,7 +6352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>447</v>
       </c>
@@ -6331,17 +6360,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -6349,7 +6378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -6357,7 +6386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6365,7 +6394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>451</v>
       </c>
@@ -6373,7 +6402,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>453</v>
       </c>
@@ -6381,7 +6410,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>455</v>
       </c>
@@ -6389,7 +6418,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>457</v>
       </c>
@@ -6397,7 +6426,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>459</v>
       </c>
@@ -6405,7 +6434,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>461</v>
       </c>
@@ -6413,7 +6442,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>463</v>
       </c>
@@ -6421,7 +6450,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>465</v>
       </c>
@@ -6429,7 +6458,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>467</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -6445,7 +6474,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>471</v>
       </c>
@@ -6453,7 +6482,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>473</v>
       </c>
@@ -6461,7 +6490,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>475</v>
       </c>
@@ -6469,7 +6498,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -6477,7 +6506,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>479</v>
       </c>
@@ -6485,7 +6514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>481</v>
       </c>
@@ -6493,7 +6522,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>483</v>
       </c>
@@ -6501,12 +6530,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>486</v>
       </c>
@@ -6514,7 +6543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -6530,82 +6559,82 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>490</v>
       </c>
@@ -6613,7 +6642,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>492</v>
       </c>
@@ -6621,7 +6650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -6629,7 +6658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -6637,7 +6666,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -6645,7 +6674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>105</v>
       </c>
@@ -6653,7 +6682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>107</v>
       </c>
@@ -6661,7 +6690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -6669,7 +6698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>111</v>
       </c>
@@ -6677,7 +6706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -6685,7 +6714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>115</v>
       </c>
@@ -6693,7 +6722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -6701,12 +6730,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -6714,12 +6743,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -6727,7 +6756,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -6735,7 +6764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>124</v>
       </c>
@@ -6743,7 +6772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -6751,17 +6780,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -6769,7 +6798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -6777,7 +6806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -6785,7 +6814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -6793,7 +6822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -6801,7 +6830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -6809,7 +6838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -6817,7 +6846,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>497</v>
       </c>
@@ -6825,7 +6854,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -6833,12 +6862,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>502</v>
       </c>
@@ -6846,7 +6875,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>503</v>
       </c>
@@ -6854,7 +6883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>504</v>
       </c>
@@ -6862,7 +6891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>146</v>
       </c>
@@ -6870,7 +6899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>505</v>
       </c>
@@ -6878,7 +6907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -6886,7 +6915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>506</v>
       </c>
@@ -6894,12 +6923,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -6907,7 +6936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -6915,7 +6944,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>508</v>
       </c>
@@ -6923,7 +6952,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>510</v>
       </c>
@@ -6931,7 +6960,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -6939,7 +6968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>155</v>
       </c>
@@ -6947,7 +6976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>157</v>
       </c>
@@ -6955,7 +6984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>159</v>
       </c>
@@ -6963,7 +6992,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>161</v>
       </c>
@@ -6971,7 +7000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -6979,7 +7008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -6987,7 +7016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>167</v>
       </c>
@@ -6995,7 +7024,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>512</v>
       </c>
@@ -7003,17 +7032,17 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>516</v>
       </c>
@@ -7021,12 +7050,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -7034,7 +7063,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>169</v>
       </c>
@@ -7042,7 +7071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>520</v>
       </c>
@@ -7050,7 +7079,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>170</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -7066,7 +7095,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -7074,7 +7103,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -7082,7 +7111,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>524</v>
       </c>
@@ -7090,7 +7119,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>174</v>
       </c>
@@ -7098,7 +7127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>175</v>
       </c>
@@ -7106,7 +7135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>525</v>
       </c>
@@ -7114,7 +7143,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>527</v>
       </c>
@@ -7122,7 +7151,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>528</v>
       </c>
@@ -7130,27 +7159,27 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>529</v>
       </c>
@@ -7158,7 +7187,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>530</v>
       </c>
@@ -7166,7 +7195,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -7174,7 +7203,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>532</v>
       </c>
@@ -7182,7 +7211,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>533</v>
       </c>
@@ -7190,7 +7219,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>190</v>
       </c>
@@ -7198,7 +7227,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -7206,7 +7235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -7214,7 +7243,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>196</v>
       </c>
@@ -7222,7 +7251,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>198</v>
       </c>
@@ -7230,7 +7259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>200</v>
       </c>
@@ -7238,7 +7267,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>202</v>
       </c>
@@ -7246,7 +7275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>204</v>
       </c>
@@ -7254,7 +7283,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -7262,7 +7291,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -7270,7 +7299,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -7278,17 +7307,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>534</v>
       </c>
@@ -7296,17 +7325,17 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>536</v>
       </c>
@@ -7314,7 +7343,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>538</v>
       </c>
@@ -7322,7 +7351,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -7330,7 +7359,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>540</v>
       </c>
@@ -7338,7 +7367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>541</v>
       </c>
@@ -7346,12 +7375,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>543</v>
       </c>
@@ -7359,12 +7388,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -7372,7 +7401,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>546</v>
       </c>
@@ -7380,7 +7409,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>220</v>
       </c>
@@ -7388,7 +7417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>224</v>
       </c>
@@ -7396,7 +7425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>225</v>
       </c>
@@ -7404,7 +7433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>226</v>
       </c>
@@ -7412,7 +7441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -7420,7 +7449,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -7428,17 +7457,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>237</v>
       </c>
@@ -7446,27 +7475,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>241</v>
       </c>
@@ -7474,7 +7503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>549</v>
       </c>
@@ -7482,7 +7511,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>550</v>
       </c>
@@ -7490,7 +7519,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>551</v>
       </c>
@@ -7498,7 +7527,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>552</v>
       </c>
@@ -7506,7 +7535,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>243</v>
       </c>
@@ -7514,7 +7543,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>244</v>
       </c>
@@ -7522,7 +7551,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>245</v>
       </c>
@@ -7530,12 +7559,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>247</v>
       </c>
@@ -7543,7 +7572,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>553</v>
       </c>
@@ -7551,7 +7580,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>555</v>
       </c>
@@ -7559,7 +7588,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>249</v>
       </c>
@@ -7567,7 +7596,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>556</v>
       </c>
@@ -7575,7 +7604,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>250</v>
       </c>
@@ -7583,7 +7612,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>252</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -7599,7 +7628,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>256</v>
       </c>
@@ -7607,27 +7636,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>258</v>
       </c>
@@ -7635,7 +7664,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>259</v>
       </c>
@@ -7643,7 +7672,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>261</v>
       </c>
@@ -7651,7 +7680,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -7659,7 +7688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -7667,7 +7696,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -7675,7 +7704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -7683,7 +7712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>269</v>
       </c>
@@ -7691,7 +7720,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>271</v>
       </c>
@@ -7699,7 +7728,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>273</v>
       </c>
@@ -7707,7 +7736,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>275</v>
       </c>
@@ -7715,7 +7744,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -7723,7 +7752,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>279</v>
       </c>
@@ -7731,7 +7760,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>281</v>
       </c>
@@ -7739,7 +7768,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>283</v>
       </c>
@@ -7747,7 +7776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>285</v>
       </c>
@@ -7755,7 +7784,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>561</v>
       </c>
@@ -7763,7 +7792,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>562</v>
       </c>
@@ -7771,7 +7800,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>563</v>
       </c>
@@ -7779,7 +7808,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -7787,7 +7816,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>289</v>
       </c>
@@ -7795,7 +7824,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>290</v>
       </c>
@@ -7803,7 +7832,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>564</v>
       </c>
@@ -7811,12 +7840,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>292</v>
       </c>
@@ -7824,12 +7853,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>566</v>
       </c>
@@ -7837,7 +7866,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>294</v>
       </c>
@@ -7845,7 +7874,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>295</v>
       </c>
@@ -7853,7 +7882,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>567</v>
       </c>
@@ -7861,12 +7890,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>569</v>
       </c>
@@ -7874,7 +7903,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>570</v>
       </c>
@@ -7882,7 +7911,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>572</v>
       </c>
@@ -7890,7 +7919,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>297</v>
       </c>
@@ -7898,7 +7927,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -7906,7 +7935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -7914,7 +7943,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>303</v>
       </c>
@@ -7922,7 +7951,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>304</v>
       </c>
@@ -7930,7 +7959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>305</v>
       </c>
@@ -7938,12 +7967,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>306</v>
       </c>
@@ -7951,7 +7980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>575</v>
       </c>
@@ -7959,7 +7988,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>308</v>
       </c>
@@ -7967,7 +7996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>577</v>
       </c>
@@ -7975,7 +8004,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>579</v>
       </c>
@@ -7983,7 +8012,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>310</v>
       </c>
@@ -7991,7 +8020,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>312</v>
       </c>
@@ -7999,7 +8028,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>314</v>
       </c>
@@ -8007,7 +8036,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>318</v>
       </c>
@@ -8015,7 +8044,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>322</v>
       </c>
@@ -8023,7 +8052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>324</v>
       </c>
@@ -8031,7 +8060,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>580</v>
       </c>
@@ -8039,7 +8068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>326</v>
       </c>
@@ -8047,7 +8076,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>581</v>
       </c>
@@ -8055,7 +8084,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>328</v>
       </c>
@@ -8063,7 +8092,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>330</v>
       </c>
@@ -8071,7 +8100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>583</v>
       </c>
@@ -8079,7 +8108,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>585</v>
       </c>
@@ -8087,7 +8116,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>334</v>
       </c>
@@ -8095,7 +8124,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>587</v>
       </c>
@@ -8103,7 +8132,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>589</v>
       </c>
@@ -8111,37 +8140,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>343</v>
       </c>
@@ -8149,7 +8178,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>345</v>
       </c>
@@ -8157,7 +8186,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>347</v>
       </c>
@@ -8165,7 +8194,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>594</v>
       </c>
@@ -8173,12 +8202,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>349</v>
       </c>
@@ -8186,7 +8215,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>597</v>
       </c>
@@ -8194,7 +8223,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>351</v>
       </c>
@@ -8202,22 +8231,22 @@
         <v>352</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>356</v>
       </c>
@@ -8225,12 +8254,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>599</v>
       </c>
@@ -8238,7 +8267,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>600</v>
       </c>
@@ -8246,7 +8275,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>601</v>
       </c>
@@ -8254,7 +8283,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>357</v>
       </c>
@@ -8262,7 +8291,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>602</v>
       </c>
@@ -8270,47 +8299,47 @@
         <v>602</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>610</v>
       </c>
@@ -8318,7 +8347,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>612</v>
       </c>
@@ -8326,7 +8355,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>614</v>
       </c>
@@ -8334,7 +8363,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>616</v>
       </c>
@@ -8342,22 +8371,22 @@
         <v>617</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>620</v>
       </c>
@@ -8365,7 +8394,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>622</v>
       </c>
@@ -8373,7 +8402,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>624</v>
       </c>
@@ -8381,7 +8410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>626</v>
       </c>
@@ -8389,7 +8418,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>628</v>
       </c>
@@ -8397,7 +8426,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>360</v>
       </c>
@@ -8405,7 +8434,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>630</v>
       </c>
@@ -8413,7 +8442,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>632</v>
       </c>
@@ -8421,17 +8450,17 @@
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>636</v>
       </c>
@@ -8439,7 +8468,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>638</v>
       </c>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation for peer review\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F65E97-27A7-452A-9B42-24DE6097C680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A81DF1-147C-4B78-8622-F77919197C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="674">
   <si>
     <t>MRN</t>
   </si>
@@ -2056,6 +2056,12 @@
   </si>
   <si>
     <t>003</t>
+  </si>
+  <si>
+    <t>VisitNumber</t>
+  </si>
+  <si>
+    <t>MPID</t>
   </si>
 </sst>
 </file>
@@ -2509,17 +2515,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>670</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>27051</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -2599,21 +2605,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2633,19 +2639,25 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>668</v>
       </c>
@@ -2662,19 +2674,25 @@
         <v>12345</v>
       </c>
       <c r="G2">
+        <v>12345</v>
+      </c>
+      <c r="H2">
+        <v>12345</v>
+      </c>
+      <c r="I2">
         <v>300</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>669</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>666</v>
       </c>
@@ -2688,17 +2706,23 @@
         <v>123</v>
       </c>
       <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3">
+        <v>123</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <f>Guardian!C3</f>
         <v>G123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>667</v>
       </c>
@@ -2712,17 +2736,22 @@
         <v>1234</v>
       </c>
       <c r="G4">
+        <v>1234</v>
+      </c>
+      <c r="H4">
+        <v>1234</v>
+      </c>
+      <c r="I4">
         <v>200</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PkRKIMEnzRx6ODVZOAIY73hVaNKMKeGulaijSVAUV5YMHPMGkHmmhANH7pNASPn5gj01tixSBXescAPtNMcm3g==" saltValue="nOTaBpnpzNcY4/2qpXDYCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2732,25 +2761,25 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.44140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>362</v>
       </c>
@@ -2788,7 +2817,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>640</v>
       </c>
@@ -2804,7 +2833,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="F3" s="4"/>
@@ -2823,7 +2852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="H4" s="7"/>
@@ -2841,7 +2870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>642</v>
       </c>
@@ -2857,7 +2886,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="H6" s="7"/>
@@ -2875,7 +2904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="H7" s="7"/>
@@ -2893,7 +2922,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>659</v>
       </c>
@@ -2909,7 +2938,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="F9" s="4"/>
@@ -2928,7 +2957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="H10" s="7"/>
@@ -2946,7 +2975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>660</v>
       </c>
@@ -2962,7 +2991,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="H12" s="7"/>
@@ -2980,7 +3009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="H13" s="7"/>
@@ -2998,7 +3027,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>661</v>
       </c>
@@ -3014,7 +3043,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="F15" s="4"/>
@@ -3033,7 +3062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="H16" s="7"/>
@@ -3051,7 +3080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>662</v>
       </c>
@@ -3067,7 +3096,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="F18" s="4"/>
@@ -3086,7 +3115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="H19" s="7"/>
@@ -3104,7 +3133,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>644</v>
       </c>
@@ -3131,7 +3160,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>647</v>
       </c>
@@ -3158,7 +3187,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="H22" s="7"/>
@@ -3177,7 +3206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="H23" s="7"/>
@@ -3196,7 +3225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>652</v>
       </c>
@@ -3223,7 +3252,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="H25" s="7"/>
@@ -3242,7 +3271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="H26" s="7"/>
@@ -3260,7 +3289,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>654</v>
       </c>
@@ -3289,7 +3318,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="H28" s="7"/>
@@ -3307,7 +3336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="H29" s="7"/>
@@ -3325,7 +3354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>655</v>
       </c>
@@ -3352,7 +3381,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="H31" s="7"/>
@@ -3370,7 +3399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="H32" s="7"/>
@@ -3428,14 +3457,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -3446,7 +3475,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3457,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3468,7 +3497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3479,7 +3508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3495,7 +3524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3506,7 +3535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3514,7 +3543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3522,7 +3551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3530,7 +3559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3546,7 +3575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3554,7 +3583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3562,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3570,7 +3599,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3578,7 +3607,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3594,7 +3623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3602,7 +3631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3618,7 +3647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3626,7 +3655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3637,7 +3666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3645,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3667,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3678,7 +3707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3689,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3700,7 +3729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3711,7 +3740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3722,7 +3751,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3744,7 +3773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3755,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3766,7 +3795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3777,7 +3806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3788,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3799,7 +3828,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3810,7 +3839,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3821,7 +3850,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3829,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3837,7 +3866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3845,7 +3874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3853,7 +3882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3861,7 +3890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3869,7 +3898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3877,7 +3906,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3885,7 +3914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3893,7 +3922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3901,7 +3930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3909,7 +3938,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3917,7 +3946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -3925,7 +3954,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3933,7 +3962,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3941,7 +3970,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3952,7 +3981,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3963,7 +3992,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -3974,7 +4003,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -3985,7 +4014,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -3996,7 +4025,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4007,7 +4036,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4018,7 +4047,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -4029,7 +4058,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -4040,7 +4069,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -4051,7 +4080,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4059,7 +4088,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4070,7 +4099,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -4081,7 +4110,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -4092,7 +4121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4103,7 +4132,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -4111,7 +4140,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -4119,7 +4148,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4130,7 +4159,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -4141,7 +4170,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -4152,7 +4181,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -4163,7 +4192,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -4174,7 +4203,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -4185,7 +4214,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -4196,7 +4225,7 @@
         <v>221.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -4207,7 +4236,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -4218,7 +4247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -4229,7 +4258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -4240,7 +4269,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -4251,7 +4280,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -4262,7 +4291,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -4273,7 +4302,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -4284,7 +4313,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -4295,7 +4324,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -4306,7 +4335,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -4317,7 +4346,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -4328,7 +4357,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -4339,7 +4368,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -4350,7 +4379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -4361,7 +4390,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -4383,7 +4412,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -4394,7 +4423,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -4402,7 +4431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -4410,7 +4439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -4418,7 +4447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4426,7 +4455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -4437,7 +4466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -4448,7 +4477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -4459,7 +4488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -4470,7 +4499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -4481,7 +4510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -4492,7 +4521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -4503,7 +4532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4514,7 +4543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4525,7 +4554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -4536,7 +4565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -4547,7 +4576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -4558,7 +4587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -4569,7 +4598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -4580,7 +4609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -4591,7 +4620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -4602,7 +4631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -4613,7 +4642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -4621,7 +4650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>212</v>
       </c>
@@ -4629,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>213</v>
       </c>
@@ -4637,7 +4666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -4645,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -4656,7 +4685,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -4664,7 +4693,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -4675,7 +4704,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4686,7 +4715,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -4697,7 +4726,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -4708,7 +4737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -4719,7 +4748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -4730,7 +4759,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -4741,7 +4770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>230</v>
       </c>
@@ -4749,7 +4778,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -4760,7 +4789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>233</v>
       </c>
@@ -4771,7 +4800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>234</v>
       </c>
@@ -4779,7 +4808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>235</v>
       </c>
@@ -4787,7 +4816,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -4795,7 +4824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -4806,7 +4835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -4814,7 +4843,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>240</v>
       </c>
@@ -4822,7 +4851,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -4833,7 +4862,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -4844,7 +4873,7 @@
         <v>33.42</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -4855,7 +4884,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -4866,7 +4895,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>246</v>
       </c>
@@ -4874,7 +4903,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -4885,7 +4914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>249</v>
       </c>
@@ -4896,7 +4925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -4907,7 +4936,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -4918,7 +4947,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -4929,7 +4958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -4940,7 +4969,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -4951,7 +4980,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>259</v>
       </c>
@@ -4962,7 +4991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>261</v>
       </c>
@@ -4973,7 +5002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -4984,7 +5013,7 @@
         <v>73.94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>263</v>
       </c>
@@ -4995,7 +5024,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>265</v>
       </c>
@@ -5006,7 +5035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -5017,7 +5046,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5057,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -5039,7 +5068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -5050,7 +5079,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>275</v>
       </c>
@@ -5061,7 +5090,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>277</v>
       </c>
@@ -5072,7 +5101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>279</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>281</v>
       </c>
@@ -5094,7 +5123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -5105,7 +5134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>285</v>
       </c>
@@ -5116,7 +5145,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>287</v>
       </c>
@@ -5127,7 +5156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>289</v>
       </c>
@@ -5138,7 +5167,7 @@
         <v>256.41000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -5149,7 +5178,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -5157,7 +5186,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>292</v>
       </c>
@@ -5168,7 +5197,7 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -5179,7 +5208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -5190,7 +5219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>299</v>
       </c>
@@ -5220,7 +5249,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>301</v>
       </c>
@@ -5231,7 +5260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -5242,7 +5271,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>304</v>
       </c>
@@ -5253,7 +5282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>305</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>306</v>
       </c>
@@ -5275,7 +5304,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>308</v>
       </c>
@@ -5286,7 +5315,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>310</v>
       </c>
@@ -5297,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>312</v>
       </c>
@@ -5308,7 +5337,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>314</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -5330,7 +5359,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -5341,7 +5370,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>320</v>
       </c>
@@ -5352,7 +5381,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>322</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -5374,7 +5403,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>326</v>
       </c>
@@ -5385,7 +5414,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>328</v>
       </c>
@@ -5396,7 +5425,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>330</v>
       </c>
@@ -5407,7 +5436,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>332</v>
       </c>
@@ -5418,7 +5447,7 @@
         <v>14.79</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -5429,7 +5458,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>336</v>
       </c>
@@ -5437,7 +5466,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>337</v>
       </c>
@@ -5445,7 +5474,7 @@
         <v>62.11</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>338</v>
       </c>
@@ -5453,7 +5482,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>339</v>
       </c>
@@ -5461,7 +5490,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>340</v>
       </c>
@@ -5469,7 +5498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>341</v>
       </c>
@@ -5477,7 +5506,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>342</v>
       </c>
@@ -5485,7 +5514,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>343</v>
       </c>
@@ -5496,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>345</v>
       </c>
@@ -5507,7 +5536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>347</v>
       </c>
@@ -5518,7 +5547,7 @@
         <v>39.92</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>349</v>
       </c>
@@ -5529,7 +5558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>351</v>
       </c>
@@ -5540,7 +5569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>353</v>
       </c>
@@ -5548,7 +5577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>354</v>
       </c>
@@ -5556,7 +5585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>355</v>
       </c>
@@ -5564,7 +5593,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>356</v>
       </c>
@@ -5575,7 +5604,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5586,7 +5615,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>358</v>
       </c>
@@ -5594,7 +5623,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>359</v>
       </c>
@@ -5602,7 +5631,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>360</v>
       </c>
@@ -5626,13 +5655,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -5640,7 +5669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5648,7 +5677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>366</v>
       </c>
@@ -5656,7 +5685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>367</v>
       </c>
@@ -5664,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5672,7 +5701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -5680,7 +5709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>369</v>
       </c>
@@ -5688,7 +5717,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -5696,7 +5725,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5704,17 +5733,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>374</v>
       </c>
@@ -5722,17 +5751,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5740,157 +5769,157 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>393</v>
       </c>
@@ -5898,7 +5927,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -5906,7 +5935,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>395</v>
       </c>
@@ -5914,7 +5943,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -5922,7 +5951,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>397</v>
       </c>
@@ -5930,7 +5959,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -5938,7 +5967,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>399</v>
       </c>
@@ -5946,7 +5975,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -5954,7 +5983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>401</v>
       </c>
@@ -5962,7 +5991,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -5970,7 +5999,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>403</v>
       </c>
@@ -5978,7 +6007,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>404</v>
       </c>
@@ -5986,7 +6015,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>405</v>
       </c>
@@ -5994,7 +6023,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>406</v>
       </c>
@@ -6002,7 +6031,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>407</v>
       </c>
@@ -6010,7 +6039,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>408</v>
       </c>
@@ -6018,7 +6047,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -6026,32 +6055,32 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -6059,7 +6088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>414</v>
       </c>
@@ -6067,17 +6096,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>417</v>
       </c>
@@ -6085,7 +6114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -6093,7 +6122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>418</v>
       </c>
@@ -6101,7 +6130,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>420</v>
       </c>
@@ -6109,12 +6138,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -6122,7 +6151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -6130,7 +6159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -6138,7 +6167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>424</v>
       </c>
@@ -6146,12 +6175,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>426</v>
       </c>
@@ -6159,12 +6188,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -6172,7 +6201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -6180,7 +6209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -6188,7 +6217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>65</v>
       </c>
@@ -6196,7 +6225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>429</v>
       </c>
@@ -6204,7 +6233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>67</v>
       </c>
@@ -6212,7 +6241,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>430</v>
       </c>
@@ -6220,7 +6249,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>432</v>
       </c>
@@ -6228,7 +6257,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>434</v>
       </c>
@@ -6236,7 +6265,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>436</v>
       </c>
@@ -6244,7 +6273,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>438</v>
       </c>
@@ -6252,7 +6281,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>440</v>
       </c>
@@ -6260,7 +6289,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -6268,7 +6297,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>442</v>
       </c>
@@ -6276,7 +6305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>443</v>
       </c>
@@ -6292,7 +6321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -6300,22 +6329,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -6323,7 +6352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>447</v>
       </c>
@@ -6331,17 +6360,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -6349,7 +6378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -6357,7 +6386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6365,7 +6394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>451</v>
       </c>
@@ -6373,7 +6402,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>453</v>
       </c>
@@ -6381,7 +6410,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>455</v>
       </c>
@@ -6389,7 +6418,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>457</v>
       </c>
@@ -6397,7 +6426,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>459</v>
       </c>
@@ -6405,7 +6434,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>461</v>
       </c>
@@ -6413,7 +6442,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>463</v>
       </c>
@@ -6421,7 +6450,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>465</v>
       </c>
@@ -6429,7 +6458,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>467</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -6445,7 +6474,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>471</v>
       </c>
@@ -6453,7 +6482,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>473</v>
       </c>
@@ -6461,7 +6490,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>475</v>
       </c>
@@ -6469,7 +6498,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -6477,7 +6506,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>479</v>
       </c>
@@ -6485,7 +6514,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>481</v>
       </c>
@@ -6493,7 +6522,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>483</v>
       </c>
@@ -6501,12 +6530,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>486</v>
       </c>
@@ -6514,7 +6543,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -6522,7 +6551,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -6530,82 +6559,82 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>490</v>
       </c>
@@ -6613,7 +6642,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>492</v>
       </c>
@@ -6621,7 +6650,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -6629,7 +6658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -6637,7 +6666,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -6645,7 +6674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>105</v>
       </c>
@@ -6653,7 +6682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>107</v>
       </c>
@@ -6661,7 +6690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -6669,7 +6698,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>111</v>
       </c>
@@ -6677,7 +6706,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -6685,7 +6714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>115</v>
       </c>
@@ -6693,7 +6722,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -6701,12 +6730,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -6714,12 +6743,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -6727,7 +6756,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -6735,7 +6764,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>124</v>
       </c>
@@ -6743,7 +6772,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -6751,17 +6780,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -6769,7 +6798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -6777,7 +6806,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -6785,7 +6814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -6793,7 +6822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -6801,7 +6830,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -6809,7 +6838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -6817,7 +6846,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>497</v>
       </c>
@@ -6825,7 +6854,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -6833,12 +6862,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>502</v>
       </c>
@@ -6846,7 +6875,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>503</v>
       </c>
@@ -6854,7 +6883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>504</v>
       </c>
@@ -6862,7 +6891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>146</v>
       </c>
@@ -6870,7 +6899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>505</v>
       </c>
@@ -6878,7 +6907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -6886,7 +6915,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>506</v>
       </c>
@@ -6894,12 +6923,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -6907,7 +6936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -6915,7 +6944,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>508</v>
       </c>
@@ -6923,7 +6952,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>510</v>
       </c>
@@ -6931,7 +6960,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -6939,7 +6968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>155</v>
       </c>
@@ -6947,7 +6976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>157</v>
       </c>
@@ -6955,7 +6984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>159</v>
       </c>
@@ -6963,7 +6992,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>161</v>
       </c>
@@ -6971,7 +7000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -6979,7 +7008,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -6987,7 +7016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>167</v>
       </c>
@@ -6995,7 +7024,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>512</v>
       </c>
@@ -7003,17 +7032,17 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>516</v>
       </c>
@@ -7021,12 +7050,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -7034,7 +7063,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>169</v>
       </c>
@@ -7042,7 +7071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>520</v>
       </c>
@@ -7050,7 +7079,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>170</v>
       </c>
@@ -7058,7 +7087,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -7066,7 +7095,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -7074,7 +7103,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -7082,7 +7111,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>524</v>
       </c>
@@ -7090,7 +7119,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>174</v>
       </c>
@@ -7098,7 +7127,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>175</v>
       </c>
@@ -7106,7 +7135,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>525</v>
       </c>
@@ -7114,7 +7143,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>527</v>
       </c>
@@ -7122,7 +7151,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>528</v>
       </c>
@@ -7130,27 +7159,27 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>529</v>
       </c>
@@ -7158,7 +7187,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>530</v>
       </c>
@@ -7166,7 +7195,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -7174,7 +7203,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>532</v>
       </c>
@@ -7182,7 +7211,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>533</v>
       </c>
@@ -7190,7 +7219,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>190</v>
       </c>
@@ -7198,7 +7227,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -7206,7 +7235,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -7214,7 +7243,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>196</v>
       </c>
@@ -7222,7 +7251,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>198</v>
       </c>
@@ -7230,7 +7259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>200</v>
       </c>
@@ -7238,7 +7267,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>202</v>
       </c>
@@ -7246,7 +7275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>204</v>
       </c>
@@ -7254,7 +7283,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -7262,7 +7291,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -7270,7 +7299,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -7278,17 +7307,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>534</v>
       </c>
@@ -7296,17 +7325,17 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>536</v>
       </c>
@@ -7314,7 +7343,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>538</v>
       </c>
@@ -7322,7 +7351,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -7330,7 +7359,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>540</v>
       </c>
@@ -7338,7 +7367,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>541</v>
       </c>
@@ -7346,12 +7375,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>543</v>
       </c>
@@ -7359,12 +7388,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -7372,7 +7401,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>546</v>
       </c>
@@ -7380,7 +7409,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>220</v>
       </c>
@@ -7388,7 +7417,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>224</v>
       </c>
@@ -7396,7 +7425,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>225</v>
       </c>
@@ -7404,7 +7433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>226</v>
       </c>
@@ -7412,7 +7441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -7420,7 +7449,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -7428,17 +7457,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>237</v>
       </c>
@@ -7446,27 +7475,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>241</v>
       </c>
@@ -7474,7 +7503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>549</v>
       </c>
@@ -7482,7 +7511,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>550</v>
       </c>
@@ -7490,7 +7519,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>551</v>
       </c>
@@ -7498,7 +7527,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>552</v>
       </c>
@@ -7506,7 +7535,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>243</v>
       </c>
@@ -7514,7 +7543,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>244</v>
       </c>
@@ -7522,7 +7551,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>245</v>
       </c>
@@ -7530,12 +7559,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>247</v>
       </c>
@@ -7543,7 +7572,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>553</v>
       </c>
@@ -7551,7 +7580,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>555</v>
       </c>
@@ -7559,7 +7588,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>249</v>
       </c>
@@ -7567,7 +7596,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>556</v>
       </c>
@@ -7575,7 +7604,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>250</v>
       </c>
@@ -7583,7 +7612,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>252</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -7599,7 +7628,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>256</v>
       </c>
@@ -7607,27 +7636,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>258</v>
       </c>
@@ -7635,7 +7664,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>259</v>
       </c>
@@ -7643,7 +7672,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>261</v>
       </c>
@@ -7651,7 +7680,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -7659,7 +7688,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -7667,7 +7696,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -7675,7 +7704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -7683,7 +7712,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>269</v>
       </c>
@@ -7691,7 +7720,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>271</v>
       </c>
@@ -7699,7 +7728,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>273</v>
       </c>
@@ -7707,7 +7736,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>275</v>
       </c>
@@ -7715,7 +7744,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -7723,7 +7752,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>279</v>
       </c>
@@ -7731,7 +7760,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>281</v>
       </c>
@@ -7739,7 +7768,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>283</v>
       </c>
@@ -7747,7 +7776,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>285</v>
       </c>
@@ -7755,7 +7784,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>561</v>
       </c>
@@ -7763,7 +7792,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>562</v>
       </c>
@@ -7771,7 +7800,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>563</v>
       </c>
@@ -7779,7 +7808,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -7787,7 +7816,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>289</v>
       </c>
@@ -7795,7 +7824,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>290</v>
       </c>
@@ -7803,7 +7832,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>564</v>
       </c>
@@ -7811,12 +7840,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>292</v>
       </c>
@@ -7824,12 +7853,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>566</v>
       </c>
@@ -7837,7 +7866,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>294</v>
       </c>
@@ -7845,7 +7874,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>295</v>
       </c>
@@ -7853,7 +7882,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>567</v>
       </c>
@@ -7861,12 +7890,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>569</v>
       </c>
@@ -7874,7 +7903,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>570</v>
       </c>
@@ -7882,7 +7911,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>572</v>
       </c>
@@ -7890,7 +7919,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>297</v>
       </c>
@@ -7898,7 +7927,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -7906,7 +7935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -7914,7 +7943,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>303</v>
       </c>
@@ -7922,7 +7951,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>304</v>
       </c>
@@ -7930,7 +7959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>305</v>
       </c>
@@ -7938,12 +7967,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>306</v>
       </c>
@@ -7951,7 +7980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>575</v>
       </c>
@@ -7959,7 +7988,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>308</v>
       </c>
@@ -7967,7 +7996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>577</v>
       </c>
@@ -7975,7 +8004,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>579</v>
       </c>
@@ -7983,7 +8012,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>310</v>
       </c>
@@ -7991,7 +8020,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>312</v>
       </c>
@@ -7999,7 +8028,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>314</v>
       </c>
@@ -8007,7 +8036,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>318</v>
       </c>
@@ -8015,7 +8044,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>322</v>
       </c>
@@ -8023,7 +8052,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>324</v>
       </c>
@@ -8031,7 +8060,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>580</v>
       </c>
@@ -8039,7 +8068,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>326</v>
       </c>
@@ -8047,7 +8076,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>581</v>
       </c>
@@ -8055,7 +8084,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>328</v>
       </c>
@@ -8063,7 +8092,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>330</v>
       </c>
@@ -8071,7 +8100,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>583</v>
       </c>
@@ -8079,7 +8108,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>585</v>
       </c>
@@ -8087,7 +8116,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>334</v>
       </c>
@@ -8095,7 +8124,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>587</v>
       </c>
@@ -8103,7 +8132,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>589</v>
       </c>
@@ -8111,37 +8140,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>343</v>
       </c>
@@ -8149,7 +8178,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>345</v>
       </c>
@@ -8157,7 +8186,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>347</v>
       </c>
@@ -8165,7 +8194,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>594</v>
       </c>
@@ -8173,12 +8202,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>349</v>
       </c>
@@ -8186,7 +8215,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>597</v>
       </c>
@@ -8194,7 +8223,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>351</v>
       </c>
@@ -8202,22 +8231,22 @@
         <v>352</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>356</v>
       </c>
@@ -8225,12 +8254,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>599</v>
       </c>
@@ -8238,7 +8267,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>600</v>
       </c>
@@ -8246,7 +8275,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>601</v>
       </c>
@@ -8254,7 +8283,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>357</v>
       </c>
@@ -8262,7 +8291,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>602</v>
       </c>
@@ -8270,47 +8299,47 @@
         <v>602</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>610</v>
       </c>
@@ -8318,7 +8347,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>612</v>
       </c>
@@ -8326,7 +8355,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>614</v>
       </c>
@@ -8334,7 +8363,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>616</v>
       </c>
@@ -8342,22 +8371,22 @@
         <v>617</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>620</v>
       </c>
@@ -8365,7 +8394,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>622</v>
       </c>
@@ -8373,7 +8402,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>624</v>
       </c>
@@ -8381,7 +8410,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>626</v>
       </c>
@@ -8389,7 +8418,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>628</v>
       </c>
@@ -8397,7 +8426,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>360</v>
       </c>
@@ -8405,7 +8434,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>630</v>
       </c>
@@ -8413,7 +8442,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>632</v>
       </c>
@@ -8421,17 +8450,17 @@
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>636</v>
       </c>
@@ -8439,7 +8468,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>638</v>
       </c>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Desktop\Timeless\Important\Automation for peer review\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vbontia\Documents\UiPath\TMNP-Smoke-Testing-Automation\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98AC64F-781B-4049-8508-E3A9918FAF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F4CC3A-E0D6-4E58-B0B1-83E5479E3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="674">
   <si>
     <t>MRN</t>
   </si>
@@ -2509,23 +2509,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92BB898-03AF-4314-BBE1-C81D9493E022}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2539,19 +2540,22 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>670</v>
       </c>
@@ -2564,11 +2568,14 @@
       <c r="D2" t="s">
         <v>669</v>
       </c>
-      <c r="H2" s="3">
+      <c r="E2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="3">
         <v>27051</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>664</v>
       </c>
@@ -2581,23 +2588,26 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>1111111111</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>2222222222</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>27051</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ieny9sQJdopOVv/BJobzqukHbbXqtCUEYpPRG3TzhwYym91nM/7S1K5TSMttxsBSZbeTMryA5CmhdKjQ6xyEDA==" saltValue="SXJKSiOGdpq/zPR/cYkIbg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{7446A7C7-206B-4FE5-9202-6CC7E182923B}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{7446A7C7-206B-4FE5-9202-6CC7E182923B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2607,19 +2617,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC41914-52A6-4FDD-A918-4FCC1614BE99}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="2"/>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>668</v>
       </c>
@@ -2692,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>666</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>G123</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>667</v>
       </c>
@@ -2764,22 +2774,22 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.44140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>362</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>640</v>
       </c>
@@ -2833,7 +2843,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="F3" s="4"/>
@@ -2852,7 +2862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="H4" s="7"/>
@@ -2870,7 +2880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>642</v>
       </c>
@@ -2886,7 +2896,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="H6" s="7"/>
@@ -2904,7 +2914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="H7" s="7"/>
@@ -2922,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>659</v>
       </c>
@@ -2938,7 +2948,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="F9" s="4"/>
@@ -2957,7 +2967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="H10" s="7"/>
@@ -2975,7 +2985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>660</v>
       </c>
@@ -2991,7 +3001,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="H12" s="7"/>
@@ -3009,7 +3019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="H13" s="7"/>
@@ -3027,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>661</v>
       </c>
@@ -3043,7 +3053,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="F15" s="4"/>
@@ -3062,7 +3072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="H16" s="7"/>
@@ -3080,7 +3090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>662</v>
       </c>
@@ -3096,7 +3106,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="F18" s="4"/>
@@ -3115,7 +3125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="H19" s="7"/>
@@ -3133,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>644</v>
       </c>
@@ -3160,7 +3170,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>647</v>
       </c>
@@ -3187,7 +3197,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="H22" s="7"/>
@@ -3206,7 +3216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="H23" s="7"/>
@@ -3225,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>652</v>
       </c>
@@ -3252,7 +3262,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="H25" s="7"/>
@@ -3271,7 +3281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="H26" s="7"/>
@@ -3289,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>654</v>
       </c>
@@ -3318,7 +3328,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="H28" s="7"/>
@@ -3336,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="H29" s="7"/>
@@ -3354,7 +3364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>655</v>
       </c>
@@ -3381,7 +3391,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="H31" s="7"/>
@@ -3399,7 +3409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="H32" s="7"/>
@@ -3457,14 +3467,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -3475,7 +3485,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3486,7 +3496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3497,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3516,7 +3526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3535,7 +3545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3543,7 +3553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -3559,7 +3569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3575,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3591,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3599,7 +3609,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3607,7 +3617,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3623,7 +3633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3631,7 +3641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -3639,7 +3649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -3647,7 +3657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3655,7 +3665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3696,7 +3706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -3751,7 +3761,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3773,7 +3783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -3795,7 +3805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -3806,7 +3816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -3828,7 +3838,7 @@
         <v>11.83</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -3839,7 +3849,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3850,7 +3860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -3858,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -3890,7 +3900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3898,7 +3908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3930,7 +3940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3938,7 +3948,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -3946,7 +3956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3962,7 +3972,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3981,7 +3991,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -3992,7 +4002,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -4003,7 +4013,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -4014,7 +4024,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>107</v>
       </c>
@@ -4025,7 +4035,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4036,7 +4046,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -4047,7 +4057,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>113</v>
       </c>
@@ -4058,7 +4068,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -4080,7 +4090,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4088,7 +4098,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4099,7 +4109,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -4121,7 +4131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -4148,7 +4158,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -4159,7 +4169,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -4170,7 +4180,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -4192,7 +4202,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -4214,7 +4224,7 @@
         <v>66.25</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -4225,7 +4235,7 @@
         <v>221.81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>144</v>
       </c>
@@ -4236,7 +4246,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -4247,7 +4257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -4269,7 +4279,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -4280,7 +4290,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -4291,7 +4301,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -4302,7 +4312,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>157</v>
       </c>
@@ -4313,7 +4323,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -4335,7 +4345,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>163</v>
       </c>
@@ -4346,7 +4356,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -4368,7 +4378,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>169</v>
       </c>
@@ -4379,7 +4389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -4390,7 +4400,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -4412,7 +4422,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -4423,7 +4433,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -4431,7 +4441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -4439,7 +4449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>179</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -4455,7 +4465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -4466,7 +4476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>188</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -4532,7 +4542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>200</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>202</v>
       </c>
@@ -4598,7 +4608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -4609,7 +4619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -4620,7 +4630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>208</v>
       </c>
@@ -4631,7 +4641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -4642,7 +4652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -4650,7 +4660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>212</v>
       </c>
@@ -4658,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>213</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -4685,7 +4695,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -4704,7 +4714,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -4715,7 +4725,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -4726,7 +4736,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -4737,7 +4747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>225</v>
       </c>
@@ -4748,7 +4758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -4759,7 +4769,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>228</v>
       </c>
@@ -4770,7 +4780,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>230</v>
       </c>
@@ -4778,7 +4788,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>233</v>
       </c>
@@ -4800,7 +4810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>234</v>
       </c>
@@ -4808,7 +4818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>235</v>
       </c>
@@ -4816,7 +4826,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>237</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -4843,7 +4853,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>240</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -4862,7 +4872,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>243</v>
       </c>
@@ -4873,7 +4883,7 @@
         <v>33.42</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>244</v>
       </c>
@@ -4884,7 +4894,7 @@
         <v>43.18</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>245</v>
       </c>
@@ -4895,7 +4905,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>246</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>247</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>249</v>
       </c>
@@ -4925,7 +4935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>250</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>252</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>254</v>
       </c>
@@ -4958,7 +4968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -4969,7 +4979,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>258</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>59.15</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>259</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>261</v>
       </c>
@@ -5002,7 +5012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>262</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>73.94</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>263</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>265</v>
       </c>
@@ -5035,7 +5045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>267</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>269</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -5068,7 +5078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -5079,7 +5089,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>275</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>277</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>279</v>
       </c>
@@ -5112,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>281</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -5134,7 +5144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>285</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>287</v>
       </c>
@@ -5156,7 +5166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>289</v>
       </c>
@@ -5167,7 +5177,7 @@
         <v>256.41000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>290</v>
       </c>
@@ -5178,7 +5188,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>291</v>
       </c>
@@ -5186,7 +5196,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>292</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>79.55</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>294</v>
       </c>
@@ -5208,7 +5218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>295</v>
       </c>
@@ -5219,7 +5229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>296</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>297</v>
       </c>
@@ -5238,7 +5248,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>299</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>301</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>303</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>304</v>
       </c>
@@ -5282,7 +5292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>305</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>306</v>
       </c>
@@ -5304,7 +5314,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>308</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>310</v>
       </c>
@@ -5326,7 +5336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>312</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>314</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>320</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>322</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>17.739999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>326</v>
       </c>
@@ -5414,7 +5424,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>328</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>31.05</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>330</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>332</v>
       </c>
@@ -5447,7 +5457,7 @@
         <v>14.79</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>336</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>337</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>62.11</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>338</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>339</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>340</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>341</v>
       </c>
@@ -5506,7 +5516,7 @@
         <v>23.66</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>342</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>343</v>
       </c>
@@ -5525,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>345</v>
       </c>
@@ -5536,7 +5546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>347</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>39.92</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>349</v>
       </c>
@@ -5558,7 +5568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>351</v>
       </c>
@@ -5569,7 +5579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>353</v>
       </c>
@@ -5577,7 +5587,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>354</v>
       </c>
@@ -5585,7 +5595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>355</v>
       </c>
@@ -5593,7 +5603,7 @@
         <v>79.849999999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>356</v>
       </c>
@@ -5604,7 +5614,7 @@
         <v>45.25</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>357</v>
       </c>
@@ -5615,7 +5625,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>358</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>359</v>
       </c>
@@ -5631,7 +5641,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>360</v>
       </c>
@@ -5655,13 +5665,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>366</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>367</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -5701,7 +5711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>368</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>369</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>371</v>
       </c>
@@ -5725,7 +5735,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -5733,17 +5743,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>374</v>
       </c>
@@ -5751,17 +5761,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5769,157 +5779,157 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>393</v>
       </c>
@@ -5927,7 +5937,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>394</v>
       </c>
@@ -5935,7 +5945,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>395</v>
       </c>
@@ -5943,7 +5953,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>396</v>
       </c>
@@ -5951,7 +5961,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>397</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -5967,7 +5977,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>399</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -5983,7 +5993,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>401</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -5999,7 +6009,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>403</v>
       </c>
@@ -6007,7 +6017,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>404</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>405</v>
       </c>
@@ -6023,7 +6033,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>406</v>
       </c>
@@ -6031,7 +6041,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>407</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>408</v>
       </c>
@@ -6047,7 +6057,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>409</v>
       </c>
@@ -6055,32 +6065,32 @@
         <v>409</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>414</v>
       </c>
@@ -6096,17 +6106,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>417</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -6122,7 +6132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>418</v>
       </c>
@@ -6130,7 +6140,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>420</v>
       </c>
@@ -6138,12 +6148,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>56</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>423</v>
       </c>
@@ -6159,7 +6169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>58</v>
       </c>
@@ -6167,7 +6177,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>424</v>
       </c>
@@ -6175,12 +6185,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>426</v>
       </c>
@@ -6188,12 +6198,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -6201,7 +6211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -6209,7 +6219,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>65</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>429</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>67</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>430</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>432</v>
       </c>
@@ -6257,7 +6267,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>434</v>
       </c>
@@ -6265,7 +6275,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>436</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>438</v>
       </c>
@@ -6281,7 +6291,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>440</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -6297,7 +6307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>442</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -6313,7 +6323,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>443</v>
       </c>
@@ -6321,7 +6331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -6329,22 +6339,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>74</v>
       </c>
@@ -6352,7 +6362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>447</v>
       </c>
@@ -6360,17 +6370,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -6378,7 +6388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>78</v>
       </c>
@@ -6386,7 +6396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>451</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>453</v>
       </c>
@@ -6410,7 +6420,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>455</v>
       </c>
@@ -6418,7 +6428,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>457</v>
       </c>
@@ -6426,7 +6436,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>459</v>
       </c>
@@ -6434,7 +6444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>461</v>
       </c>
@@ -6442,7 +6452,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>463</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>465</v>
       </c>
@@ -6458,7 +6468,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>467</v>
       </c>
@@ -6466,7 +6476,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>469</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>471</v>
       </c>
@@ -6482,7 +6492,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>473</v>
       </c>
@@ -6490,7 +6500,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>475</v>
       </c>
@@ -6498,7 +6508,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>477</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>479</v>
       </c>
@@ -6514,7 +6524,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>481</v>
       </c>
@@ -6522,7 +6532,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>483</v>
       </c>
@@ -6530,12 +6540,12 @@
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>486</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>488</v>
       </c>
@@ -6551,7 +6561,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -6559,82 +6569,82 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>490</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>492</v>
       </c>
@@ -6650,7 +6660,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>99</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>101</v>
       </c>
@@ -6666,7 +6676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>105</v>
       </c>
@@ -6682,7 +6692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>107</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -6698,7 +6708,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>111</v>
       </c>
@@ -6706,7 +6716,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>113</v>
       </c>
@@ -6714,7 +6724,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>115</v>
       </c>
@@ -6722,7 +6732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -6730,12 +6740,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -6743,12 +6753,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>495</v>
       </c>
@@ -6756,7 +6766,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>122</v>
       </c>
@@ -6764,7 +6774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>124</v>
       </c>
@@ -6772,7 +6782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -6780,17 +6790,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>130</v>
       </c>
@@ -6798,7 +6808,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -6806,7 +6816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>134</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>136</v>
       </c>
@@ -6822,7 +6832,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -6830,7 +6840,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -6838,7 +6848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>142</v>
       </c>
@@ -6846,7 +6856,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>497</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -6862,12 +6872,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>502</v>
       </c>
@@ -6875,7 +6885,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>503</v>
       </c>
@@ -6883,7 +6893,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>504</v>
       </c>
@@ -6891,7 +6901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>146</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>505</v>
       </c>
@@ -6907,7 +6917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -6915,7 +6925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>506</v>
       </c>
@@ -6923,12 +6933,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -6936,7 +6946,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -6944,7 +6954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>508</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>510</v>
       </c>
@@ -6960,7 +6970,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>154</v>
       </c>
@@ -6968,7 +6978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>155</v>
       </c>
@@ -6976,7 +6986,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>157</v>
       </c>
@@ -6984,7 +6994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>159</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>161</v>
       </c>
@@ -7000,7 +7010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>163</v>
       </c>
@@ -7008,7 +7018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -7016,7 +7026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>167</v>
       </c>
@@ -7024,7 +7034,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>512</v>
       </c>
@@ -7032,17 +7042,17 @@
         <v>513</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>516</v>
       </c>
@@ -7050,12 +7060,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>519</v>
       </c>
@@ -7063,7 +7073,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>169</v>
       </c>
@@ -7071,7 +7081,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>520</v>
       </c>
@@ -7079,7 +7089,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>170</v>
       </c>
@@ -7087,7 +7097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>172</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>521</v>
       </c>
@@ -7103,7 +7113,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>523</v>
       </c>
@@ -7111,7 +7121,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>524</v>
       </c>
@@ -7119,7 +7129,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>174</v>
       </c>
@@ -7127,7 +7137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>175</v>
       </c>
@@ -7135,7 +7145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>525</v>
       </c>
@@ -7143,7 +7153,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>527</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>528</v>
       </c>
@@ -7159,27 +7169,27 @@
         <v>528</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>529</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>530</v>
       </c>
@@ -7195,7 +7205,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>531</v>
       </c>
@@ -7203,7 +7213,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>532</v>
       </c>
@@ -7211,7 +7221,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>533</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>190</v>
       </c>
@@ -7227,7 +7237,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -7235,7 +7245,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>194</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>196</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>198</v>
       </c>
@@ -7259,7 +7269,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>200</v>
       </c>
@@ -7267,7 +7277,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>202</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>204</v>
       </c>
@@ -7283,7 +7293,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>206</v>
       </c>
@@ -7291,7 +7301,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>208</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>209</v>
       </c>
@@ -7307,17 +7317,17 @@
         <v>210</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>534</v>
       </c>
@@ -7325,17 +7335,17 @@
         <v>535</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>536</v>
       </c>
@@ -7343,7 +7353,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>538</v>
       </c>
@@ -7351,7 +7361,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>215</v>
       </c>
@@ -7359,7 +7369,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>540</v>
       </c>
@@ -7367,7 +7377,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>541</v>
       </c>
@@ -7375,12 +7385,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>543</v>
       </c>
@@ -7388,12 +7398,12 @@
         <v>544</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>218</v>
       </c>
@@ -7401,7 +7411,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>546</v>
       </c>
@@ -7409,7 +7419,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>220</v>
       </c>
@@ -7417,7 +7427,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>224</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>225</v>
       </c>
@@ -7433,7 +7443,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>226</v>
       </c>
@@ -7441,7 +7451,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -7449,7 +7459,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>231</v>
       </c>
@@ -7457,17 +7467,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>237</v>
       </c>
@@ -7475,27 +7485,27 @@
         <v>238</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>241</v>
       </c>
@@ -7503,7 +7513,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>549</v>
       </c>
@@ -7511,7 +7521,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>550</v>
       </c>
@@ -7519,7 +7529,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>551</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>552</v>
       </c>
@@ -7535,7 +7545,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>243</v>
       </c>
@@ -7543,7 +7553,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>244</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>245</v>
       </c>
@@ -7559,12 +7569,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>247</v>
       </c>
@@ -7572,7 +7582,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>553</v>
       </c>
@@ -7580,7 +7590,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>555</v>
       </c>
@@ -7588,7 +7598,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>249</v>
       </c>
@@ -7596,7 +7606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>556</v>
       </c>
@@ -7604,7 +7614,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>250</v>
       </c>
@@ -7612,7 +7622,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>252</v>
       </c>
@@ -7620,7 +7630,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -7628,7 +7638,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>256</v>
       </c>
@@ -7636,27 +7646,27 @@
         <v>257</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>258</v>
       </c>
@@ -7664,7 +7674,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>259</v>
       </c>
@@ -7672,7 +7682,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>261</v>
       </c>
@@ -7680,7 +7690,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>262</v>
       </c>
@@ -7688,7 +7698,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>263</v>
       </c>
@@ -7696,7 +7706,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -7704,7 +7714,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>267</v>
       </c>
@@ -7712,7 +7722,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>269</v>
       </c>
@@ -7720,7 +7730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>271</v>
       </c>
@@ -7728,7 +7738,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>273</v>
       </c>
@@ -7736,7 +7746,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>275</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>277</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>279</v>
       </c>
@@ -7760,7 +7770,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>281</v>
       </c>
@@ -7768,7 +7778,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>283</v>
       </c>
@@ -7776,7 +7786,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>285</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>561</v>
       </c>
@@ -7792,7 +7802,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>562</v>
       </c>
@@ -7800,7 +7810,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>563</v>
       </c>
@@ -7808,7 +7818,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -7816,7 +7826,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>289</v>
       </c>
@@ -7824,7 +7834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>290</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>564</v>
       </c>
@@ -7840,12 +7850,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>292</v>
       </c>
@@ -7853,12 +7863,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>566</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>294</v>
       </c>
@@ -7874,7 +7884,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>295</v>
       </c>
@@ -7882,7 +7892,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>567</v>
       </c>
@@ -7890,12 +7900,12 @@
         <v>568</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>569</v>
       </c>
@@ -7903,7 +7913,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>570</v>
       </c>
@@ -7911,7 +7921,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>572</v>
       </c>
@@ -7919,7 +7929,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>297</v>
       </c>
@@ -7927,7 +7937,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>299</v>
       </c>
@@ -7935,7 +7945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>301</v>
       </c>
@@ -7943,7 +7953,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>303</v>
       </c>
@@ -7951,7 +7961,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>304</v>
       </c>
@@ -7959,7 +7969,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>305</v>
       </c>
@@ -7967,12 +7977,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>306</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>575</v>
       </c>
@@ -7988,7 +7998,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>308</v>
       </c>
@@ -7996,7 +8006,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>577</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>579</v>
       </c>
@@ -8012,7 +8022,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>310</v>
       </c>
@@ -8020,7 +8030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>312</v>
       </c>
@@ -8028,7 +8038,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>314</v>
       </c>
@@ -8036,7 +8046,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>318</v>
       </c>
@@ -8044,7 +8054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>322</v>
       </c>
@@ -8052,7 +8062,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>324</v>
       </c>
@@ -8060,7 +8070,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>580</v>
       </c>
@@ -8068,7 +8078,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>326</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>581</v>
       </c>
@@ -8084,7 +8094,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>328</v>
       </c>
@@ -8092,7 +8102,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>330</v>
       </c>
@@ -8100,7 +8110,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>583</v>
       </c>
@@ -8108,7 +8118,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>585</v>
       </c>
@@ -8116,7 +8126,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>334</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>587</v>
       </c>
@@ -8132,7 +8142,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>589</v>
       </c>
@@ -8140,37 +8150,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>343</v>
       </c>
@@ -8178,7 +8188,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>345</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>347</v>
       </c>
@@ -8194,7 +8204,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>594</v>
       </c>
@@ -8202,12 +8212,12 @@
         <v>595</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>349</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>597</v>
       </c>
@@ -8223,7 +8233,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>351</v>
       </c>
@@ -8231,22 +8241,22 @@
         <v>352</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>356</v>
       </c>
@@ -8254,12 +8264,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>599</v>
       </c>
@@ -8267,7 +8277,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>600</v>
       </c>
@@ -8275,7 +8285,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>601</v>
       </c>
@@ -8283,7 +8293,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>357</v>
       </c>
@@ -8291,7 +8301,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>602</v>
       </c>
@@ -8299,47 +8309,47 @@
         <v>602</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>610</v>
       </c>
@@ -8347,7 +8357,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>612</v>
       </c>
@@ -8355,7 +8365,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>614</v>
       </c>
@@ -8363,7 +8373,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>616</v>
       </c>
@@ -8371,22 +8381,22 @@
         <v>617</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>620</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>622</v>
       </c>
@@ -8402,7 +8412,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>624</v>
       </c>
@@ -8410,7 +8420,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>626</v>
       </c>
@@ -8418,7 +8428,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>628</v>
       </c>
@@ -8426,7 +8436,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>360</v>
       </c>
@@ -8434,7 +8444,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>630</v>
       </c>
@@ -8442,7 +8452,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>632</v>
       </c>
@@ -8450,17 +8460,17 @@
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>636</v>
       </c>
@@ -8468,7 +8478,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>638</v>
       </c>

--- a/Assets/Excel/SmokeTestingTestData.xlsx
+++ b/Assets/Excel/SmokeTestingTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jseroy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E255E-28FA-449F-ACA1-F07D92735470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2177270-5AA9-4B80-9B5E-7842AAF9BC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{DAEDCE94-5880-43BD-9814-69B501689CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Guardian" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Order" sheetId="4" r:id="rId3"/>
     <sheet name="Order Base" sheetId="5" r:id="rId4"/>
     <sheet name="OrderAdditives" sheetId="6" r:id="rId5"/>
+    <sheet name="Setup" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="681">
   <si>
     <t>MRN</t>
   </si>
@@ -2062,13 +2063,34 @@
   </si>
   <si>
     <t>MPID</t>
+  </si>
+  <si>
+    <t>Settings Name</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>cal_per_oz_unit_conversion</t>
+  </si>
+  <si>
+    <t>KCAL_PER_100_MLS</t>
+  </si>
+  <si>
+    <t>KCAL_PER_OZ_DEFAULT</t>
+  </si>
+  <si>
+    <t>KCAL_PER_ML</t>
+  </si>
+  <si>
+    <t>ui/decimal/rounding/cals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2091,6 +2113,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F2226"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2120,7 +2149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2145,6 +2174,13 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2512,7 +2548,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2808,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,6 +2896,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -2878,6 +2915,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 24*Setup!F2, IF(Setup!B2=Setup!E1, 24*Setup!E2, IF(Setup!B2=Setup!D1, 24*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>24</v>
       </c>
     </row>
@@ -2912,6 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -2965,6 +3004,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -2983,6 +3023,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 24*Setup!F2, IF(Setup!B2=Setup!E1, 24*Setup!E2, IF(Setup!B2=Setup!D1, 24*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>24</v>
       </c>
     </row>
@@ -3017,6 +3058,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3070,6 +3112,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3088,6 +3131,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 24*Setup!F2, IF(Setup!B2=Setup!E1, 24*Setup!E2, IF(Setup!B2=Setup!D1, 24*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>24</v>
       </c>
     </row>
@@ -3123,6 +3167,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3213,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <f>E20+2</f>
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3232,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="7">
-        <f>E21+4</f>
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 24*Setup!F2, IF(Setup!B2=Setup!E1, 24*Setup!E2, IF(Setup!B2=Setup!D1, 24*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>24</v>
       </c>
     </row>
@@ -3278,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="7">
-        <f>E24+2</f>
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3344,6 +3389,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 20*Setup!F2, IF(Setup!B2=Setup!E1, 20*Setup!E2, IF(Setup!B2=Setup!D1, 20*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>20</v>
       </c>
     </row>
@@ -3362,6 +3408,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 22*Setup!F2, IF(Setup!B2=Setup!E1, 22*Setup!E2, IF(Setup!B2=Setup!D1, 22*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>22</v>
       </c>
     </row>
@@ -3407,6 +3454,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="7">
+        <f>IFERROR(ROUND(IF(Setup!B2=Setup!F1, 20*Setup!F2, IF(Setup!B2=Setup!E1, 20*Setup!E2, IF(Setup!B2=Setup!D1, 20*Setup!D2, 0))), IF(Setup!B2=Setup!D1, 0, Setup!B3)), 0)</f>
         <v>20</v>
       </c>
     </row>
@@ -8490,4 +8538,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588C229F-E3EA-442A-809A-364CBB32564D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <f>1 / 29.5735296</f>
+        <v>3.3814022658965943E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>1 / (29.5735296 / 100)</f>
+        <v>3.3814022658965945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{C5A0D655-FFA3-4DC8-9CA5-A4380E37F444}">
+      <formula1>$D$1:$F$1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>